--- a/dados/radicalsom_matriz.xlsx
+++ b/dados/radicalsom_matriz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E239"/>
+  <dimension ref="A1:G239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>politica</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>full</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -471,17 +481,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:90899578#searchVariation=MLB28557249&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=669608c7-8910-49ff-9acd-6cf00cd0a0f3</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:90899578#searchVariation=MLB28557249&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=4cd4ae8e-1485-4d91-982a-3fd81e3b4b7b</t>
         </is>
       </c>
     </row>
@@ -496,17 +512,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:90899578#searchVariation=MLB27685629&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=669608c7-8910-49ff-9acd-6cf00cd0a0f3</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:90899578#searchVariation=MLB27685629&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=4cd4ae8e-1485-4d91-982a-3fd81e3b4b7b</t>
         </is>
       </c>
     </row>
@@ -521,17 +543,23 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:90899578#searchVariation=MLB27970249&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=669608c7-8910-49ff-9acd-6cf00cd0a0f3</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:90899578#searchVariation=MLB27970249&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=4cd4ae8e-1485-4d91-982a-3fd81e3b4b7b</t>
         </is>
       </c>
     </row>
@@ -546,17 +574,23 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-preto-com-verde/p/MLB27999036?pdp_filters=seller_id:90899578#searchVariation=MLB27999036&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=669608c7-8910-49ff-9acd-6cf00cd0a0f3</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-preto-com-verde/p/MLB27999036?pdp_filters=seller_id:90899578#searchVariation=MLB27999036&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=4cd4ae8e-1485-4d91-982a-3fd81e3b4b7b</t>
         </is>
       </c>
     </row>
@@ -571,17 +605,23 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:90899578#searchVariation=MLB27687422&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=669608c7-8910-49ff-9acd-6cf00cd0a0f3</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:90899578#searchVariation=MLB27687422&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=4cd4ae8e-1485-4d91-982a-3fd81e3b4b7b</t>
         </is>
       </c>
     </row>
@@ -596,17 +636,23 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:90899578#searchVariation=MLB32364344&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=669608c7-8910-49ff-9acd-6cf00cd0a0f3</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:90899578#searchVariation=MLB32364344&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=4cd4ae8e-1485-4d91-982a-3fd81e3b4b7b</t>
         </is>
       </c>
     </row>
@@ -621,17 +667,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:90899578#searchVariation=MLB21392652&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=669608c7-8910-49ff-9acd-6cf00cd0a0f3</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:90899578#searchVariation=MLB21392652&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=4cd4ae8e-1485-4d91-982a-3fd81e3b4b7b</t>
         </is>
       </c>
     </row>
@@ -646,17 +702,23 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:90899578#searchVariation=MLB25707531&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=669608c7-8910-49ff-9acd-6cf00cd0a0f3</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:90899578#searchVariation=MLB25707531&amp;position=20&amp;search_layout=grid&amp;type=product&amp;tracking_id=4cd4ae8e-1485-4d91-982a-3fd81e3b4b7b</t>
         </is>
       </c>
     </row>
@@ -671,17 +733,23 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:90899578#searchVariation=MLB24006449&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=669608c7-8910-49ff-9acd-6cf00cd0a0f3</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:90899578#searchVariation=MLB24006449&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=4cd4ae8e-1485-4d91-982a-3fd81e3b4b7b</t>
         </is>
       </c>
     </row>
@@ -696,17 +764,23 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:90899578#searchVariation=MLB22144397&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=669608c7-8910-49ff-9acd-6cf00cd0a0f3</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:90899578#searchVariation=MLB22144397&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=4cd4ae8e-1485-4d91-982a-3fd81e3b4b7b</t>
         </is>
       </c>
     </row>
@@ -721,17 +795,23 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:90899578#searchVariation=MLB34210379&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=669608c7-8910-49ff-9acd-6cf00cd0a0f3</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:90899578#searchVariation=MLB34210379&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=4cd4ae8e-1485-4d91-982a-3fd81e3b4b7b</t>
         </is>
       </c>
     </row>
@@ -746,17 +826,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:90899578#searchVariation=MLB21348561&amp;position=34&amp;search_layout=grid&amp;type=product&amp;tracking_id=669608c7-8910-49ff-9acd-6cf00cd0a0f3</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:90899578#searchVariation=MLB21348561&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=4cd4ae8e-1485-4d91-982a-3fd81e3b4b7b</t>
         </is>
       </c>
     </row>
@@ -771,17 +861,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:90899578#searchVariation=MLB24154371&amp;position=38&amp;search_layout=grid&amp;type=product&amp;tracking_id=669608c7-8910-49ff-9acd-6cf00cd0a0f3</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:90899578#searchVariation=MLB24154371&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=4cd4ae8e-1485-4d91-982a-3fd81e3b4b7b</t>
         </is>
       </c>
     </row>
@@ -796,17 +896,23 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:90899578#searchVariation=MLB24834408&amp;position=40&amp;search_layout=grid&amp;type=product&amp;tracking_id=669608c7-8910-49ff-9acd-6cf00cd0a0f3</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:90899578#searchVariation=MLB24834408&amp;position=41&amp;search_layout=grid&amp;type=product&amp;tracking_id=4cd4ae8e-1485-4d91-982a-3fd81e3b4b7b</t>
         </is>
       </c>
     </row>
@@ -821,17 +927,23 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:90899578#searchVariation=MLB28687615&amp;position=41&amp;search_layout=grid&amp;type=product&amp;tracking_id=669608c7-8910-49ff-9acd-6cf00cd0a0f3</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:90899578#searchVariation=MLB28687615&amp;position=43&amp;search_layout=grid&amp;type=product&amp;tracking_id=4cd4ae8e-1485-4d91-982a-3fd81e3b4b7b</t>
         </is>
       </c>
     </row>
@@ -846,17 +958,23 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:90899578#searchVariation=MLB21562641&amp;position=47&amp;search_layout=grid&amp;type=product&amp;tracking_id=669608c7-8910-49ff-9acd-6cf00cd0a0f3</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:90899578#searchVariation=MLB21562641&amp;position=46&amp;search_layout=grid&amp;type=product&amp;tracking_id=4cd4ae8e-1485-4d91-982a-3fd81e3b4b7b</t>
         </is>
       </c>
     </row>
@@ -871,17 +989,23 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:90899578#searchVariation=MLB28722231&amp;position=49&amp;search_layout=grid&amp;type=product&amp;tracking_id=669608c7-8910-49ff-9acd-6cf00cd0a0f3</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:90899578#searchVariation=MLB28722231&amp;position=48&amp;search_layout=grid&amp;type=product&amp;tracking_id=4cd4ae8e-1485-4d91-982a-3fd81e3b4b7b</t>
         </is>
       </c>
     </row>
@@ -896,17 +1020,23 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-k-600-k-600-completo/p/MLB28798841?pdp_filters=seller_id:90899578#searchVariation=MLB28798841&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=81070e8a-edf3-4448-a980-e90edfff10d1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-k-600-k-600-completo/p/MLB28798841?pdp_filters=seller_id:90899578#searchVariation=MLB28798841&amp;position=11&amp;search_layout=grid&amp;type=product&amp;tracking_id=373abe50-dea3-45c0-abba-a44acf2dbc42</t>
         </is>
       </c>
     </row>
@@ -921,17 +1051,23 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-k600-combo-5-pecas-longa-distancia-cores-variadas/p/MLB27993263?pdp_filters=seller_id:90899578#searchVariation=MLB27993263&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=81070e8a-edf3-4448-a980-e90edfff10d1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/jfa-k600-combo-5-pecas-longa-distancia-cores-variadas/p/MLB27993263?pdp_filters=seller_id:90899578#searchVariation=MLB27993263&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=373abe50-dea3-45c0-abba-a44acf2dbc42</t>
         </is>
       </c>
     </row>
@@ -946,17 +1082,23 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:90899578#searchVariation=MLB21455208&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=81070e8a-edf3-4448-a980-e90edfff10d1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:90899578#searchVariation=MLB21455208&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=373abe50-dea3-45c0-abba-a44acf2dbc42</t>
         </is>
       </c>
     </row>
@@ -971,17 +1113,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:90899578#searchVariation=MLB21320712&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=81070e8a-edf3-4448-a980-e90edfff10d1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:90899578#searchVariation=MLB21320712&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=373abe50-dea3-45c0-abba-a44acf2dbc42</t>
         </is>
       </c>
     </row>
@@ -996,17 +1148,23 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:90899578#searchVariation=MLB28357019&amp;position=45&amp;search_layout=grid&amp;type=product&amp;tracking_id=81070e8a-edf3-4448-a980-e90edfff10d1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:90899578#searchVariation=MLB28357019&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=373abe50-dea3-45c0-abba-a44acf2dbc42</t>
         </is>
       </c>
     </row>
@@ -1021,17 +1179,23 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:90899578#searchVariation=MLB30476096&amp;position=29&amp;search_layout=grid&amp;type=product&amp;tracking_id=81070e8a-edf3-4448-a980-e90edfff10d1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:90899578#searchVariation=MLB30476096&amp;position=40&amp;search_layout=grid&amp;type=product&amp;tracking_id=373abe50-dea3-45c0-abba-a44acf2dbc42</t>
         </is>
       </c>
     </row>
@@ -1046,17 +1210,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237786659-fonte-automotiva-120-a-jfa-carregador-com-sistema-sci-frete-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db37912c1-e45a-426e-855b-7217e381930f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1237786659-fonte-automotiva-120-a-jfa-carregador-com-sistema-sci-frete-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd502a53d-a567-4734-b1f4-31619307cbb2</t>
         </is>
       </c>
     </row>
@@ -1071,17 +1245,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237793033-fonte-carregador-inteligente-jfa-120-amperes-sci-modelo-full-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db37912c1-e45a-426e-855b-7217e381930f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1237793033-fonte-carregador-inteligente-jfa-120-amperes-sci-modelo-full-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd502a53d-a567-4734-b1f4-31619307cbb2</t>
         </is>
       </c>
     </row>
@@ -1096,17 +1280,23 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-960927274-controle-longa-distncia-jfa-k600-central-cor-preto-cinza-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db37912c1-e45a-426e-855b-7217e381930f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-960927274-controle-longa-distncia-jfa-k600-central-cor-preto-cinza-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd502a53d-a567-4734-b1f4-31619307cbb2</t>
         </is>
       </c>
     </row>
@@ -1121,17 +1311,23 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2044238984-filtro-anti-ruido-jfa-rca-com-blindagem-p-som-automotivo-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db37912c1-e45a-426e-855b-7217e381930f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2044238984-filtro-anti-ruido-jfa-rca-com-blindagem-p-som-automotivo-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd502a53d-a567-4734-b1f4-31619307cbb2</t>
         </is>
       </c>
     </row>
@@ -1146,17 +1342,23 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1014470608-voltimetro-sequenciado-jfa-digital-vs5hi-altabaixa-voltage-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db37912c1-e45a-426e-855b-7217e381930f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1014470608-voltimetro-sequenciado-jfa-digital-vs5hi-altabaixa-voltage-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd502a53d-a567-4734-b1f4-31619307cbb2</t>
         </is>
       </c>
     </row>
@@ -1171,17 +1373,23 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1968884558-fonte-usina-200ah-bivolt-controle-jfa-k600-brinde-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db37912c1-e45a-426e-855b-7217e381930f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1968884558-fonte-usina-200ah-bivolt-controle-jfa-k600-brinde-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd502a53d-a567-4734-b1f4-31619307cbb2</t>
         </is>
       </c>
     </row>
@@ -1196,17 +1404,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305215505-fonte-carregador-jfa-200a-200-amperes-sci-redline-bivolt-som-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db37912c1-e45a-426e-855b-7217e381930f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1305215505-fonte-carregador-jfa-200a-200-amperes-sci-redline-bivolt-som-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd502a53d-a567-4734-b1f4-31619307cbb2</t>
         </is>
       </c>
     </row>
@@ -1221,17 +1439,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305212746-fonte-carregador-jfa-200-amperes-sci-redline-voltamp-bivolt-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7834a3ed-adbe-4d28-945a-ae1269939717</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1305212746-fonte-carregador-jfa-200-amperes-sci-redline-voltamp-bivolt-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1ce23e00-70fb-4034-b101-3f3ea0a1ef0d</t>
         </is>
       </c>
     </row>
@@ -1246,17 +1474,23 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2044257162-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7834a3ed-adbe-4d28-945a-ae1269939717</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2044257162-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1ce23e00-70fb-4034-b101-3f3ea0a1ef0d</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1505,23 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717179525-fonte-carregador-jfa-bob-storm-200a-12v-144v-som-paredo-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7834a3ed-adbe-4d28-945a-ae1269939717</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2717179525-fonte-carregador-jfa-bob-storm-200a-12v-144v-som-paredo-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1ce23e00-70fb-4034-b101-3f3ea0a1ef0d</t>
         </is>
       </c>
     </row>
@@ -1296,17 +1536,23 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1042812523-controle-longa-distncia-jfa-k600-barato-brasil-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7834a3ed-adbe-4d28-945a-ae1269939717</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1042812523-controle-longa-distncia-jfa-k600-barato-brasil-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1ce23e00-70fb-4034-b101-3f3ea0a1ef0d</t>
         </is>
       </c>
     </row>
@@ -1321,17 +1567,23 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2044232351-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7834a3ed-adbe-4d28-945a-ae1269939717</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2044232351-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1ce23e00-70fb-4034-b101-3f3ea0a1ef0d</t>
         </is>
       </c>
     </row>
@@ -1346,17 +1598,23 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465503271-controle-longa-distancia-jfa-preto-cinza-k600-full-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7834a3ed-adbe-4d28-945a-ae1269939717</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1465503271-controle-longa-distancia-jfa-preto-cinza-k600-full-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1ce23e00-70fb-4034-b101-3f3ea0a1ef0d</t>
         </is>
       </c>
     </row>
@@ -1371,17 +1629,23 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-987406861-fonte-carregador-automotivo-60a-jfa-controle-stetsom-sx-2-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7834a3ed-adbe-4d28-945a-ae1269939717</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-987406861-fonte-carregador-automotivo-60a-jfa-controle-stetsom-sx-2-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1ce23e00-70fb-4034-b101-3f3ea0a1ef0d</t>
         </is>
       </c>
     </row>
@@ -1396,17 +1660,23 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875299616-voltimetro-digital-jfa-vs5hi-lancamento-3-em-1-som-paredo-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7834a3ed-adbe-4d28-945a-ae1269939717</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1875299616-voltimetro-digital-jfa-vs5hi-lancamento-3-em-1-som-paredo-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1ce23e00-70fb-4034-b101-3f3ea0a1ef0d</t>
         </is>
       </c>
     </row>
@@ -1421,17 +1691,23 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875307425-voltimetro-jfa-vs5hi-hv12v-sequenciador-caixa-bob-paredo-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7834a3ed-adbe-4d28-945a-ae1269939717</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1875307425-voltimetro-jfa-vs5hi-hv12v-sequenciador-caixa-bob-paredo-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1ce23e00-70fb-4034-b101-3f3ea0a1ef0d</t>
         </is>
       </c>
     </row>
@@ -1446,17 +1722,23 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717151469-fonte-carregador-jfa-bob-200-amperes-bivolt-inteligente-full-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7834a3ed-adbe-4d28-945a-ae1269939717</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2717151469-fonte-carregador-jfa-bob-200-amperes-bivolt-inteligente-full-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1ce23e00-70fb-4034-b101-3f3ea0a1ef0d</t>
         </is>
       </c>
     </row>
@@ -1471,17 +1753,23 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164378570-fonte-automotiva-60-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D977c4ec6-4098-430d-85bc-729ec839e344</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2164378570-fonte-automotiva-60-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D96360597-3641-47bc-841f-839a2a7df9f3</t>
         </is>
       </c>
     </row>
@@ -1496,17 +1784,23 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724203538-controle-longa-distancia-jfa-k1200-acqua-som-completo-top-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D977c4ec6-4098-430d-85bc-729ec839e344</t>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2724203538-controle-longa-distancia-jfa-k1200-acqua-som-completo-top-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D96360597-3641-47bc-841f-839a2a7df9f3</t>
         </is>
       </c>
     </row>
@@ -1521,17 +1815,23 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1042815891-controle-longa-distncia-jfa-k600-central-preto-laranja-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D977c4ec6-4098-430d-85bc-729ec839e344</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1042815891-controle-longa-distncia-jfa-k600-central-preto-laranja-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D96360597-3641-47bc-841f-839a2a7df9f3</t>
         </is>
       </c>
     </row>
@@ -1546,17 +1846,23 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474155563-carregador-fonte-para-bateria-estacionaria-nobraque-jfa-70a-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D977c4ec6-4098-430d-85bc-729ec839e344</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1474155563-carregador-fonte-para-bateria-estacionaria-nobraque-jfa-70a-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D96360597-3641-47bc-841f-839a2a7df9f3</t>
         </is>
       </c>
     </row>
@@ -1571,17 +1877,23 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875304107-voltimetro-digital-jfa-vs5hi-lancamento-3-em-1-som-paredo-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D977c4ec6-4098-430d-85bc-729ec839e344</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1875304107-voltimetro-digital-jfa-vs5hi-lancamento-3-em-1-som-paredo-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D96360597-3641-47bc-841f-839a2a7df9f3</t>
         </is>
       </c>
     </row>
@@ -1596,17 +1908,23 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474160243-carregador-fonte-para-bateria-estacionaria-nobraque-jfa-70a-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D977c4ec6-4098-430d-85bc-729ec839e344</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1474160243-carregador-fonte-para-bateria-estacionaria-nobraque-jfa-70a-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D96360597-3641-47bc-841f-839a2a7df9f3</t>
         </is>
       </c>
     </row>
@@ -1621,17 +1939,23 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875304952-voltimetro-jfa-vs5hi-hv12v-com-sequenciador-tp-stetsom-ajk-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D928b8e1a-b0ae-409b-be21-c97b74fbb5dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1875304952-voltimetro-jfa-vs5hi-hv12v-com-sequenciador-tp-stetsom-ajk-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D090838ef-1d71-41ad-b540-3397e51cadf6</t>
         </is>
       </c>
     </row>
@@ -1646,17 +1970,23 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174587167-fonte-automotiva-200-amperes-jfa-storm-redline-cca-sci-smart-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D928b8e1a-b0ae-409b-be21-c97b74fbb5dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2174587167-fonte-automotiva-200-amperes-jfa-storm-redline-cca-sci-smart-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D090838ef-1d71-41ad-b540-3397e51cadf6</t>
         </is>
       </c>
     </row>
@@ -1671,17 +2001,23 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-961801997-fonte-carregador-bateria-jfa-200a-sci-originalnfgarantia-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D928b8e1a-b0ae-409b-be21-c97b74fbb5dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-961801997-fonte-carregador-bateria-jfa-200a-sci-originalnfgarantia-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D090838ef-1d71-41ad-b540-3397e51cadf6</t>
         </is>
       </c>
     </row>
@@ -1696,17 +2032,23 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1182763871-fonte-carregador-jfa-200-amperes-sci-mais-forte-do-brasil-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D928b8e1a-b0ae-409b-be21-c97b74fbb5dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1182763871-fonte-carregador-jfa-200-amperes-sci-mais-forte-do-brasil-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D090838ef-1d71-41ad-b540-3397e51cadf6</t>
         </is>
       </c>
     </row>
@@ -1721,17 +2063,23 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3452332428-fonte-carregador-jfa-storm-200a-mono-12v-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D928b8e1a-b0ae-409b-be21-c97b74fbb5dc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3452332428-fonte-carregador-jfa-storm-200a-mono-12v-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D090838ef-1d71-41ad-b540-3397e51cadf6</t>
         </is>
       </c>
     </row>
@@ -1746,17 +2094,23 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-933701204-fonte-automotiva-spark-usina-120a-controle-jfa-k600-comple-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7184f6e2-80f4-4b1c-8f83-0c22216e4c0c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-933701204-fonte-automotiva-spark-usina-120a-controle-jfa-k600-comple-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D090838ef-1d71-41ad-b540-3397e51cadf6</t>
         </is>
       </c>
     </row>
@@ -1771,17 +2125,23 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465452768-combo-10-kits-jfa-k600-controle-longa-distancia-p-pioneer-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7184f6e2-80f4-4b1c-8f83-0c22216e4c0c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1465452768-combo-10-kits-jfa-k600-controle-longa-distancia-p-pioneer-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D84fc9f25-cf28-48a6-b95e-c75320a96412</t>
         </is>
       </c>
     </row>
@@ -1796,17 +2156,27 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1484122024-fonte-automotiva-jfa-120a-amperes-redline-voltimetro-digita-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7184f6e2-80f4-4b1c-8f83-0c22216e4c0c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1484122024-fonte-automotiva-jfa-120a-amperes-redline-voltimetro-digita-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D84fc9f25-cf28-48a6-b95e-c75320a96412</t>
         </is>
       </c>
     </row>
@@ -1821,17 +2191,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237796246-fonte-carregador-inteligente-jfa-120-amperes-sci-modelo-full-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7184f6e2-80f4-4b1c-8f83-0c22216e4c0c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1237796246-fonte-carregador-inteligente-jfa-120-amperes-sci-modelo-full-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D84fc9f25-cf28-48a6-b95e-c75320a96412</t>
         </is>
       </c>
     </row>
@@ -1846,17 +2226,27 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305191694-fonte-carregador-jfa-120-amperes-sci-redline-digital-bivolt-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7184f6e2-80f4-4b1c-8f83-0c22216e4c0c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1305191694-fonte-carregador-jfa-120-amperes-sci-redline-digital-bivolt-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D84fc9f25-cf28-48a6-b95e-c75320a96412</t>
         </is>
       </c>
     </row>
@@ -1871,17 +2261,23 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474102716-fonte-carregador-bateria-estacionaria-jfa-60a-slim-bivolt-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7184f6e2-80f4-4b1c-8f83-0c22216e4c0c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1474102716-fonte-carregador-bateria-estacionaria-jfa-60a-slim-bivolt-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D84fc9f25-cf28-48a6-b95e-c75320a96412</t>
         </is>
       </c>
     </row>
@@ -1896,17 +2292,23 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474104958-carregador-bateria-estacionaria-jfa-60a-slim-bivolt-azul-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7184f6e2-80f4-4b1c-8f83-0c22216e4c0c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1474104958-carregador-bateria-estacionaria-jfa-60a-slim-bivolt-azul-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D84fc9f25-cf28-48a6-b95e-c75320a96412</t>
         </is>
       </c>
     </row>
@@ -1921,17 +2323,23 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164414544-fonte-automotiva-60-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7184f6e2-80f4-4b1c-8f83-0c22216e4c0c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2164414544-fonte-automotiva-60-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D84fc9f25-cf28-48a6-b95e-c75320a96412</t>
         </is>
       </c>
     </row>
@@ -1946,17 +2354,23 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465470065-combo-5-kits-jfa-k600-controle-longa-distancia-p-pioneer-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7184f6e2-80f4-4b1c-8f83-0c22216e4c0c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1465470065-combo-5-kits-jfa-k600-controle-longa-distancia-p-pioneer-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D84fc9f25-cf28-48a6-b95e-c75320a96412</t>
         </is>
       </c>
     </row>
@@ -1971,17 +2385,23 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1814390398-controle-de-suspenso-ar-jfa-air-control-black-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7184f6e2-80f4-4b1c-8f83-0c22216e4c0c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1814390398-controle-de-suspenso-ar-jfa-air-control-black-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D84fc9f25-cf28-48a6-b95e-c75320a96412</t>
         </is>
       </c>
     </row>
@@ -1996,17 +2416,23 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1331581735-controle-longa-distancia-jfa-redline-wr-p-multimidia-import-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daf9bc13e-0b1b-4aa9-9cad-1c1866f8b11c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1331581735-controle-longa-distancia-jfa-redline-wr-p-multimidia-import-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0bb53d74-5730-406e-a972-fda4bb0c68c1</t>
         </is>
       </c>
     </row>
@@ -2021,17 +2447,23 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465503294-controle-longa-distancia-jfa-preto-cinza-k600-full-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daf9bc13e-0b1b-4aa9-9cad-1c1866f8b11c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1465503294-controle-longa-distancia-jfa-preto-cinza-k600-full-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0bb53d74-5730-406e-a972-fda4bb0c68c1</t>
         </is>
       </c>
     </row>
@@ -2046,17 +2478,23 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875290424-voltimetro-jfa-vs5hi-3-em-1-sequenciador-high-voltagem-12v-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daf9bc13e-0b1b-4aa9-9cad-1c1866f8b11c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1875290424-voltimetro-jfa-vs5hi-3-em-1-sequenciador-high-voltagem-12v-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0bb53d74-5730-406e-a972-fda4bb0c68c1</t>
         </is>
       </c>
     </row>
@@ -2071,17 +2509,23 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1976484775-fonte-carregador-jfa-120a-bivolt-brinde-strobo-rgb-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daf9bc13e-0b1b-4aa9-9cad-1c1866f8b11c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1976484775-fonte-carregador-jfa-120a-bivolt-brinde-strobo-rgb-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0bb53d74-5730-406e-a972-fda4bb0c68c1</t>
         </is>
       </c>
     </row>
@@ -2096,17 +2540,23 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875286106-sequenciador-voltimetro-medidor-bateria-digital-jfa-vs5-hi-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daf9bc13e-0b1b-4aa9-9cad-1c1866f8b11c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1875286106-sequenciador-voltimetro-medidor-bateria-digital-jfa-vs5-hi-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0bb53d74-5730-406e-a972-fda4bb0c68c1</t>
         </is>
       </c>
     </row>
@@ -2121,17 +2571,23 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3284164699-fonte-carregador-jfa-storm-200a-mono-12v-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daf9bc13e-0b1b-4aa9-9cad-1c1866f8b11c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3284164699-fonte-carregador-jfa-storm-200a-mono-12v-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0bb53d74-5730-406e-a972-fda4bb0c68c1</t>
         </is>
       </c>
     </row>
@@ -2146,17 +2602,23 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-960924608-controle-longa-distncia-jfa-k600-cor-preto-verde-frete-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daf9bc13e-0b1b-4aa9-9cad-1c1866f8b11c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-960924608-controle-longa-distncia-jfa-k600-cor-preto-verde-frete-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0bb53d74-5730-406e-a972-fda4bb0c68c1</t>
         </is>
       </c>
     </row>
@@ -2171,17 +2633,23 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465510869-controle-longa-distancia-completo-jfa-k600-preto-laranja-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daf9bc13e-0b1b-4aa9-9cad-1c1866f8b11c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1465510869-controle-longa-distancia-completo-jfa-k600-preto-laranja-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0bb53d74-5730-406e-a972-fda4bb0c68c1</t>
         </is>
       </c>
     </row>
@@ -2196,17 +2664,23 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-960900243-controle-longa-distncia-jfa-k600-central-preto-laranja-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D74b4e4d3-7e14-4df9-aad9-18b686595683</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-960900243-controle-longa-distncia-jfa-k600-central-preto-laranja-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da510d27c-11da-4e34-82c9-dd8664e15df6</t>
         </is>
       </c>
     </row>
@@ -2221,17 +2695,23 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465507283-controle-longa-distancia-completo-jfa-k600-preto-laranja-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D74b4e4d3-7e14-4df9-aad9-18b686595683</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1465507283-controle-longa-distancia-completo-jfa-k600-preto-laranja-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da510d27c-11da-4e34-82c9-dd8664e15df6</t>
         </is>
       </c>
     </row>
@@ -2246,17 +2726,23 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1331588058-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D74b4e4d3-7e14-4df9-aad9-18b686595683</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1331588058-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da510d27c-11da-4e34-82c9-dd8664e15df6</t>
         </is>
       </c>
     </row>
@@ -2271,17 +2757,23 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474102729-fonte-carregador-bateria-estacionaria-jfa-60a-slim-bivolt-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D74b4e4d3-7e14-4df9-aad9-18b686595683</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1474102729-fonte-carregador-bateria-estacionaria-jfa-60a-slim-bivolt-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da510d27c-11da-4e34-82c9-dd8664e15df6</t>
         </is>
       </c>
     </row>
@@ -2296,17 +2788,23 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-960908168-controle-longa-distncia-jfa-k600-preto-laranja-frete-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D74b4e4d3-7e14-4df9-aad9-18b686595683</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-960908168-controle-longa-distncia-jfa-k600-preto-laranja-frete-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da510d27c-11da-4e34-82c9-dd8664e15df6</t>
         </is>
       </c>
     </row>
@@ -2321,17 +2819,23 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1814400383-controle-de-suspenso-ar-jfa-air-control-black-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D74b4e4d3-7e14-4df9-aad9-18b686595683</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1814400383-controle-de-suspenso-ar-jfa-air-control-black-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da510d27c-11da-4e34-82c9-dd8664e15df6</t>
         </is>
       </c>
     </row>
@@ -2346,17 +2850,23 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1011493129-fonte-automotiva-200-a-jfa-carregador-modelo-slim-pro-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd4014ac6-5b7f-4fb9-86bd-174c03c3b9c2</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1011493129-fonte-automotiva-200-a-jfa-carregador-modelo-slim-pro-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dba2c3ffd-6b8c-4ffa-bb62-d787b422cb3d</t>
         </is>
       </c>
     </row>
@@ -2371,17 +2881,23 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465507809-controle-longa-distancia-completo-jfa-k600-preto-verde-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd4014ac6-5b7f-4fb9-86bd-174c03c3b9c2</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1465507809-controle-longa-distancia-completo-jfa-k600-preto-verde-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dba2c3ffd-6b8c-4ffa-bb62-d787b422cb3d</t>
         </is>
       </c>
     </row>
@@ -2396,17 +2912,23 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717163463-fonte-pcaixa-bob-jfa-storm-200a-bivolt-3800w-sem-bateria-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd4014ac6-5b7f-4fb9-86bd-174c03c3b9c2</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2717163463-fonte-pcaixa-bob-jfa-storm-200a-bivolt-3800w-sem-bateria-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dba2c3ffd-6b8c-4ffa-bb62-d787b422cb3d</t>
         </is>
       </c>
     </row>
@@ -2421,17 +2943,23 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3312818505-melhor-fonte-70a-caixa-bob-jfa-70a-storm-lite-110220v-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd4014ac6-5b7f-4fb9-86bd-174c03c3b9c2</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3312818505-melhor-fonte-70a-caixa-bob-jfa-70a-storm-lite-110220v-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dba2c3ffd-6b8c-4ffa-bb62-d787b422cb3d</t>
         </is>
       </c>
     </row>
@@ -2446,17 +2974,23 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3323947835-conversor-rca-jfa-slim-com-comando-remoto-som-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd4014ac6-5b7f-4fb9-86bd-174c03c3b9c2</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3323947835-conversor-rca-jfa-slim-com-comando-remoto-som-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dba2c3ffd-6b8c-4ffa-bb62-d787b422cb3d</t>
         </is>
       </c>
     </row>
@@ -2471,17 +3005,23 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-961825741-controle-jfa-suspenso-ar-air-control-longa-distancia-frete-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd4014ac6-5b7f-4fb9-86bd-174c03c3b9c2</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-961825741-controle-jfa-suspenso-ar-air-control-longa-distancia-frete-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dba2c3ffd-6b8c-4ffa-bb62-d787b422cb3d</t>
         </is>
       </c>
     </row>
@@ -2496,17 +3036,23 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-982208316-fonte-automotiva-200a-jfa-carregador-modelo-novo-pro-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd4014ac6-5b7f-4fb9-86bd-174c03c3b9c2</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-982208316-fonte-automotiva-200a-jfa-carregador-modelo-novo-pro-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dba2c3ffd-6b8c-4ffa-bb62-d787b422cb3d</t>
         </is>
       </c>
     </row>
@@ -2521,17 +3067,23 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1096345268-fonte-carregador-jfa-70a-digital-sci-bivolt-volt-e-amp-60-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd4014ac6-5b7f-4fb9-86bd-174c03c3b9c2</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1096345268-fonte-carregador-jfa-70a-digital-sci-bivolt-volt-e-amp-60-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dba2c3ffd-6b8c-4ffa-bb62-d787b422cb3d</t>
         </is>
       </c>
     </row>
@@ -2546,17 +3098,23 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875305667-voltimetro-jfa-vs5hi-hv12v-sequenciador-caixa-bob-paredo-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd4014ac6-5b7f-4fb9-86bd-174c03c3b9c2</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1875305667-voltimetro-jfa-vs5hi-hv12v-sequenciador-caixa-bob-paredo-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dba2c3ffd-6b8c-4ffa-bb62-d787b422cb3d</t>
         </is>
       </c>
     </row>
@@ -2571,17 +3129,23 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2927412531-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-110v-220v-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd942af83-f2f8-4ce1-b59a-c34778003058</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2927412531-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-110v-220v-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddcd48ac3-02bf-4b5b-a319-c6f6854222fd</t>
         </is>
       </c>
     </row>
@@ -2596,17 +3160,23 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3452331742-fonte-carregador-jfa-storm-200a-monovolt-flutuaco-proteco-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd942af83-f2f8-4ce1-b59a-c34778003058</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3452331742-fonte-carregador-jfa-storm-200a-monovolt-flutuaco-proteco-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddcd48ac3-02bf-4b5b-a319-c6f6854222fd</t>
         </is>
       </c>
     </row>
@@ -2621,17 +3191,27 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3602873494-nova-fonte-carregador-jfa-storm-lite-200a-bivolt-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd942af83-f2f8-4ce1-b59a-c34778003058</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3602873494-nova-fonte-carregador-jfa-storm-lite-200a-bivolt-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddcd48ac3-02bf-4b5b-a319-c6f6854222fd</t>
         </is>
       </c>
     </row>
@@ -2646,17 +3226,23 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3603511600-melhor-fonte-200a-caixa-bob-jfa-200a-storm-lite-110220v-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd942af83-f2f8-4ce1-b59a-c34778003058</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3603511600-melhor-fonte-200a-caixa-bob-jfa-200a-storm-lite-110220v-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddcd48ac3-02bf-4b5b-a319-c6f6854222fd</t>
         </is>
       </c>
     </row>
@@ -2671,17 +3257,23 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-959311307-fonte-carregador-60a-jfa-automotiva-similar-stetsom-60a-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd942af83-f2f8-4ce1-b59a-c34778003058</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-959311307-fonte-carregador-60a-jfa-automotiva-similar-stetsom-60a-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddcd48ac3-02bf-4b5b-a319-c6f6854222fd</t>
         </is>
       </c>
     </row>
@@ -2696,17 +3288,27 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237790160-fonte-automotiva-120-a-jfa-carregador-tp-stetsom-full-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd942af83-f2f8-4ce1-b59a-c34778003058</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1237790160-fonte-automotiva-120-a-jfa-carregador-tp-stetsom-full-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddcd48ac3-02bf-4b5b-a319-c6f6854222fd</t>
         </is>
       </c>
     </row>
@@ -2721,17 +3323,27 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237793041-carregador-bateria-inteligente-jfa-120a-sci-muito-forte-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd942af83-f2f8-4ce1-b59a-c34778003058</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1237793041-carregador-bateria-inteligente-jfa-120a-sci-muito-forte-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddcd48ac3-02bf-4b5b-a319-c6f6854222fd</t>
         </is>
       </c>
     </row>
@@ -2746,17 +3358,23 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465449219-combo-10-kits-jfa-k600-controle-longa-distancia-p-pioneer-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd942af83-f2f8-4ce1-b59a-c34778003058</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1465449219-combo-10-kits-jfa-k600-controle-longa-distancia-p-pioneer-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddcd48ac3-02bf-4b5b-a319-c6f6854222fd</t>
         </is>
       </c>
     </row>
@@ -2771,17 +3389,23 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474160263-fonte-carregador-para-sistema-solar-jfa-70a-bivolt-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd942af83-f2f8-4ce1-b59a-c34778003058</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1474160263-fonte-carregador-para-sistema-solar-jfa-70a-bivolt-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddcd48ac3-02bf-4b5b-a319-c6f6854222fd</t>
         </is>
       </c>
     </row>
@@ -2796,17 +3420,23 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1728434359-fonte-carregador-automotivo-jfa-60a-redline-110220v-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd942af83-f2f8-4ce1-b59a-c34778003058</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1728434359-fonte-carregador-automotivo-jfa-60a-redline-110220v-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddcd48ac3-02bf-4b5b-a319-c6f6854222fd</t>
         </is>
       </c>
     </row>
@@ -2821,17 +3451,23 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1728436916-fonte-caregador-jfa-60a-voltimetro-amp-redline-sci-bivolt-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd942af83-f2f8-4ce1-b59a-c34778003058</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1728436916-fonte-caregador-jfa-60a-voltimetro-amp-redline-sci-bivolt-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddcd48ac3-02bf-4b5b-a319-c6f6854222fd</t>
         </is>
       </c>
     </row>
@@ -2846,17 +3482,23 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174567593-fonte-carregador-jfa-storm-200a-carga-lenta-motor-home-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D14bf2a85-91d4-442f-bdbf-e169701219f0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2174567593-fonte-carregador-jfa-storm-200a-carga-lenta-motor-home-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D17b59633-d008-438b-ae6f-3c0decb1c226</t>
         </is>
       </c>
     </row>
@@ -2871,17 +3513,23 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2743232314-fonte-carregador-jfa-120a-caixa-bob-bivolt-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D14bf2a85-91d4-442f-bdbf-e169701219f0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2743232314-fonte-carregador-jfa-120a-caixa-bob-bivolt-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D17b59633-d008-438b-ae6f-3c0decb1c226</t>
         </is>
       </c>
     </row>
@@ -2896,17 +3544,23 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3312748981-melhor-fonte-70a-caixa-bob-jfa-70a-storm-lite-110220v-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D14bf2a85-91d4-442f-bdbf-e169701219f0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3312748981-melhor-fonte-70a-caixa-bob-jfa-70a-storm-lite-110220v-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D17b59633-d008-438b-ae6f-3c0decb1c226</t>
         </is>
       </c>
     </row>
@@ -2921,17 +3575,23 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3312773083-fonte-carregador-jfa-70a-storm-lite-bivolt-p-caixa-bob-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D14bf2a85-91d4-442f-bdbf-e169701219f0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3312773083-fonte-carregador-jfa-70a-storm-lite-bivolt-p-caixa-bob-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D17b59633-d008-438b-ae6f-3c0decb1c226</t>
         </is>
       </c>
     </row>
@@ -2946,17 +3606,27 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-961758073-fonte-automotiva-carregador-120a-jfa-voltimetro-original-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D14bf2a85-91d4-442f-bdbf-e169701219f0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-961758073-fonte-automotiva-carregador-120a-jfa-voltimetro-original-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D17b59633-d008-438b-ae6f-3c0decb1c226</t>
         </is>
       </c>
     </row>
@@ -2971,17 +3641,23 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-982208051-fonte-carregador-automotiva-200-a-jfa-muito-forte-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D14bf2a85-91d4-442f-bdbf-e169701219f0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-982208051-fonte-carregador-automotiva-200-a-jfa-muito-forte-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D17b59633-d008-438b-ae6f-3c0decb1c226</t>
         </is>
       </c>
     </row>
@@ -2996,17 +3672,23 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474159062-fonte-carregador-jfa-70a-slim-mais-forte-que-60a-azul-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D14bf2a85-91d4-442f-bdbf-e169701219f0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1474159062-fonte-carregador-jfa-70a-slim-mais-forte-que-60a-azul-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D17b59633-d008-438b-ae6f-3c0decb1c226</t>
         </is>
       </c>
     </row>
@@ -3021,17 +3703,23 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1983201489-fonte-carregador-jfa-60a-redline-red-line-smart-cooler-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D14bf2a85-91d4-442f-bdbf-e169701219f0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1983201489-fonte-carregador-jfa-60a-redline-red-line-smart-cooler-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D17b59633-d008-438b-ae6f-3c0decb1c226</t>
         </is>
       </c>
     </row>
@@ -3046,17 +3734,23 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174561637-fonte-automotiva-200-amperes-jfa-storm-redline-cca-sci-smart-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D14bf2a85-91d4-442f-bdbf-e169701219f0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2174561637-fonte-automotiva-200-amperes-jfa-storm-redline-cca-sci-smart-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D17b59633-d008-438b-ae6f-3c0decb1c226</t>
         </is>
       </c>
     </row>
@@ -3071,17 +3765,23 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2927430679-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D43f42fed-abad-48fe-9349-f517e2e8748f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2927430679-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab2ca0bc-da7a-423e-ac3f-0d8222080798</t>
         </is>
       </c>
     </row>
@@ -3096,17 +3796,23 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717124434-fonte-jfa-para-caixa-bob-esponja-storm-200a-bivolt-forte-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D43f42fed-abad-48fe-9349-f517e2e8748f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2717124434-fonte-jfa-para-caixa-bob-esponja-storm-200a-bivolt-forte-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab2ca0bc-da7a-423e-ac3f-0d8222080798</t>
         </is>
       </c>
     </row>
@@ -3121,17 +3827,23 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2927505070-fonte-carregador-jfa-90a-para-caixa-som-bob-bivolt-slim-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D43f42fed-abad-48fe-9349-f517e2e8748f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2927505070-fonte-carregador-jfa-90a-para-caixa-som-bob-bivolt-slim-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab2ca0bc-da7a-423e-ac3f-0d8222080798</t>
         </is>
       </c>
     </row>
@@ -3146,17 +3858,23 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3306061097-controle-universal-longa-jfa-k1200-preto-c-laranja-original-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D43f42fed-abad-48fe-9349-f517e2e8748f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3306061097-controle-universal-longa-jfa-k1200-preto-c-laranja-original-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab2ca0bc-da7a-423e-ac3f-0d8222080798</t>
         </is>
       </c>
     </row>
@@ -3171,17 +3889,23 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3311456007-controle-longa-jfa-k600-preto-laranja-central-universal-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D43f42fed-abad-48fe-9349-f517e2e8748f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3311456007-controle-longa-jfa-k600-preto-laranja-central-universal-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab2ca0bc-da7a-423e-ac3f-0d8222080798</t>
         </is>
       </c>
     </row>
@@ -3196,17 +3920,23 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3311467587-controle-universal-longa-jfa-k600-preto-laranja-modo-aprende-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D43f42fed-abad-48fe-9349-f517e2e8748f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3311467587-controle-universal-longa-jfa-k600-preto-laranja-modo-aprende-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab2ca0bc-da7a-423e-ac3f-0d8222080798</t>
         </is>
       </c>
     </row>
@@ -3221,17 +3951,23 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3312740317-nova-fonte-carregador-jfa-storm-lite-70a-bivolt-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D43f42fed-abad-48fe-9349-f517e2e8748f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3312740317-nova-fonte-carregador-jfa-storm-lite-70a-bivolt-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab2ca0bc-da7a-423e-ac3f-0d8222080798</t>
         </is>
       </c>
     </row>
@@ -3246,17 +3982,23 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-960910241-controle-longa-distncia-jfa-k600-central-branco-cinza-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D43f42fed-abad-48fe-9349-f517e2e8748f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-960910241-controle-longa-distncia-jfa-k600-central-branco-cinza-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab2ca0bc-da7a-423e-ac3f-0d8222080798</t>
         </is>
       </c>
     </row>
@@ -3271,17 +4013,23 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-960924431-controle-longa-distncia-jfa-k600-central-cor-preto-verde-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D43f42fed-abad-48fe-9349-f517e2e8748f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-960924431-controle-longa-distncia-jfa-k600-central-cor-preto-verde-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab2ca0bc-da7a-423e-ac3f-0d8222080798</t>
         </is>
       </c>
     </row>
@@ -3296,17 +4044,23 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1182763841-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-full-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D43f42fed-abad-48fe-9349-f517e2e8748f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1182763841-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-full-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab2ca0bc-da7a-423e-ac3f-0d8222080798</t>
         </is>
       </c>
     </row>
@@ -3321,17 +4075,27 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237795152-fonte-automotiva-120a-jfa-carregador-slim-oferta-pro-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D43f42fed-abad-48fe-9349-f517e2e8748f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1237795152-fonte-automotiva-120a-jfa-carregador-slim-oferta-pro-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab2ca0bc-da7a-423e-ac3f-0d8222080798</t>
         </is>
       </c>
     </row>
@@ -3346,17 +4110,27 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1311934454-fonte-carregador-120-a-jfa-com-sistema-sci-voltamp-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D43f42fed-abad-48fe-9349-f517e2e8748f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1311934454-fonte-carregador-120-a-jfa-com-sistema-sci-voltamp-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab2ca0bc-da7a-423e-ac3f-0d8222080798</t>
         </is>
       </c>
     </row>
@@ -3371,17 +4145,23 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465449338-jfa-k600-combo-10-pecas-longa-distancia-cores-variadas-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D43f42fed-abad-48fe-9349-f517e2e8748f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1465449338-jfa-k600-combo-10-pecas-longa-distancia-cores-variadas-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab2ca0bc-da7a-423e-ac3f-0d8222080798</t>
         </is>
       </c>
     </row>
@@ -3396,17 +4176,23 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465449501-jfa-k600-combo-10-pecas-longa-distancia-cores-variadas-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D43f42fed-abad-48fe-9349-f517e2e8748f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1465449501-jfa-k600-combo-10-pecas-longa-distancia-cores-variadas-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab2ca0bc-da7a-423e-ac3f-0d8222080798</t>
         </is>
       </c>
     </row>
@@ -3421,17 +4207,23 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474104428-fonte-automotiva-jfa-60a-slim-azul-bivolt-voltimetro-digital-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D43f42fed-abad-48fe-9349-f517e2e8748f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1474104428-fonte-automotiva-jfa-60a-slim-azul-bivolt-voltimetro-digital-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab2ca0bc-da7a-423e-ac3f-0d8222080798</t>
         </is>
       </c>
     </row>
@@ -3446,17 +4238,23 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474108361-carregador-bateria-jfa-60a-slim-bivolt-2020-azul-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D43f42fed-abad-48fe-9349-f517e2e8748f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1474108361-carregador-bateria-jfa-60a-slim-bivolt-2020-azul-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab2ca0bc-da7a-423e-ac3f-0d8222080798</t>
         </is>
       </c>
     </row>
@@ -3471,17 +4269,23 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474159284-fonte-carregador-para-sistema-solar-jfa-70a-bivolt-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D43f42fed-abad-48fe-9349-f517e2e8748f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1474159284-fonte-carregador-para-sistema-solar-jfa-70a-bivolt-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab2ca0bc-da7a-423e-ac3f-0d8222080798</t>
         </is>
       </c>
     </row>
@@ -3496,17 +4300,23 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1814404764-controle-de-suspenso-ar-jfa-air-control-castor-tebo-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9fe35b53-7dca-400f-abd2-08521617e340</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1814404764-controle-de-suspenso-ar-jfa-air-control-castor-tebo-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab2ca0bc-da7a-423e-ac3f-0d8222080798</t>
         </is>
       </c>
     </row>
@@ -3521,17 +4331,23 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164486789-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9fe35b53-7dca-400f-abd2-08521617e340</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2164486789-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8ad037be-6012-4389-b253-a126e61cb6b1</t>
         </is>
       </c>
     </row>
@@ -3546,17 +4362,23 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2927387667-fonte-carregador-jfa-90a-para-caixa-som-bob-bivolt-slim-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9fe35b53-7dca-400f-abd2-08521617e340</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2927387667-fonte-carregador-jfa-90a-para-caixa-som-bob-bivolt-slim-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8ad037be-6012-4389-b253-a126e61cb6b1</t>
         </is>
       </c>
     </row>
@@ -3571,17 +4393,23 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3312798569-fonte-carregador-jfa-70a-storm-lite-bivolt-p-caixa-bob-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9fe35b53-7dca-400f-abd2-08521617e340</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3312798569-fonte-carregador-jfa-70a-storm-lite-bivolt-p-caixa-bob-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8ad037be-6012-4389-b253-a126e61cb6b1</t>
         </is>
       </c>
     </row>
@@ -3596,17 +4424,27 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3312850317-nova-fonte-carregador-jfa-storm-lite-200a-bivolt-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9fe35b53-7dca-400f-abd2-08521617e340</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3312850317-nova-fonte-carregador-jfa-storm-lite-200a-bivolt-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8ad037be-6012-4389-b253-a126e61cb6b1</t>
         </is>
       </c>
     </row>
@@ -3621,17 +4459,23 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3597180890-controle-longa-jfa-k600-preto-laranja-central-universal-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9fe35b53-7dca-400f-abd2-08521617e340</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3597180890-controle-longa-jfa-k600-preto-laranja-central-universal-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8ad037be-6012-4389-b253-a126e61cb6b1</t>
         </is>
       </c>
     </row>
@@ -3646,17 +4490,27 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305190815-fonte-carregador-automotivo-jfa-120a-sci-redline-bivolt-som-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9fe35b53-7dca-400f-abd2-08521617e340</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1305190815-fonte-carregador-automotivo-jfa-120a-sci-redline-bivolt-som-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8ad037be-6012-4389-b253-a126e61cb6b1</t>
         </is>
       </c>
     </row>
@@ -3671,17 +4525,27 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305219292-fonte-automotiva-jfa-200a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9fe35b53-7dca-400f-abd2-08521617e340</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1305219292-fonte-automotiva-jfa-200a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8ad037be-6012-4389-b253-a126e61cb6b1</t>
         </is>
       </c>
     </row>
@@ -3696,17 +4560,23 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1309055784-fonte-carregador-jfa-70a-digital-sci-bivolt-volt-amp-full-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9fe35b53-7dca-400f-abd2-08521617e340</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1309055784-fonte-carregador-jfa-70a-digital-sci-bivolt-volt-amp-full-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8ad037be-6012-4389-b253-a126e61cb6b1</t>
         </is>
       </c>
     </row>
@@ -3721,17 +4591,27 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305191761-fonte-carregador-jfa-120-amperes-sci-redline-digital-bivolt-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9fe35b53-7dca-400f-abd2-08521617e340</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1305191761-fonte-carregador-jfa-120-amperes-sci-redline-digital-bivolt-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8ad037be-6012-4389-b253-a126e61cb6b1</t>
         </is>
       </c>
     </row>
@@ -3746,17 +4626,23 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474108881-carregador-bateria-estacionaria-jfa-60a-slim-bivolt-azul-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9fe35b53-7dca-400f-abd2-08521617e340</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1474108881-carregador-bateria-estacionaria-jfa-60a-slim-bivolt-azul-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8ad037be-6012-4389-b253-a126e61cb6b1</t>
         </is>
       </c>
     </row>
@@ -3771,17 +4657,27 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1728434390-fonte-automotiva-jfa-120a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5c0e94f2-af40-499e-abc9-3277621b0ad8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1728434390-fonte-automotiva-jfa-120a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0eaca8ed-3b2d-45fd-8039-c6b49ecc2c1b</t>
         </is>
       </c>
     </row>
@@ -3796,17 +4692,27 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2161596310-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5c0e94f2-af40-499e-abc9-3277621b0ad8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2161596310-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0eaca8ed-3b2d-45fd-8039-c6b49ecc2c1b</t>
         </is>
       </c>
     </row>
@@ -3821,17 +4727,23 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174579586-fonte-carregador-jfa-storm-200a-bivolt-144v-sci-medidor-cca-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5c0e94f2-af40-499e-abc9-3277621b0ad8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2174579586-fonte-carregador-jfa-storm-200a-bivolt-144v-sci-medidor-cca-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0eaca8ed-3b2d-45fd-8039-c6b49ecc2c1b</t>
         </is>
       </c>
     </row>
@@ -3846,17 +4758,23 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2161622734-fonte-carregador-jfa-120a-storm-bivolt-p-caixa-bob-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5c0e94f2-af40-499e-abc9-3277621b0ad8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2161622734-fonte-carregador-jfa-120a-storm-bivolt-p-caixa-bob-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0eaca8ed-3b2d-45fd-8039-c6b49ecc2c1b</t>
         </is>
       </c>
     </row>
@@ -3871,17 +4789,23 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717157623-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5c0e94f2-af40-499e-abc9-3277621b0ad8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2717157623-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0eaca8ed-3b2d-45fd-8039-c6b49ecc2c1b</t>
         </is>
       </c>
     </row>
@@ -3896,17 +4820,23 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724231242-controle-longa-distncia-jfa-k1200-resistente-a-agua-branco-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5c0e94f2-af40-499e-abc9-3277621b0ad8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2724231242-controle-longa-distncia-jfa-k1200-resistente-a-agua-branco-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0eaca8ed-3b2d-45fd-8039-c6b49ecc2c1b</t>
         </is>
       </c>
     </row>
@@ -3921,17 +4851,23 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717191956-fonte-pcaixa-bob-jfa-storm-200a-bivolt-3800w-sem-bateria-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5c0e94f2-af40-499e-abc9-3277621b0ad8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2717191956-fonte-pcaixa-bob-jfa-storm-200a-bivolt-3800w-sem-bateria-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0eaca8ed-3b2d-45fd-8039-c6b49ecc2c1b</t>
         </is>
       </c>
     </row>
@@ -3946,17 +4882,23 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3312751719-fonte-carregador-jfa-70a-lite-bivolt-sci-black-friday-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D29353df5-9da9-4480-ac14-b528f834e1fc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3312751719-fonte-carregador-jfa-70a-lite-bivolt-sci-black-friday-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Debfde714-1f31-4606-80f7-e06b463e8970</t>
         </is>
       </c>
     </row>
@@ -3971,17 +4913,23 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3312781899-nova-fonte-carregador-jfa-storm-lite-70a-bivolt-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D29353df5-9da9-4480-ac14-b528f834e1fc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3312781899-nova-fonte-carregador-jfa-storm-lite-70a-bivolt-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Debfde714-1f31-4606-80f7-e06b463e8970</t>
         </is>
       </c>
     </row>
@@ -3996,17 +4944,23 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3597035906-controle-longa-jfa-k600-preto-verde-central-universal-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D29353df5-9da9-4480-ac14-b528f834e1fc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3597035906-controle-longa-jfa-k600-preto-verde-central-universal-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Debfde714-1f31-4606-80f7-e06b463e8970</t>
         </is>
       </c>
     </row>
@@ -4021,17 +4975,23 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1043231984-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D29353df5-9da9-4480-ac14-b528f834e1fc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1043231984-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Debfde714-1f31-4606-80f7-e06b463e8970</t>
         </is>
       </c>
     </row>
@@ -4046,17 +5006,23 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1182760121-fonte-carregador-jfa-200-amperes-sci-mais-forte-do-brasil-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D29353df5-9da9-4480-ac14-b528f834e1fc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1182760121-fonte-carregador-jfa-200-amperes-sci-mais-forte-do-brasil-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Debfde714-1f31-4606-80f7-e06b463e8970</t>
         </is>
       </c>
     </row>
@@ -4071,17 +5037,27 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237790650-fonte-automotiva-120-a-jfa-carregador-automatico-flutuaco-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D29353df5-9da9-4480-ac14-b528f834e1fc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1237790650-fonte-automotiva-120-a-jfa-carregador-automatico-flutuaco-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Debfde714-1f31-4606-80f7-e06b463e8970</t>
         </is>
       </c>
     </row>
@@ -4096,17 +5072,27 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237791592-fonte-automotiva-120a-jfa-carregador-slim-oferta-som-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D29353df5-9da9-4480-ac14-b528f834e1fc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1237791592-fonte-automotiva-120a-jfa-carregador-slim-oferta-som-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Debfde714-1f31-4606-80f7-e06b463e8970</t>
         </is>
       </c>
     </row>
@@ -4121,17 +5107,27 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237799962-carregador-bateria-inteligente-jfa-120a-sci-muito-forte-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D29353df5-9da9-4480-ac14-b528f834e1fc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1237799962-carregador-bateria-inteligente-jfa-120a-sci-muito-forte-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Debfde714-1f31-4606-80f7-e06b463e8970</t>
         </is>
       </c>
     </row>
@@ -4146,17 +5142,27 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305194787-fonte-carregador-jfa-120-amperes-sci-red-line-voltamp-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D29353df5-9da9-4480-ac14-b528f834e1fc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1305194787-fonte-carregador-jfa-120-amperes-sci-red-line-voltamp-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Debfde714-1f31-4606-80f7-e06b463e8970</t>
         </is>
       </c>
     </row>
@@ -4171,17 +5177,27 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1311934359-fonte-automotiva-120-a-jfa-carregador-com-sistema-sci-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D29353df5-9da9-4480-ac14-b528f834e1fc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1311934359-fonte-automotiva-120-a-jfa-carregador-com-sistema-sci-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Debfde714-1f31-4606-80f7-e06b463e8970</t>
         </is>
       </c>
     </row>
@@ -4196,17 +5212,27 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1311934391-fonte-automotiva-120-a-jfa-carregador-com-sistema-sci-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D29353df5-9da9-4480-ac14-b528f834e1fc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1311934391-fonte-automotiva-120-a-jfa-carregador-com-sistema-sci-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Debfde714-1f31-4606-80f7-e06b463e8970</t>
         </is>
       </c>
     </row>
@@ -4221,17 +5247,23 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465466670-jfa-k600-combo-5-pecas-longa-distancia-cores-variadas-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D29353df5-9da9-4480-ac14-b528f834e1fc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1465466670-jfa-k600-combo-5-pecas-longa-distancia-cores-variadas-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Debfde714-1f31-4606-80f7-e06b463e8970</t>
         </is>
       </c>
     </row>
@@ -4246,17 +5278,23 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465514137-controle-k600-jfa-preto-cinza-mais-barato-do-brasil-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D29353df5-9da9-4480-ac14-b528f834e1fc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1465514137-controle-k600-jfa-preto-cinza-mais-barato-do-brasil-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Debfde714-1f31-4606-80f7-e06b463e8970</t>
         </is>
       </c>
     </row>
@@ -4271,17 +5309,23 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465520187-controle-k600-jfa-preto-cinza-mais-barato-do-brasil-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D29353df5-9da9-4480-ac14-b528f834e1fc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1465520187-controle-k600-jfa-preto-cinza-mais-barato-do-brasil-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Debfde714-1f31-4606-80f7-e06b463e8970</t>
         </is>
       </c>
     </row>
@@ -4296,17 +5340,23 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474104464-carregador-bateria-jfa-60a-slim-bivolt-2020-azul-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D29353df5-9da9-4480-ac14-b528f834e1fc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1474104464-carregador-bateria-jfa-60a-slim-bivolt-2020-azul-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Debfde714-1f31-4606-80f7-e06b463e8970</t>
         </is>
       </c>
     </row>
@@ -4321,17 +5371,23 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474108318-fonte-automotiva-jfa-60a-slim-azul-bivolt-voltimetro-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D29353df5-9da9-4480-ac14-b528f834e1fc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1474108318-fonte-automotiva-jfa-60a-slim-azul-bivolt-voltimetro-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Debfde714-1f31-4606-80f7-e06b463e8970</t>
         </is>
       </c>
     </row>
@@ -4346,17 +5402,23 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1983190199-fonte-carregador-automotivo-jfa-60a-red-line-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0daa3be7-c1ec-487d-bde2-1bd3c444e92d</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1983190199-fonte-carregador-automotivo-jfa-60a-red-line-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D285cd411-ca89-4d06-a987-f3402ef1cecf</t>
         </is>
       </c>
     </row>
@@ -4371,17 +5433,23 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1983200722-fonte-carregador-automotivo-jfa-60a-redline-slim-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0daa3be7-c1ec-487d-bde2-1bd3c444e92d</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1983200722-fonte-carregador-automotivo-jfa-60a-redline-slim-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D285cd411-ca89-4d06-a987-f3402ef1cecf</t>
         </is>
       </c>
     </row>
@@ -4396,17 +5464,23 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164385868-fonte-automotiva-storm-jfa-60a-multifunco-inteligente-slim-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0daa3be7-c1ec-487d-bde2-1bd3c444e92d</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2164385868-fonte-automotiva-storm-jfa-60a-multifunco-inteligente-slim-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D285cd411-ca89-4d06-a987-f3402ef1cecf</t>
         </is>
       </c>
     </row>
@@ -4421,17 +5495,23 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164480847-fonte-carregador-jfa-storm-70a-bivolt-144v-sci-medidor-cca-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0daa3be7-c1ec-487d-bde2-1bd3c444e92d</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2164480847-fonte-carregador-jfa-storm-70a-bivolt-144v-sci-medidor-cca-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D285cd411-ca89-4d06-a987-f3402ef1cecf</t>
         </is>
       </c>
     </row>
@@ -4446,17 +5526,23 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174554157-fonte-carregador-jfa-storm-200a-bivolt-144v-sci-medidor-cca-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0daa3be7-c1ec-487d-bde2-1bd3c444e92d</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2174554157-fonte-carregador-jfa-storm-200a-bivolt-144v-sci-medidor-cca-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D285cd411-ca89-4d06-a987-f3402ef1cecf</t>
         </is>
       </c>
     </row>
@@ -4471,17 +5557,23 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164392561-carregador-jfa-storm-60a-144v-mais-completa-smart-cca-sci-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D78b17505-0099-442a-b4a9-3b76a20aaed4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2164392561-carregador-jfa-storm-60a-144v-mais-completa-smart-cca-sci-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D285cd411-ca89-4d06-a987-f3402ef1cecf</t>
         </is>
       </c>
     </row>
@@ -4496,17 +5588,23 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174560779-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-sci-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D78b17505-0099-442a-b4a9-3b76a20aaed4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2174560779-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-sci-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd58839ee-f92e-4bc5-b2df-2fa183f9fddb</t>
         </is>
       </c>
     </row>
@@ -4521,17 +5619,23 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174594277-fonte-jfa-storm-200a-com-medidor-cca-slim-bivolt-full-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D78b17505-0099-442a-b4a9-3b76a20aaed4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2174594277-fonte-jfa-storm-200a-com-medidor-cca-slim-bivolt-full-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd58839ee-f92e-4bc5-b2df-2fa183f9fddb</t>
         </is>
       </c>
     </row>
@@ -4546,17 +5650,23 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717118227-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D78b17505-0099-442a-b4a9-3b76a20aaed4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2717118227-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd58839ee-f92e-4bc5-b2df-2fa183f9fddb</t>
         </is>
       </c>
     </row>
@@ -4571,17 +5681,23 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724100975-controle-longa-distancia-jfa-k1200-acqua-completo-top-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D78b17505-0099-442a-b4a9-3b76a20aaed4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2724100975-controle-longa-distancia-jfa-k1200-acqua-completo-top-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd58839ee-f92e-4bc5-b2df-2fa183f9fddb</t>
         </is>
       </c>
     </row>
@@ -4596,17 +5712,23 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717191674-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D78b17505-0099-442a-b4a9-3b76a20aaed4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2717191674-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd58839ee-f92e-4bc5-b2df-2fa183f9fddb</t>
         </is>
       </c>
     </row>
@@ -4621,17 +5743,23 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2927430625-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D78b17505-0099-442a-b4a9-3b76a20aaed4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2927430625-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd58839ee-f92e-4bc5-b2df-2fa183f9fddb</t>
         </is>
       </c>
     </row>
@@ -4646,17 +5774,23 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3284198989-fonte-carregador-jfa-storm-200a-monovolt-flutuaco-proteco-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D78b17505-0099-442a-b4a9-3b76a20aaed4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3284198989-fonte-carregador-jfa-storm-200a-monovolt-flutuaco-proteco-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd58839ee-f92e-4bc5-b2df-2fa183f9fddb</t>
         </is>
       </c>
     </row>
@@ -4671,17 +5805,23 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3311513055-controle-longa-jfa-k600-branco-cinza-central-universal-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D78b17505-0099-442a-b4a9-3b76a20aaed4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3311513055-controle-longa-jfa-k600-branco-cinza-central-universal-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd58839ee-f92e-4bc5-b2df-2fa183f9fddb</t>
         </is>
       </c>
     </row>
@@ -4696,17 +5836,23 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3452365244-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-220v-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D78b17505-0099-442a-b4a9-3b76a20aaed4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3452365244-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-220v-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd58839ee-f92e-4bc5-b2df-2fa183f9fddb</t>
         </is>
       </c>
     </row>
@@ -4721,17 +5867,23 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3597021428-controle-universal-longa-jfa-k600-pretoverde-modo-aprender-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D78b17505-0099-442a-b4a9-3b76a20aaed4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3597021428-controle-universal-longa-jfa-k600-pretoverde-modo-aprender-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd58839ee-f92e-4bc5-b2df-2fa183f9fddb</t>
         </is>
       </c>
     </row>
@@ -4746,17 +5898,23 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3597227604-controle-longa-jfa-k600-preto-cinza-central-universal-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D78b17505-0099-442a-b4a9-3b76a20aaed4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3597227604-controle-longa-jfa-k600-preto-cinza-central-universal-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd58839ee-f92e-4bc5-b2df-2fa183f9fddb</t>
         </is>
       </c>
     </row>
@@ -4771,17 +5929,23 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3597532456-controle-universal-longa-jfa-k600-branco-cinza-modo-aprender-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D78b17505-0099-442a-b4a9-3b76a20aaed4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3597532456-controle-universal-longa-jfa-k600-branco-cinza-modo-aprender-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd58839ee-f92e-4bc5-b2df-2fa183f9fddb</t>
         </is>
       </c>
     </row>
@@ -4796,17 +5960,23 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3597219948-controle-universal-longa-jfa-k600-pretoverde-modo-aprender-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D78b17505-0099-442a-b4a9-3b76a20aaed4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3597219948-controle-universal-longa-jfa-k600-pretoverde-modo-aprender-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd58839ee-f92e-4bc5-b2df-2fa183f9fddb</t>
         </is>
       </c>
     </row>
@@ -4821,17 +5991,23 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3597377794-controle-longa-jfa-k600-preto-cinza-central-universal-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D78b17505-0099-442a-b4a9-3b76a20aaed4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3597377794-controle-longa-jfa-k600-preto-cinza-central-universal-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd58839ee-f92e-4bc5-b2df-2fa183f9fddb</t>
         </is>
       </c>
     </row>
@@ -4846,17 +6022,23 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-960917927-controle-longa-distncia-jfa-k600-branco-cinza-full-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D879d8350-4b71-46ff-80e6-e4a967934a3c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-960917927-controle-longa-distncia-jfa-k600-branco-cinza-full-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcbab0608-e2b6-4801-8fca-a81cb722aecc</t>
         </is>
       </c>
     </row>
@@ -4871,17 +6053,23 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1043232285-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D879d8350-4b71-46ff-80e6-e4a967934a3c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1043232285-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcbab0608-e2b6-4801-8fca-a81cb722aecc</t>
         </is>
       </c>
     </row>
@@ -4896,17 +6084,27 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237790625-fonte-automotiva-120-a-jfa-carregador-slim-modelo-2020-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D879d8350-4b71-46ff-80e6-e4a967934a3c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1237790625-fonte-automotiva-120-a-jfa-carregador-slim-modelo-2020-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcbab0608-e2b6-4801-8fca-a81cb722aecc</t>
         </is>
       </c>
     </row>
@@ -4921,17 +6119,23 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305130699-fonte-carregador-bateria-jfa-60a-sci-redline-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D879d8350-4b71-46ff-80e6-e4a967934a3c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1305130699-fonte-carregador-bateria-jfa-60a-sci-redline-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcbab0608-e2b6-4801-8fca-a81cb722aecc</t>
         </is>
       </c>
     </row>
@@ -4946,17 +6150,23 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474159067-fonte-carregador-jfa-70a-azul-slim-mais-forte-que-60a-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D879d8350-4b71-46ff-80e6-e4a967934a3c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1474159067-fonte-carregador-jfa-70a-azul-slim-mais-forte-que-60a-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcbab0608-e2b6-4801-8fca-a81cb722aecc</t>
         </is>
       </c>
     </row>
@@ -4971,17 +6181,23 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1043232334-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D879d8350-4b71-46ff-80e6-e4a967934a3c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1043232334-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcbab0608-e2b6-4801-8fca-a81cb722aecc</t>
         </is>
       </c>
     </row>
@@ -4996,17 +6212,27 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237791576-fonte-automotiva-120a-jfa-carregador-slim-oferta-full-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D879d8350-4b71-46ff-80e6-e4a967934a3c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1237791576-fonte-automotiva-120a-jfa-carregador-slim-oferta-full-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcbab0608-e2b6-4801-8fca-a81cb722aecc</t>
         </is>
       </c>
     </row>
@@ -5021,17 +6247,23 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465503798-controle-longa-distancia-completo-jfa-branco-cinza-k600-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D879d8350-4b71-46ff-80e6-e4a967934a3c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1465503798-controle-longa-distancia-completo-jfa-branco-cinza-k600-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcbab0608-e2b6-4801-8fca-a81cb722aecc</t>
         </is>
       </c>
     </row>
@@ -5046,17 +6278,23 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474160068-fonte-carregador-jfa-70a-sistema-inteligente-para-bateria-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D879d8350-4b71-46ff-80e6-e4a967934a3c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1474160068-fonte-carregador-jfa-70a-sistema-inteligente-para-bateria-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcbab0608-e2b6-4801-8fca-a81cb722aecc</t>
         </is>
       </c>
     </row>
@@ -5071,17 +6309,27 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237791973-fonte-automotiva-120a-jfa-carregador-slim-oferta-pro-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D879d8350-4b71-46ff-80e6-e4a967934a3c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1237791973-fonte-automotiva-120a-jfa-carregador-slim-oferta-pro-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcbab0608-e2b6-4801-8fca-a81cb722aecc</t>
         </is>
       </c>
     </row>
@@ -5096,17 +6344,27 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305190843-fonte-carregador-automotivo-jfa-120a-sci-redline-bivolt-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D879d8350-4b71-46ff-80e6-e4a967934a3c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1305190843-fonte-carregador-automotivo-jfa-120a-sci-redline-bivolt-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcbab0608-e2b6-4801-8fca-a81cb722aecc</t>
         </is>
       </c>
     </row>
@@ -5121,17 +6379,27 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1311934427-fonte-carregador-120-a-jfa-com-sistema-sci-voltamp-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D879d8350-4b71-46ff-80e6-e4a967934a3c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1311934427-fonte-carregador-120-a-jfa-com-sistema-sci-voltamp-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcbab0608-e2b6-4801-8fca-a81cb722aecc</t>
         </is>
       </c>
     </row>
@@ -5146,17 +6414,23 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3654243584-conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ded7d96eb-27a7-4a9a-95e0-d1c0e20f7995</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3654243584-conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc33d72f5-b288-49b7-9b4b-9506b0a4d4c8</t>
         </is>
       </c>
     </row>
@@ -5171,17 +6445,23 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1728432727-controle-longa-distancia-completo-jfa-branco-cinza-k600-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ded7d96eb-27a7-4a9a-95e0-d1c0e20f7995</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1728432727-controle-longa-distancia-completo-jfa-branco-cinza-k600-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc33d72f5-b288-49b7-9b4b-9506b0a4d4c8</t>
         </is>
       </c>
     </row>
@@ -5196,17 +6476,23 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1983200338-fonte-carregador-automotivo-jfa-60a-redline-bivolt-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D03fcd85a-0adb-4bd1-ac63-647b675233aa</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1983200338-fonte-carregador-automotivo-jfa-60a-redline-bivolt-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De4f1957d-baf4-4743-889b-efe69c90346e</t>
         </is>
       </c>
     </row>
@@ -5221,17 +6507,23 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1983201120-fonte-carregador-jfa-60a-redline-red-line-smart-cooler-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D03fcd85a-0adb-4bd1-ac63-647b675233aa</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1983201120-fonte-carregador-jfa-60a-redline-red-line-smart-cooler-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De4f1957d-baf4-4743-889b-efe69c90346e</t>
         </is>
       </c>
     </row>
@@ -5246,17 +6538,27 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2161603784-fonte-carregador-jfa-estor-120a-bivolt-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3154be40-18ed-4dc9-aa83-41311372efd0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2161603784-fonte-carregador-jfa-estor-120a-bivolt-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
         </is>
       </c>
     </row>
@@ -5271,17 +6573,27 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2161609578-nova-fonte-carregador-jfa-storm-120a-bivolt-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3154be40-18ed-4dc9-aa83-41311372efd0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2161609578-nova-fonte-carregador-jfa-storm-120a-bivolt-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
         </is>
       </c>
     </row>
@@ -5296,17 +6608,27 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2161616527-carregador-fonte-automotivo-120a-jfa-stomr-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3154be40-18ed-4dc9-aa83-41311372efd0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2161616527-carregador-fonte-automotivo-120a-jfa-stomr-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
         </is>
       </c>
     </row>
@@ -5321,17 +6643,27 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2161629341-carregador-fonte-automotivo-120a-jfa-stomr-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3154be40-18ed-4dc9-aa83-41311372efd0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2161629341-carregador-fonte-automotivo-120a-jfa-stomr-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
         </is>
       </c>
     </row>
@@ -5346,17 +6678,27 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2161654722-fonte-carregador-jfa-storm-120a-bivolt-slim-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3154be40-18ed-4dc9-aa83-41311372efd0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2161654722-fonte-carregador-jfa-storm-120a-bivolt-slim-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
         </is>
       </c>
     </row>
@@ -5371,17 +6713,23 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2161654995-melhor-fonte-120a-caixa-bob-jfa-120a-storm-110220v-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3154be40-18ed-4dc9-aa83-41311372efd0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2161654995-melhor-fonte-120a-caixa-bob-jfa-120a-storm-110220v-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
         </is>
       </c>
     </row>
@@ -5396,17 +6744,23 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164397548-fonte-jfa-storm-60a-com-medidor-cca-slim-bivolt-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3154be40-18ed-4dc9-aa83-41311372efd0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2164397548-fonte-jfa-storm-60a-com-medidor-cca-slim-bivolt-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
         </is>
       </c>
     </row>
@@ -5421,17 +6775,23 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164405477-carregador-jfa-storm-60a-144v-mais-completa-smart-cca-sci-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3154be40-18ed-4dc9-aa83-41311372efd0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2164405477-carregador-jfa-storm-60a-144v-mais-completa-smart-cca-sci-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
         </is>
       </c>
     </row>
@@ -5446,17 +6806,23 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr"/>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164410721-fonte-automotiva-storm-jfa-60a-multifunco-inteligente-slim-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3154be40-18ed-4dc9-aa83-41311372efd0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2164410721-fonte-automotiva-storm-jfa-60a-multifunco-inteligente-slim-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
         </is>
       </c>
     </row>
@@ -5471,17 +6837,23 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164414147-fonte-jfa-storm-60a-com-medidor-cca-slim-bivolt-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3154be40-18ed-4dc9-aa83-41311372efd0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2164414147-fonte-jfa-storm-60a-com-medidor-cca-slim-bivolt-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
         </is>
       </c>
     </row>
@@ -5496,17 +6868,23 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164480792-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3154be40-18ed-4dc9-aa83-41311372efd0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2164480792-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
         </is>
       </c>
     </row>
@@ -5521,17 +6899,23 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164504350-carregador-jfa-storm-70a-144v-mais-completa-smart-cca-sci-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3154be40-18ed-4dc9-aa83-41311372efd0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2164504350-carregador-jfa-storm-70a-144v-mais-completa-smart-cca-sci-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
         </is>
       </c>
     </row>
@@ -5546,17 +6930,23 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164517272-carregador-jfa-storm-70a-144v-mais-completa-smart-cca-sci-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3154be40-18ed-4dc9-aa83-41311372efd0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2164517272-carregador-jfa-storm-70a-144v-mais-completa-smart-cca-sci-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
         </is>
       </c>
     </row>
@@ -5571,17 +6961,23 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164517323-fonte-automotiva-storm-jfa-70a-multifunco-inteligente-slim-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3154be40-18ed-4dc9-aa83-41311372efd0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2164517323-fonte-automotiva-storm-jfa-70a-multifunco-inteligente-slim-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
         </is>
       </c>
     </row>
@@ -5596,17 +6992,23 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164523424-fonte-jfa-storm-70a-com-medidor-cca-slim-bivolt-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3154be40-18ed-4dc9-aa83-41311372efd0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2164523424-fonte-jfa-storm-70a-com-medidor-cca-slim-bivolt-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
         </is>
       </c>
     </row>
@@ -5621,17 +7023,23 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164529855-fonte-jfa-storm-70a-com-medidor-cca-slim-bivolt-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3154be40-18ed-4dc9-aa83-41311372efd0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2164529855-fonte-jfa-storm-70a-com-medidor-cca-slim-bivolt-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
         </is>
       </c>
     </row>
@@ -5646,17 +7054,23 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164536143-fonte-automotiva-storm-jfa-70a-multifunco-inteligente-slim-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3154be40-18ed-4dc9-aa83-41311372efd0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2164536143-fonte-automotiva-storm-jfa-70a-multifunco-inteligente-slim-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
         </is>
       </c>
     </row>
@@ -5671,17 +7085,23 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174554397-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-sci-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3154be40-18ed-4dc9-aa83-41311372efd0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2174554397-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-sci-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
         </is>
       </c>
     </row>
@@ -5696,17 +7116,23 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174562069-fonte-jfa-storm-200a-com-medidor-cca-slim-bivolt-full-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3154be40-18ed-4dc9-aa83-41311372efd0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2174562069-fonte-jfa-storm-200a-com-medidor-cca-slim-bivolt-full-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
         </is>
       </c>
     </row>
@@ -5721,17 +7147,23 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174598731-fonte-carregador-jfa-storm-200a-bivolt-flutuaco-proteco-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3154be40-18ed-4dc9-aa83-41311372efd0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2174598731-fonte-carregador-jfa-storm-200a-bivolt-flutuaco-proteco-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
         </is>
       </c>
     </row>
@@ -5746,17 +7178,23 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717157656-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3154be40-18ed-4dc9-aa83-41311372efd0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2717157656-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
         </is>
       </c>
     </row>
@@ -5771,17 +7209,23 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724060953-controle-longa-distancia-jfa-k1200-acqua-som-completo-top-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8527ed59-21a7-4dc1-bf62-7dfe7e15a2fa</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2724060953-controle-longa-distancia-jfa-k1200-acqua-som-completo-top-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
         </is>
       </c>
     </row>
@@ -5796,17 +7240,23 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724061125-controle-longa-distancia-jfa-k1200-acqua-som-completo-top-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8527ed59-21a7-4dc1-bf62-7dfe7e15a2fa</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2724061125-controle-longa-distancia-jfa-k1200-acqua-som-completo-top-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
         </is>
       </c>
     </row>
@@ -5821,17 +7271,23 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724061274-controle-longa-distancia-jfa-k1200-acqua-completo-top-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8527ed59-21a7-4dc1-bf62-7dfe7e15a2fa</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2724061274-controle-longa-distancia-jfa-k1200-acqua-completo-top-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
         </is>
       </c>
     </row>
@@ -5846,17 +7302,23 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724197789-controle-longa-distancia-jfa-k1200-acqua-completo-top-branco-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8527ed59-21a7-4dc1-bf62-7dfe7e15a2fa</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2724197789-controle-longa-distancia-jfa-k1200-acqua-completo-top-branco-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
         </is>
       </c>
     </row>
@@ -5871,17 +7333,23 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3569577904-controle-remoto-universal-longa-jfa-k1200-preto-com-laranja-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8527ed59-21a7-4dc1-bf62-7dfe7e15a2fa</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3569577904-controle-remoto-universal-longa-jfa-k1200-preto-com-laranja-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4aa6e206-4c70-491b-b0e4-4c0896c44301</t>
         </is>
       </c>
     </row>
@@ -5896,17 +7364,23 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3597016844-controle-universal-longa-jfa-k600-preto-laranja-modo-aprende-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8527ed59-21a7-4dc1-bf62-7dfe7e15a2fa</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3597016844-controle-universal-longa-jfa-k600-preto-laranja-modo-aprende-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4aa6e206-4c70-491b-b0e4-4c0896c44301</t>
         </is>
       </c>
     </row>
@@ -5921,17 +7395,23 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3597209408-controle-longa-jfa-k600-preto-verde-central-universal-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8527ed59-21a7-4dc1-bf62-7dfe7e15a2fa</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3597209408-controle-longa-jfa-k600-preto-verde-central-universal-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4aa6e206-4c70-491b-b0e4-4c0896c44301</t>
         </is>
       </c>
     </row>
@@ -5946,17 +7426,23 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr"/>
       <c r="E221" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3597227192-controle-universal-longa-jfa-k600-preto-cinza-modo-aprender-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8527ed59-21a7-4dc1-bf62-7dfe7e15a2fa</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3597227192-controle-universal-longa-jfa-k600-preto-cinza-modo-aprender-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4aa6e206-4c70-491b-b0e4-4c0896c44301</t>
         </is>
       </c>
     </row>
@@ -5971,17 +7457,23 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr"/>
       <c r="E222" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3597367758-controle-universal-longa-jfa-k600-branco-cinza-modo-aprender-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8527ed59-21a7-4dc1-bf62-7dfe7e15a2fa</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3597367758-controle-universal-longa-jfa-k600-branco-cinza-modo-aprender-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4aa6e206-4c70-491b-b0e4-4c0896c44301</t>
         </is>
       </c>
     </row>
@@ -5996,17 +7488,23 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr"/>
       <c r="E223" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3597368110-controle-longa-jfa-k600-branco-cinza-central-universal-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8527ed59-21a7-4dc1-bf62-7dfe7e15a2fa</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3597368110-controle-longa-jfa-k600-branco-cinza-central-universal-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4aa6e206-4c70-491b-b0e4-4c0896c44301</t>
         </is>
       </c>
     </row>
@@ -6021,17 +7519,23 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr"/>
       <c r="E224" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1968870290-fonte-usina-200ah-bivolt-controle-jfa-k600-brinde-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D39a4bc01-94af-4b9f-b0cc-d81ea8a8cfaf</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1968870290-fonte-usina-200ah-bivolt-controle-jfa-k600-brinde-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9bf193f3-3ee4-4c9c-ba5d-ee919660c687</t>
         </is>
       </c>
     </row>
@@ -6046,17 +7550,23 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr"/>
       <c r="E225" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1182760088-fonte-carregador-200-amperes-jfa-sci-inteligente-10000w-rms-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D39a4bc01-94af-4b9f-b0cc-d81ea8a8cfaf</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1182760088-fonte-carregador-200-amperes-jfa-sci-inteligente-10000w-rms-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9bf193f3-3ee4-4c9c-ba5d-ee919660c687</t>
         </is>
       </c>
     </row>
@@ -6071,17 +7581,23 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr"/>
+      <c r="E226" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717157512-fonte-carregador-jfa-bob-storm-200a-12v-144v-som-paredo-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D39a4bc01-94af-4b9f-b0cc-d81ea8a8cfaf</t>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2717157512-fonte-carregador-jfa-bob-storm-200a-12v-144v-som-paredo-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9bf193f3-3ee4-4c9c-ba5d-ee919660c687</t>
         </is>
       </c>
     </row>
@@ -6096,17 +7612,23 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2087221371-filtro-anti-ruido-jfa-rca-cd-dvd-eletromagnetico-stereo-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8f018399-9dca-402a-b01c-b838e342b862</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2087221371-filtro-anti-ruido-jfa-rca-cd-dvd-eletromagnetico-stereo-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9bf193f3-3ee4-4c9c-ba5d-ee919660c687</t>
         </is>
       </c>
     </row>
@@ -6121,17 +7643,23 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305139099-fonte-automotiva-jfa-60a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8f018399-9dca-402a-b01c-b838e342b862</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1305139099-fonte-automotiva-jfa-60a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D72ebcf69-d434-4ab9-b15b-46a94eb039a0</t>
         </is>
       </c>
     </row>
@@ -6146,17 +7674,27 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2193402127-fonte-automotiva-120a-amperes-jfa-carregador-bone-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8f018399-9dca-402a-b01c-b838e342b862</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2193402127-fonte-automotiva-120a-amperes-jfa-carregador-bone-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D72ebcf69-d434-4ab9-b15b-46a94eb039a0</t>
         </is>
       </c>
     </row>
@@ -6171,17 +7709,23 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1309207676-controle-longa-distncia-jfa-k600-central-cor-preto-verde-full-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8f018399-9dca-402a-b01c-b838e342b862</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1309207676-controle-longa-distncia-jfa-k600-central-cor-preto-verde-full-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D72ebcf69-d434-4ab9-b15b-46a94eb039a0</t>
         </is>
       </c>
     </row>
@@ -6196,17 +7740,23 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr"/>
       <c r="E231" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2087246945-filtro-anti-ruido-jfa-rca-cd-dvd-eletromagnetico-stereo-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8f018399-9dca-402a-b01c-b838e342b862</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2087246945-filtro-anti-ruido-jfa-rca-cd-dvd-eletromagnetico-stereo-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D72ebcf69-d434-4ab9-b15b-46a94eb039a0</t>
         </is>
       </c>
     </row>
@@ -6221,17 +7771,23 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr"/>
       <c r="E232" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875295357-voltimetro-jfa-vs5hi-3-em-1-sequenciador-high-voltagem-12v-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8f018399-9dca-402a-b01c-b838e342b862</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1875295357-voltimetro-jfa-vs5hi-3-em-1-sequenciador-high-voltagem-12v-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D72ebcf69-d434-4ab9-b15b-46a94eb039a0</t>
         </is>
       </c>
     </row>
@@ -6246,17 +7802,23 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr"/>
       <c r="E233" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875289506-sequenciador-voltimetro-medidor-bateria-digital-jfa-vs5-hi-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D05170272-818c-44c6-b5d0-2c6d136fb1d4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1875289506-sequenciador-voltimetro-medidor-bateria-digital-jfa-vs5-hi-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3fe56cc3-449a-4a7d-93a1-77d90ffa700a</t>
         </is>
       </c>
     </row>
@@ -6271,17 +7833,23 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr"/>
       <c r="E234" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1080173822-fonte-carregador-automotivo-60a-jfa-controle-stetsom-sx-2-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D05170272-818c-44c6-b5d0-2c6d136fb1d4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1080173822-fonte-carregador-automotivo-60a-jfa-controle-stetsom-sx-2-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3fe56cc3-449a-4a7d-93a1-77d90ffa700a</t>
         </is>
       </c>
     </row>
@@ -6296,17 +7864,27 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2193415173-fonte-carregador-jfa-120a-amperes-medidor-cca-bivolt-bone-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D05170272-818c-44c6-b5d0-2c6d136fb1d4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2193415173-fonte-carregador-jfa-120a-amperes-medidor-cca-bivolt-bone-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3fe56cc3-449a-4a7d-93a1-77d90ffa700a</t>
         </is>
       </c>
     </row>
@@ -6321,17 +7899,23 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr"/>
       <c r="E236" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875305084-voltimetro-jfa-vs5hi-hv12v-com-sequenciador-tp-stetsom-ajk-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D05170272-818c-44c6-b5d0-2c6d136fb1d4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1875305084-voltimetro-jfa-vs5hi-hv12v-com-sequenciador-tp-stetsom-ajk-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3fe56cc3-449a-4a7d-93a1-77d90ffa700a</t>
         </is>
       </c>
     </row>
@@ -6346,17 +7930,23 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr"/>
       <c r="E237" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-978195087-voltimetro-digital-12v-ajk-nano-plus-tp-stetsom-jfa-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D05170272-818c-44c6-b5d0-2c6d136fb1d4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-978195087-voltimetro-digital-12v-ajk-nano-plus-tp-stetsom-jfa-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3fe56cc3-449a-4a7d-93a1-77d90ffa700a</t>
         </is>
       </c>
     </row>
@@ -6371,17 +7961,23 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr"/>
       <c r="E238" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717118970-fonte-carregador-jfa-bob-200-amperes-bivolt-inteligente-full-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1c7253f9-9f06-489c-bee9-827e4991a0ca</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2717118970-fonte-carregador-jfa-bob-200-amperes-bivolt-inteligente-full-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd1b0aab6-ca94-45fd-a9d7-518662be6c6d</t>
         </is>
       </c>
     </row>
@@ -6396,17 +7992,23 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr"/>
       <c r="E239" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-961801880-fonte-automotiva-200a-jfa-carregador-similar-stetsom-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1c7253f9-9f06-489c-bee9-827e4991a0ca</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-961801880-fonte-automotiva-200a-jfa-carregador-similar-stetsom-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd1b0aab6-ca94-45fd-a9d7-518662be6c6d</t>
         </is>
       </c>
     </row>

--- a/dados/radicalsom_matriz.xlsx
+++ b/dados/radicalsom_matriz.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>preco</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>modelo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -476,13 +476,13 @@
           <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>90.78</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:90899578#searchVariation=MLB28557249&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=4cd4ae8e-1485-4d91-982a-3fd81e3b4b7b</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:90899578#searchVariation=MLB28557249&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=43b891b9-32c4-4c9a-a241-94f9939e0a69</t>
         </is>
       </c>
     </row>
@@ -507,13 +507,13 @@
           <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>87.90000000000001</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:90899578#searchVariation=MLB27685629&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=4cd4ae8e-1485-4d91-982a-3fd81e3b4b7b</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:90899578#searchVariation=MLB27685629&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=43b891b9-32c4-4c9a-a241-94f9939e0a69</t>
         </is>
       </c>
     </row>
@@ -538,13 +538,13 @@
           <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>54.99</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:90899578#searchVariation=MLB27970249&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=4cd4ae8e-1485-4d91-982a-3fd81e3b4b7b</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:90899578#searchVariation=MLB27970249&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=43b891b9-32c4-4c9a-a241-94f9939e0a69</t>
         </is>
       </c>
     </row>
@@ -569,13 +569,13 @@
           <t>Controle Longa Distancia Jfa K600 Preto Com Verde</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>54.99</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
@@ -590,7 +590,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-preto-com-verde/p/MLB27999036?pdp_filters=seller_id:90899578#searchVariation=MLB27999036&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=4cd4ae8e-1485-4d91-982a-3fd81e3b4b7b</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-preto-com-verde/p/MLB27999036?pdp_filters=seller_id:90899578#searchVariation=MLB27999036&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=43b891b9-32c4-4c9a-a241-94f9939e0a69</t>
         </is>
       </c>
     </row>
@@ -600,13 +600,13 @@
           <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>78.90000000000001</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:90899578#searchVariation=MLB27687422&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=4cd4ae8e-1485-4d91-982a-3fd81e3b4b7b</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:90899578#searchVariation=MLB27687422&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=43b891b9-32c4-4c9a-a241-94f9939e0a69</t>
         </is>
       </c>
     </row>
@@ -631,13 +631,13 @@
           <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>54.99</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:90899578#searchVariation=MLB32364344&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=4cd4ae8e-1485-4d91-982a-3fd81e3b4b7b</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:90899578#searchVariation=MLB32364344&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=43b891b9-32c4-4c9a-a241-94f9939e0a69</t>
         </is>
       </c>
     </row>
@@ -662,14 +662,14 @@
           <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>634.4</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -687,7 +687,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:90899578#searchVariation=MLB21392652&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=4cd4ae8e-1485-4d91-982a-3fd81e3b4b7b</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:90899578#searchVariation=MLB21392652&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=43b891b9-32c4-4c9a-a241-94f9939e0a69</t>
         </is>
       </c>
     </row>
@@ -697,13 +697,13 @@
           <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>37.9</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:90899578#searchVariation=MLB25707531&amp;position=20&amp;search_layout=grid&amp;type=product&amp;tracking_id=4cd4ae8e-1485-4d91-982a-3fd81e3b4b7b</t>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:90899578#searchVariation=MLB25707531&amp;position=20&amp;search_layout=grid&amp;type=product&amp;tracking_id=43b891b9-32c4-4c9a-a241-94f9939e0a69</t>
         </is>
       </c>
     </row>
@@ -728,13 +728,13 @@
           <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>860.98</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:90899578#searchVariation=MLB24006449&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=4cd4ae8e-1485-4d91-982a-3fd81e3b4b7b</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:90899578#searchVariation=MLB24006449&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=43b891b9-32c4-4c9a-a241-94f9939e0a69</t>
         </is>
       </c>
     </row>
@@ -759,15 +759,19 @@
           <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>599.71</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>NA</t>
@@ -780,7 +784,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:90899578#searchVariation=MLB22144397&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=4cd4ae8e-1485-4d91-982a-3fd81e3b4b7b</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:90899578#searchVariation=MLB22144397&amp;position=34&amp;search_layout=grid&amp;type=product&amp;tracking_id=43b891b9-32c4-4c9a-a241-94f9939e0a69</t>
         </is>
       </c>
     </row>
@@ -790,13 +794,13 @@
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>64.90000000000001</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
@@ -811,7 +815,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:90899578#searchVariation=MLB34210379&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=4cd4ae8e-1485-4d91-982a-3fd81e3b4b7b</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:90899578#searchVariation=MLB34210379&amp;position=37&amp;search_layout=grid&amp;type=product&amp;tracking_id=43b891b9-32c4-4c9a-a241-94f9939e0a69</t>
         </is>
       </c>
     </row>
@@ -821,14 +825,14 @@
           <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>845.87</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -846,7 +850,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:90899578#searchVariation=MLB21348561&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=4cd4ae8e-1485-4d91-982a-3fd81e3b4b7b</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:90899578#searchVariation=MLB21348561&amp;position=29&amp;search_layout=grid&amp;type=product&amp;tracking_id=43b891b9-32c4-4c9a-a241-94f9939e0a69</t>
         </is>
       </c>
     </row>
@@ -856,14 +860,14 @@
           <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>716.71</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -881,7 +885,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:90899578#searchVariation=MLB24154371&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=4cd4ae8e-1485-4d91-982a-3fd81e3b4b7b</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:90899578#searchVariation=MLB24154371&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=43b891b9-32c4-4c9a-a241-94f9939e0a69</t>
         </is>
       </c>
     </row>
@@ -891,15 +895,19 @@
           <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>693.7</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>NA</t>
@@ -912,7 +920,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:90899578#searchVariation=MLB24834408&amp;position=41&amp;search_layout=grid&amp;type=product&amp;tracking_id=4cd4ae8e-1485-4d91-982a-3fd81e3b4b7b</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:90899578#searchVariation=MLB24834408&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=43b891b9-32c4-4c9a-a241-94f9939e0a69</t>
         </is>
       </c>
     </row>
@@ -922,13 +930,13 @@
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
         <v>59.9</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
@@ -943,7 +951,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:90899578#searchVariation=MLB28687615&amp;position=43&amp;search_layout=grid&amp;type=product&amp;tracking_id=4cd4ae8e-1485-4d91-982a-3fd81e3b4b7b</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:90899578#searchVariation=MLB28687615&amp;position=33&amp;search_layout=grid&amp;type=product&amp;tracking_id=43b891b9-32c4-4c9a-a241-94f9939e0a69</t>
         </is>
       </c>
     </row>
@@ -953,15 +961,19 @@
           <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
         <v>492.3</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>NA</t>
@@ -974,7 +986,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:90899578#searchVariation=MLB21562641&amp;position=46&amp;search_layout=grid&amp;type=product&amp;tracking_id=4cd4ae8e-1485-4d91-982a-3fd81e3b4b7b</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:90899578#searchVariation=MLB21562641&amp;position=43&amp;search_layout=grid&amp;type=product&amp;tracking_id=43b891b9-32c4-4c9a-a241-94f9939e0a69</t>
         </is>
       </c>
     </row>
@@ -984,13 +996,13 @@
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
         <v>61.19</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
@@ -1005,25 +1017,29 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:90899578#searchVariation=MLB28722231&amp;position=48&amp;search_layout=grid&amp;type=product&amp;tracking_id=4cd4ae8e-1485-4d91-982a-3fd81e3b4b7b</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:90899578#searchVariation=MLB28722231&amp;position=47&amp;search_layout=grid&amp;type=product&amp;tracking_id=43b891b9-32c4-4c9a-a241-94f9939e0a69</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 K 600 K-600 Completo</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>Jfa K600 - Combo 5 Peças Longa Distancia Cores Variadas</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>269</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1031,28 +1047,28 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-k-600-k-600-completo/p/MLB28798841?pdp_filters=seller_id:90899578#searchVariation=MLB28798841&amp;position=11&amp;search_layout=grid&amp;type=product&amp;tracking_id=373abe50-dea3-45c0-abba-a44acf2dbc42</t>
+          <t>https://www.mercadolivre.com.br/jfa-k600-combo-5-pecas-longa-distancia-cores-variadas/p/MLB27993263?pdp_filters=seller_id:90899578#searchVariation=MLB27993263&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=1816a933-8fe6-4a68-8bf5-4ca18b410c40</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Jfa K600 - Combo 5 Peças Longa Distancia Cores Variadas</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>269</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Controle Longa Distância Jfa K600 K 600 K-600 Completo</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>59.9</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
@@ -1062,12 +1078,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-k600-combo-5-pecas-longa-distancia-cores-variadas/p/MLB27993263?pdp_filters=seller_id:90899578#searchVariation=MLB27993263&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=373abe50-dea3-45c0-abba-a44acf2dbc42</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-k-600-k-600-completo/p/MLB28798841?pdp_filters=seller_id:90899578#searchVariation=MLB28798841&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=1816a933-8fe6-4a68-8bf5-4ca18b410c40</t>
         </is>
       </c>
     </row>
@@ -1077,15 +1093,19 @@
           <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
         <v>548.24</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1098,7 +1118,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:90899578#searchVariation=MLB21455208&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=373abe50-dea3-45c0-abba-a44acf2dbc42</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:90899578#searchVariation=MLB21455208&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=1816a933-8fe6-4a68-8bf5-4ca18b410c40</t>
         </is>
       </c>
     </row>
@@ -1108,14 +1128,14 @@
           <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>443.07</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1133,7 +1153,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:90899578#searchVariation=MLB21320712&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=373abe50-dea3-45c0-abba-a44acf2dbc42</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:90899578#searchVariation=MLB21320712&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=1816a933-8fe6-4a68-8bf5-4ca18b410c40</t>
         </is>
       </c>
     </row>
@@ -1143,13 +1163,13 @@
           <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
         <v>61.19</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
@@ -1164,7 +1184,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:90899578#searchVariation=MLB28357019&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=373abe50-dea3-45c0-abba-a44acf2dbc42</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:90899578#searchVariation=MLB28357019&amp;position=29&amp;search_layout=grid&amp;type=product&amp;tracking_id=1816a933-8fe6-4a68-8bf5-4ca18b410c40</t>
         </is>
       </c>
     </row>
@@ -1174,13 +1194,13 @@
           <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
         <v>61.19</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
@@ -1195,29 +1215,25 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:90899578#searchVariation=MLB30476096&amp;position=40&amp;search_layout=grid&amp;type=product&amp;tracking_id=373abe50-dea3-45c0-abba-a44acf2dbc42</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:90899578#searchVariation=MLB30476096&amp;position=40&amp;search_layout=grid&amp;type=product&amp;tracking_id=1816a933-8fe6-4a68-8bf5-4ca18b410c40</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120 A Jfa Carregador Com Sistema Sci +frete</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>674.6799999999999</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Filtro Anti Ruido Jfa Rca Com Blindagem P/ Som Automotivo</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1230,29 +1246,25 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237786659-fonte-automotiva-120-a-jfa-carregador-com-sistema-sci-frete-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd502a53d-a567-4734-b1f4-31619307cbb2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2044238984-filtro-anti-ruido-jfa-rca-com-blindagem-p-som-automotivo-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D980aad54-132c-46b8-828b-d5e2b18dfd17</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fonte Carregador Inteligente Jfa 120 Amperes Sci Modelo Full</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>634.4</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Filtro Anti-ruido Jfa Rca Eletromagnético Stereo</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1260,12 +1272,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237793033-fonte-carregador-inteligente-jfa-120-amperes-sci-modelo-full-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd502a53d-a567-4734-b1f4-31619307cbb2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2044257162-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D980aad54-132c-46b8-828b-d5e2b18dfd17</t>
         </is>
       </c>
     </row>
@@ -1275,13 +1287,13 @@
           <t>Controle Longa Distância Jfa K600 + Central Cor Preto Cinza</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
         <v>54.99</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
@@ -1296,25 +1308,29 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-960927274-controle-longa-distncia-jfa-k600-central-cor-preto-cinza-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd502a53d-a567-4734-b1f4-31619307cbb2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-960927274-controle-longa-distncia-jfa-k600-central-cor-preto-cinza-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D980aad54-132c-46b8-828b-d5e2b18dfd17</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Filtro Anti Ruido Jfa Rca Com Blindagem P/ Som Automotivo</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>Fonte Automotiva 120 A Jfa Carregador Com Sistema Sci +frete</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>674.6799999999999</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1327,25 +1343,29 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2044238984-filtro-anti-ruido-jfa-rca-com-blindagem-p-som-automotivo-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd502a53d-a567-4734-b1f4-31619307cbb2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237786659-fonte-automotiva-120-a-jfa-carregador-com-sistema-sci-frete-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D980aad54-132c-46b8-828b-d5e2b18dfd17</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Voltímetro Sequenciado Jfa Digital Vs5hi Alta/baixa Voltage</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>77.98999999999999</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>Fonte Carregador Inteligente Jfa 120 Amperes Sci Modelo Full</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>634.4</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1353,28 +1373,28 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1014470608-voltimetro-sequenciado-jfa-digital-vs5hi-altabaixa-voltage-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd502a53d-a567-4734-b1f4-31619307cbb2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237793033-fonte-carregador-inteligente-jfa-120-amperes-sci-modelo-full-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D980aad54-132c-46b8-828b-d5e2b18dfd17</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Fonte Usina 200ah Bivolt + Controle Jfa K600 Brinde</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>819</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Voltímetro Sequenciado Jfa Digital Vs5hi Alta/baixa Voltage</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>77.98999999999999</v>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
@@ -1384,28 +1404,28 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1968884558-fonte-usina-200ah-bivolt-controle-jfa-k600-brinde-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd502a53d-a567-4734-b1f4-31619307cbb2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1014470608-voltimetro-sequenciado-jfa-digital-vs5hi-altabaixa-voltage-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D980aad54-132c-46b8-828b-d5e2b18dfd17</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a 200 Amperes Sci Redline Bivolt Som</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>845.87</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
+          <t>Fonte Carregador Jfa 200 Amperes Sci Redline Volt/amp Bivolt</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>805.59</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1419,34 +1439,30 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305215505-fonte-carregador-jfa-200a-200-amperes-sci-redline-bivolt-som-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd502a53d-a567-4734-b1f4-31619307cbb2</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1305212746-fonte-carregador-jfa-200-amperes-sci-redline-voltamp-bivolt-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D980aad54-132c-46b8-828b-d5e2b18dfd17</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200 Amperes Sci Redline Volt/amp Bivolt</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>805.59</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Fonte Usina 200ah Bivolt + Controle Jfa K600 Brinde</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>819</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1459,25 +1475,29 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305212746-fonte-carregador-jfa-200-amperes-sci-redline-voltamp-bivolt-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1ce23e00-70fb-4034-b101-3f3ea0a1ef0d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1968884558-fonte-usina-200ah-bivolt-controle-jfa-k600-brinde-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D980aad54-132c-46b8-828b-d5e2b18dfd17</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Filtro Anti-ruido Jfa Rca Eletromagnético Stereo</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+          <t>Fonte Carregador Jfa 200a 200 Amperes Sci Redline Bivolt Som</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>845.87</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1490,7 +1510,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2044257162-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1ce23e00-70fb-4034-b101-3f3ea0a1ef0d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1305215505-fonte-carregador-jfa-200a-200-amperes-sci-redline-bivolt-som-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D38ac97f3-4459-4104-a771-75cfbde023f1</t>
         </is>
       </c>
     </row>
@@ -1500,15 +1520,19 @@
           <t>Fonte Carregador Jfa Bob Storm 200a 12v 14,4v  Som Paredão</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
         <v>772.02</v>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1521,7 +1545,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717179525-fonte-carregador-jfa-bob-storm-200a-12v-144v-som-paredo-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1ce23e00-70fb-4034-b101-3f3ea0a1ef0d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717179525-fonte-carregador-jfa-bob-storm-200a-12v-144v-som-paredo-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D38ac97f3-4459-4104-a771-75cfbde023f1</t>
         </is>
       </c>
     </row>
@@ -1531,13 +1555,13 @@
           <t>Controle Longa Distância Jfa K600 + Barato Brasil</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
         <v>54.99</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
@@ -1552,23 +1576,23 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1042812523-controle-longa-distncia-jfa-k600-barato-brasil-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1ce23e00-70fb-4034-b101-3f3ea0a1ef0d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1042812523-controle-longa-distncia-jfa-k600-barato-brasil-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D38ac97f3-4459-4104-a771-75cfbde023f1</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Filtro Anti-ruido Jfa Rca Eletromagnético Stereo</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>57.9</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Fonte Carregador Automotivo 60a Jfa + Controle Stetsom Sx-2</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>549</v>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
@@ -1578,12 +1602,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2044232351-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1ce23e00-70fb-4034-b101-3f3ea0a1ef0d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-987406861-fonte-carregador-automotivo-60a-jfa-controle-stetsom-sx-2-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D38ac97f3-4459-4104-a771-75cfbde023f1</t>
         </is>
       </c>
     </row>
@@ -1593,13 +1617,13 @@
           <t>Controle Longa Distancia Jfa Preto / Cinza K600 Full</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
         <v>59.9</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
@@ -1614,23 +1638,23 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465503271-controle-longa-distancia-jfa-preto-cinza-k600-full-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1ce23e00-70fb-4034-b101-3f3ea0a1ef0d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1465503271-controle-longa-distancia-jfa-preto-cinza-k600-full-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D38ac97f3-4459-4104-a771-75cfbde023f1</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo 60a Jfa + Controle Stetsom Sx-2</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>549</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Voltímetro Digital  Jfa Vs5hi Lançamento 3 Em 1 Som Paredão</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>77.98999999999999</v>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
@@ -1645,23 +1669,23 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-987406861-fonte-carregador-automotivo-60a-jfa-controle-stetsom-sx-2-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1ce23e00-70fb-4034-b101-3f3ea0a1ef0d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1875299616-voltimetro-digital-jfa-vs5hi-lancamento-3-em-1-som-paredo-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D38ac97f3-4459-4104-a771-75cfbde023f1</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Voltímetro Digital  Jfa Vs5hi Lançamento 3 Em 1 Som Paredão</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>77.98999999999999</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Filtro Anti-ruido Jfa Rca Eletromagnético Stereo</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>57.9</v>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
@@ -1671,30 +1695,34 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875299616-voltimetro-digital-jfa-vs5hi-lancamento-3-em-1-som-paredo-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1ce23e00-70fb-4034-b101-3f3ea0a1ef0d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2044232351-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D38ac97f3-4459-4104-a771-75cfbde023f1</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Voltímetro Jfa Vs5hi Hv/12v Sequenciador Caixa Bob Paredão</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+          <t>Fonte Carregador Jfa Bob 200 Amperes Bivolt Inteligente Full</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>693.7</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1707,23 +1735,23 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875307425-voltimetro-jfa-vs5hi-hv12v-sequenciador-caixa-bob-paredo-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1ce23e00-70fb-4034-b101-3f3ea0a1ef0d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717151469-fonte-carregador-jfa-bob-200-amperes-bivolt-inteligente-full-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D38ac97f3-4459-4104-a771-75cfbde023f1</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob 200 Amperes Bivolt Inteligente Full</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>693.7</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Voltímetro Jfa Vs5hi Hv/12v Sequenciador Caixa Bob Paredão</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>67.8</v>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
@@ -1738,7 +1766,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717151469-fonte-carregador-jfa-bob-200-amperes-bivolt-inteligente-full-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1ce23e00-70fb-4034-b101-3f3ea0a1ef0d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1875307425-voltimetro-jfa-vs5hi-hv12v-sequenciador-caixa-bob-paredo-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D38ac97f3-4459-4104-a771-75cfbde023f1</t>
         </is>
       </c>
     </row>
@@ -1748,15 +1776,19 @@
           <t>Fonte Automotiva 60 Amperes Jfa Storm Red Line Cca Sci Smart</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
         <v>492.3</v>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1769,7 +1801,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164378570-fonte-automotiva-60-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D96360597-3641-47bc-841f-839a2a7df9f3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164378570-fonte-automotiva-60-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D632d2af4-dfd8-4078-8b5b-d58f043da189</t>
         </is>
       </c>
     </row>
@@ -1779,18 +1811,18 @@
           <t>Controle Longa Distancia Jfa K1200 Acqua Som Completo Top</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
         <v>78.90000000000001</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1800,7 +1832,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724203538-controle-longa-distancia-jfa-k1200-acqua-som-completo-top-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D96360597-3641-47bc-841f-839a2a7df9f3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2724203538-controle-longa-distancia-jfa-k1200-acqua-som-completo-top-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D632d2af4-dfd8-4078-8b5b-d58f043da189</t>
         </is>
       </c>
     </row>
@@ -1810,13 +1842,13 @@
           <t>Controle Longa Distância Jfa K600 + Central Preto / Laranja</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
         <v>54.99</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
@@ -1831,7 +1863,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1042815891-controle-longa-distncia-jfa-k600-central-preto-laranja-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D96360597-3641-47bc-841f-839a2a7df9f3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1042815891-controle-longa-distncia-jfa-k600-central-preto-laranja-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D632d2af4-dfd8-4078-8b5b-d58f043da189</t>
         </is>
       </c>
     </row>
@@ -1841,15 +1873,19 @@
           <t>Carregador Fonte Para Bateria Estacionaria Nobraque Jfa 70a</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
         <v>548.24</v>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1862,7 +1898,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474155563-carregador-fonte-para-bateria-estacionaria-nobraque-jfa-70a-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D96360597-3641-47bc-841f-839a2a7df9f3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1474155563-carregador-fonte-para-bateria-estacionaria-nobraque-jfa-70a-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D632d2af4-dfd8-4078-8b5b-d58f043da189</t>
         </is>
       </c>
     </row>
@@ -1872,13 +1908,13 @@
           <t>Voltímetro Digital  Jfa Vs5hi Lançamento 3 Em 1 Som Paredão</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
         <v>67.8</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
@@ -1893,7 +1929,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875304107-voltimetro-digital-jfa-vs5hi-lancamento-3-em-1-som-paredo-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D96360597-3641-47bc-841f-839a2a7df9f3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1875304107-voltimetro-digital-jfa-vs5hi-lancamento-3-em-1-som-paredo-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D632d2af4-dfd8-4078-8b5b-d58f043da189</t>
         </is>
       </c>
     </row>
@@ -1903,15 +1939,19 @@
           <t>Carregador Fonte Para Bateria Estacionaria Nobraque Jfa 70a</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
         <v>581.8200000000001</v>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1924,7 +1964,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474160243-carregador-fonte-para-bateria-estacionaria-nobraque-jfa-70a-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D96360597-3641-47bc-841f-839a2a7df9f3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1474160243-carregador-fonte-para-bateria-estacionaria-nobraque-jfa-70a-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D632d2af4-dfd8-4078-8b5b-d58f043da189</t>
         </is>
       </c>
     </row>
@@ -1934,13 +1974,13 @@
           <t>Voltímetro Jfa Vs5hi Hv/12v Com Sequenciador Tp Stetsom Ajk</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
         <v>67.8</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
@@ -1955,25 +1995,29 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875304952-voltimetro-jfa-vs5hi-hv12v-com-sequenciador-tp-stetsom-ajk-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D090838ef-1d71-41ad-b540-3397e51cadf6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1875304952-voltimetro-jfa-vs5hi-hv12v-com-sequenciador-tp-stetsom-ajk-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc00ac9d2-4eee-4b20-8996-1804be14a96a</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 200 Amperes Jfa Storm Redline Cca Sci Smart</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
+          <t>Fonte Carregador Bateria Jfa 200a Sci Original/nf/garantia</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
         <v>939.86</v>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1986,25 +2030,29 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174587167-fonte-automotiva-200-amperes-jfa-storm-redline-cca-sci-smart-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D090838ef-1d71-41ad-b540-3397e51cadf6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-961801997-fonte-carregador-bateria-jfa-200a-sci-originalnfgarantia-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc00ac9d2-4eee-4b20-8996-1804be14a96a</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bateria Jfa 200a Sci Original/nf/garantia</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
+          <t>Fonte Automotiva 200 Amperes Jfa Storm Redline Cca Sci Smart</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
         <v>939.86</v>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2017,7 +2065,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-961801997-fonte-carregador-bateria-jfa-200a-sci-originalnfgarantia-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D090838ef-1d71-41ad-b540-3397e51cadf6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2174587167-fonte-automotiva-200-amperes-jfa-storm-redline-cca-sci-smart-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc00ac9d2-4eee-4b20-8996-1804be14a96a</t>
         </is>
       </c>
     </row>
@@ -2027,15 +2075,19 @@
           <t>Fonte Carregador Jfa 200 Amperes Sci Mais Forte Do Brasil</t>
         </is>
       </c>
-      <c r="B51" t="n">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
         <v>939.86</v>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2048,7 +2100,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1182763871-fonte-carregador-jfa-200-amperes-sci-mais-forte-do-brasil-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D090838ef-1d71-41ad-b540-3397e51cadf6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1182763871-fonte-carregador-jfa-200-amperes-sci-mais-forte-do-brasil-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1bcbbd3c-457b-43fe-bdf8-d4487f881633</t>
         </is>
       </c>
     </row>
@@ -2058,13 +2110,13 @@
           <t>Fonte Carregador Jfa Storm 200a Mono - 12v</t>
         </is>
       </c>
-      <c r="B52" t="n">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
         <v>860.98</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
@@ -2079,7 +2131,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3452332428-fonte-carregador-jfa-storm-200a-mono-12v-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D090838ef-1d71-41ad-b540-3397e51cadf6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3452332428-fonte-carregador-jfa-storm-200a-mono-12v-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1bcbbd3c-457b-43fe-bdf8-d4487f881633</t>
         </is>
       </c>
     </row>
@@ -2089,13 +2141,13 @@
           <t>Fonte Automotiva Spark Usina 120a + Controle Jfa K600 Comple</t>
         </is>
       </c>
-      <c r="B53" t="n">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
         <v>789</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
@@ -2110,7 +2162,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-933701204-fonte-automotiva-spark-usina-120a-controle-jfa-k600-comple-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D090838ef-1d71-41ad-b540-3397e51cadf6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-933701204-fonte-automotiva-spark-usina-120a-controle-jfa-k600-comple-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1bcbbd3c-457b-43fe-bdf8-d4487f881633</t>
         </is>
       </c>
     </row>
@@ -2120,13 +2172,13 @@
           <t>Combo 10 Kits Jfa K600 - Controle Longa Distancia P/ Pioneer</t>
         </is>
       </c>
-      <c r="B54" t="n">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
         <v>699</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
@@ -2141,7 +2193,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465452768-combo-10-kits-jfa-k600-controle-longa-distancia-p-pioneer-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D84fc9f25-cf28-48a6-b95e-c75320a96412</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1465452768-combo-10-kits-jfa-k600-controle-longa-distancia-p-pioneer-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1bcbbd3c-457b-43fe-bdf8-d4487f881633</t>
         </is>
       </c>
     </row>
@@ -2151,14 +2203,14 @@
           <t>Fonte Automotiva Jfa 120a Amperes Redline Voltímetro Digita</t>
         </is>
       </c>
-      <c r="B55" t="n">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D55" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -2176,24 +2228,24 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1484122024-fonte-automotiva-jfa-120a-amperes-redline-voltimetro-digita-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D84fc9f25-cf28-48a6-b95e-c75320a96412</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1484122024-fonte-automotiva-jfa-120a-amperes-redline-voltimetro-digita-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1bcbbd3c-457b-43fe-bdf8-d4487f881633</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Fonte Carregador Inteligente Jfa 120 Amperes Sci Modelo Full</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
+          <t>Fonte Carregador Jfa 120 Amperes Sci Redline Digital Bivolt</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D56" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -2211,27 +2263,27 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237796246-fonte-carregador-inteligente-jfa-120-amperes-sci-modelo-full-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D84fc9f25-cf28-48a6-b95e-c75320a96412</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1305191694-fonte-carregador-jfa-120-amperes-sci-redline-digital-bivolt-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1bcbbd3c-457b-43fe-bdf8-d4487f881633</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120 Amperes Sci Redline Digital Bivolt</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>674.6799999999999</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
+          <t xml:space="preserve">Fonte Carregador Bateria Estacionaria Jfa 60a Slim Bivolt </t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>525.87</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2246,25 +2298,29 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305191694-fonte-carregador-jfa-120-amperes-sci-redline-digital-bivolt-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D84fc9f25-cf28-48a6-b95e-c75320a96412</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1474102716-fonte-carregador-bateria-estacionaria-jfa-60a-slim-bivolt-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1bcbbd3c-457b-43fe-bdf8-d4487f881633</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Carregador Bateria Estacionaria Jfa 60a Slim Bivolt </t>
-        </is>
-      </c>
-      <c r="B58" t="n">
+          <t>Carregador Bateria Estacionaria Jfa 60a Slim Bivolt Azul</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
         <v>525.87</v>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2277,25 +2333,29 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474102716-fonte-carregador-bateria-estacionaria-jfa-60a-slim-bivolt-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D84fc9f25-cf28-48a6-b95e-c75320a96412</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1474104958-carregador-bateria-estacionaria-jfa-60a-slim-bivolt-azul-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1bcbbd3c-457b-43fe-bdf8-d4487f881633</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Carregador Bateria Estacionaria Jfa 60a Slim Bivolt Azul</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
+          <t>Fonte Automotiva 60 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
         <v>525.87</v>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2308,23 +2368,23 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474104958-carregador-bateria-estacionaria-jfa-60a-slim-bivolt-azul-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D84fc9f25-cf28-48a6-b95e-c75320a96412</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164414544-fonte-automotiva-60-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1bcbbd3c-457b-43fe-bdf8-d4487f881633</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 60 Amperes Jfa Storm Red Line Cca Sci Smart</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>525.87</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Combo 5 Kits Jfa K600 - Controle Longa Distancia P/ Pioneer</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>359</v>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
@@ -2339,23 +2399,23 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164414544-fonte-automotiva-60-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D84fc9f25-cf28-48a6-b95e-c75320a96412</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1465470065-combo-5-kits-jfa-k600-controle-longa-distancia-p-pioneer-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1bcbbd3c-457b-43fe-bdf8-d4487f881633</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Combo 5 Kits Jfa K600 - Controle Longa Distancia P/ Pioneer</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>359</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Controle De Suspensão Ar Jfa Air Control Black</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>209</v>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
@@ -2370,23 +2430,23 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465470065-combo-5-kits-jfa-k600-controle-longa-distancia-p-pioneer-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D84fc9f25-cf28-48a6-b95e-c75320a96412</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1814390398-controle-de-suspenso-ar-jfa-air-control-black-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1bcbbd3c-457b-43fe-bdf8-d4487f881633</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Controle De Suspensão Ar Jfa Air Control Black</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>209</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Controle Longa Distancia Jfa Redline Wr P Multimídia Import</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>105.93</v>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
@@ -2401,25 +2461,29 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1814390398-controle-de-suspenso-ar-jfa-air-control-black-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D84fc9f25-cf28-48a6-b95e-c75320a96412</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1331581735-controle-longa-distancia-jfa-redline-wr-p-multimidia-import-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4f91c33c-821f-42ed-90e0-f2f616b7c378</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr P Multimídia Import</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>105.93</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
+          <t>Fonte Carregador Jfa 120a Bivolt Brinde Strobo Rgb</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>679</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2427,12 +2491,12 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1331581735-controle-longa-distancia-jfa-redline-wr-p-multimidia-import-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0bb53d74-5730-406e-a972-fda4bb0c68c1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1976484775-fonte-carregador-jfa-120a-bivolt-brinde-strobo-rgb-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4f91c33c-821f-42ed-90e0-f2f616b7c378</t>
         </is>
       </c>
     </row>
@@ -2442,13 +2506,13 @@
           <t>Controle Longa Distancia Jfa Preto / Cinza K600 Full</t>
         </is>
       </c>
-      <c r="B64" t="n">
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
         <v>54.99</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
@@ -2463,23 +2527,23 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465503294-controle-longa-distancia-jfa-preto-cinza-k600-full-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0bb53d74-5730-406e-a972-fda4bb0c68c1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1465503294-controle-longa-distancia-jfa-preto-cinza-k600-full-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4f91c33c-821f-42ed-90e0-f2f616b7c378</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Voltímetro Jfa Vs5hi 3 Em 1 Sequenciador High Voltagem /12v</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>77.98999999999999</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Sequenciador Voltímetro Medidor Bateria Digital Jfa Vs5 Hi</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>67.8</v>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
@@ -2489,28 +2553,28 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875290424-voltimetro-jfa-vs5hi-3-em-1-sequenciador-high-voltagem-12v-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0bb53d74-5730-406e-a972-fda4bb0c68c1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1875286106-sequenciador-voltimetro-medidor-bateria-digital-jfa-vs5-hi-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4f91c33c-821f-42ed-90e0-f2f616b7c378</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bivolt Brinde Strobo Rgb</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>679</v>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Voltímetro Jfa Vs5hi 3 Em 1 Sequenciador High Voltagem /12v</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>77.98999999999999</v>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
@@ -2520,28 +2584,28 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1976484775-fonte-carregador-jfa-120a-bivolt-brinde-strobo-rgb-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0bb53d74-5730-406e-a972-fda4bb0c68c1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1875290424-voltimetro-jfa-vs5hi-3-em-1-sequenciador-high-voltagem-12v-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4f91c33c-821f-42ed-90e0-f2f616b7c378</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sequenciador Voltímetro Medidor Bateria Digital Jfa Vs5 Hi</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Fonte Carregador Jfa Storm 200a Mono - 12v</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>818.46</v>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
@@ -2556,23 +2620,23 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875286106-sequenciador-voltimetro-medidor-bateria-digital-jfa-vs5-hi-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0bb53d74-5730-406e-a972-fda4bb0c68c1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3284164699-fonte-carregador-jfa-storm-200a-mono-12v-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4f91c33c-821f-42ed-90e0-f2f616b7c378</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 200a Mono - 12v</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>818.46</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Controle Longa Distância Jfa K600 Cor Preto Verde + Frete</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>59.9</v>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
@@ -2582,28 +2646,28 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3284164699-fonte-carregador-jfa-storm-200a-mono-12v-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0bb53d74-5730-406e-a972-fda4bb0c68c1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-960924608-controle-longa-distncia-jfa-k600-cor-preto-verde-frete-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4f91c33c-821f-42ed-90e0-f2f616b7c378</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 Cor Preto Verde + Frete</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
+          <t>Controle Longa Distancia Completo Jfa K600 Preto / Laranja</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
         <v>59.9</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
@@ -2618,23 +2682,23 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-960924608-controle-longa-distncia-jfa-k600-cor-preto-verde-frete-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0bb53d74-5730-406e-a972-fda4bb0c68c1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1465510869-controle-longa-distancia-completo-jfa-k600-preto-laranja-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4f91c33c-821f-42ed-90e0-f2f616b7c378</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Completo Jfa K600 Preto / Laranja</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
+          <t>Controle Longa Distância Jfa K600 + Central Preto / Laranja</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
         <v>59.9</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
@@ -2649,23 +2713,23 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465510869-controle-longa-distancia-completo-jfa-k600-preto-laranja-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0bb53d74-5730-406e-a972-fda4bb0c68c1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-960900243-controle-longa-distncia-jfa-k600-central-preto-laranja-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1f6c5869-88c6-4e18-a9c4-608bc5d46760</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 + Central Preto / Laranja</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Controle Longa Distancia Completo Jfa K600 Preto / Laranja</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>54.99</v>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
@@ -2675,28 +2739,28 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-960900243-controle-longa-distncia-jfa-k600-central-preto-laranja-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da510d27c-11da-4e34-82c9-dd8664e15df6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1465507283-controle-longa-distancia-completo-jfa-k600-preto-laranja-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1f6c5869-88c6-4e18-a9c4-608bc5d46760</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Completo Jfa K600 Preto / Laranja</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>54.99</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Controle Longa Distancia Jfa Redline Wr P/ Aparelho Original</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>100.98</v>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
@@ -2706,30 +2770,34 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465507283-controle-longa-distancia-completo-jfa-k600-preto-laranja-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da510d27c-11da-4e34-82c9-dd8664e15df6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1331588058-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1f6c5869-88c6-4e18-a9c4-608bc5d46760</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr P/ Aparelho Original</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>100.98</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
+          <t xml:space="preserve">Fonte Carregador Bateria Estacionaria Jfa 60a Slim Bivolt </t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>492.3</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E73" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2737,28 +2805,28 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1331588058-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da510d27c-11da-4e34-82c9-dd8664e15df6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1474102729-fonte-carregador-bateria-estacionaria-jfa-60a-slim-bivolt-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1f6c5869-88c6-4e18-a9c4-608bc5d46760</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Carregador Bateria Estacionaria Jfa 60a Slim Bivolt </t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>492.3</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Controle Longa Distância Jfa K600 Preto Laranja +frete</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>59.9</v>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
@@ -2768,28 +2836,28 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474102729-fonte-carregador-bateria-estacionaria-jfa-60a-slim-bivolt-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da510d27c-11da-4e34-82c9-dd8664e15df6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-960908168-controle-longa-distncia-jfa-k600-preto-laranja-frete-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1f6c5869-88c6-4e18-a9c4-608bc5d46760</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 Preto Laranja +frete</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Controle De Suspensão Ar Jfa Air Control Black</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>193</v>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
@@ -2799,30 +2867,34 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-960908168-controle-longa-distncia-jfa-k600-preto-laranja-frete-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da510d27c-11da-4e34-82c9-dd8664e15df6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1814400383-controle-de-suspenso-ar-jfa-air-control-black-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1f6c5869-88c6-4e18-a9c4-608bc5d46760</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Controle De Suspensão Ar Jfa Air Control Black</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>193</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
+          <t>Fonte Automotiva 200 A Jfa Carregador Modelo Slim Pro</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>895.1</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E76" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2835,23 +2907,23 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1814400383-controle-de-suspenso-ar-jfa-air-control-black-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da510d27c-11da-4e34-82c9-dd8664e15df6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1011493129-fonte-automotiva-200-a-jfa-carregador-modelo-slim-pro-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab86fc60-0a4a-43c3-937e-26aaf836e9ba</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 200 A Jfa Carregador Modelo Slim Pro</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>895.1</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Controle Longa Distancia Completo Jfa K600 Preto / Verde</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>59.9</v>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
@@ -2861,28 +2933,28 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1011493129-fonte-automotiva-200-a-jfa-carregador-modelo-slim-pro-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dba2c3ffd-6b8c-4ffa-bb62-d787b422cb3d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1465507809-controle-longa-distancia-completo-jfa-k600-preto-verde-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab86fc60-0a4a-43c3-937e-26aaf836e9ba</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Completo Jfa K600 Preto / Verde</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Voltímetro Jfa Vs5hi Hv/12v Sequenciador Caixa Bob Paredão</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>77.98999999999999</v>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
@@ -2897,7 +2969,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465507809-controle-longa-distancia-completo-jfa-k600-preto-verde-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dba2c3ffd-6b8c-4ffa-bb62-d787b422cb3d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1875305667-voltimetro-jfa-vs5hi-hv12v-sequenciador-caixa-bob-paredo-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab86fc60-0a4a-43c3-937e-26aaf836e9ba</t>
         </is>
       </c>
     </row>
@@ -2907,15 +2979,19 @@
           <t>Fonte P/caixa Bob Jfa Storm 200a Bivolt 3800w Sem Bateria</t>
         </is>
       </c>
-      <c r="B79" t="n">
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
         <v>772.02</v>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E79" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2928,7 +3004,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717163463-fonte-pcaixa-bob-jfa-storm-200a-bivolt-3800w-sem-bateria-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dba2c3ffd-6b8c-4ffa-bb62-d787b422cb3d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717163463-fonte-pcaixa-bob-jfa-storm-200a-bivolt-3800w-sem-bateria-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab86fc60-0a4a-43c3-937e-26aaf836e9ba</t>
         </is>
       </c>
     </row>
@@ -2938,13 +3014,13 @@
           <t>Melhor Fonte 70a Caixa Bob Jfa 70a Storm Lite 110/220v</t>
         </is>
       </c>
-      <c r="B80" t="n">
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
         <v>498.08</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
@@ -2959,7 +3035,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3312818505-melhor-fonte-70a-caixa-bob-jfa-70a-storm-lite-110220v-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dba2c3ffd-6b8c-4ffa-bb62-d787b422cb3d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3312818505-melhor-fonte-70a-caixa-bob-jfa-70a-storm-lite-110220v-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab86fc60-0a4a-43c3-937e-26aaf836e9ba</t>
         </is>
       </c>
     </row>
@@ -2969,13 +3045,13 @@
           <t>Conversor Rca Jfa Slim Com Comando Remoto Som</t>
         </is>
       </c>
-      <c r="B81" t="n">
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
         <v>37.9</v>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
@@ -2990,7 +3066,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3323947835-conversor-rca-jfa-slim-com-comando-remoto-som-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dba2c3ffd-6b8c-4ffa-bb62-d787b422cb3d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3323947835-conversor-rca-jfa-slim-com-comando-remoto-som-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab86fc60-0a4a-43c3-937e-26aaf836e9ba</t>
         </is>
       </c>
     </row>
@@ -3000,13 +3076,13 @@
           <t>Controle Jfa Suspensão Ar Air Control Longa Distancia +frete</t>
         </is>
       </c>
-      <c r="B82" t="n">
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
         <v>209</v>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
@@ -3021,7 +3097,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-961825741-controle-jfa-suspenso-ar-air-control-longa-distancia-frete-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dba2c3ffd-6b8c-4ffa-bb62-d787b422cb3d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-961825741-controle-jfa-suspenso-ar-air-control-longa-distancia-frete-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab86fc60-0a4a-43c3-937e-26aaf836e9ba</t>
         </is>
       </c>
     </row>
@@ -3031,15 +3107,19 @@
           <t>Fonte Automotiva 200a Jfa Carregador Modelo Novo Pro</t>
         </is>
       </c>
-      <c r="B83" t="n">
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
         <v>939.86</v>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E83" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3052,7 +3132,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-982208316-fonte-automotiva-200a-jfa-carregador-modelo-novo-pro-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dba2c3ffd-6b8c-4ffa-bb62-d787b422cb3d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-982208316-fonte-automotiva-200a-jfa-carregador-modelo-novo-pro-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab86fc60-0a4a-43c3-937e-26aaf836e9ba</t>
         </is>
       </c>
     </row>
@@ -3062,15 +3142,19 @@
           <t>Fonte Carregador Jfa 70a Digital Sci Bivolt Volt E Amp 60</t>
         </is>
       </c>
-      <c r="B84" t="n">
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
         <v>581.8200000000001</v>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E84" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3083,25 +3167,29 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1096345268-fonte-carregador-jfa-70a-digital-sci-bivolt-volt-e-amp-60-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dba2c3ffd-6b8c-4ffa-bb62-d787b422cb3d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1096345268-fonte-carregador-jfa-70a-digital-sci-bivolt-volt-e-amp-60-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab86fc60-0a4a-43c3-937e-26aaf836e9ba</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Voltímetro Jfa Vs5hi Hv/12v Sequenciador Caixa Bob Paredão</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>77.98999999999999</v>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
+          <t>Fonte Carregador Inteligente Jfa 120 Amperes Sci Modelo Full</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>674.6799999999999</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E85" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3114,7 +3202,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875305667-voltimetro-jfa-vs5hi-hv12v-sequenciador-caixa-bob-paredo-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dba2c3ffd-6b8c-4ffa-bb62-d787b422cb3d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237796246-fonte-carregador-inteligente-jfa-120-amperes-sci-modelo-full-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab86fc60-0a4a-43c3-937e-26aaf836e9ba</t>
         </is>
       </c>
     </row>
@@ -3124,15 +3212,19 @@
           <t>Fonte Carregador Jfa 90a Bob Storm Slim Bivolt 110v 220v</t>
         </is>
       </c>
-      <c r="B86" t="n">
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
         <v>469.92</v>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E86" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3145,7 +3237,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2927412531-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-110v-220v-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddcd48ac3-02bf-4b5b-a319-c6f6854222fd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2927412531-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-110v-220v-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da7495a06-e3c0-4c19-9ecf-f2ceba8af3dc</t>
         </is>
       </c>
     </row>
@@ -3155,13 +3247,13 @@
           <t>Fonte Carregador Jfa Storm 200a Monovolt Flutuação Proteção</t>
         </is>
       </c>
-      <c r="B87" t="n">
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
         <v>860.98</v>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
@@ -3176,7 +3268,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3452331742-fonte-carregador-jfa-storm-200a-monovolt-flutuaco-proteco-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddcd48ac3-02bf-4b5b-a319-c6f6854222fd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3452331742-fonte-carregador-jfa-storm-200a-monovolt-flutuaco-proteco-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da7495a06-e3c0-4c19-9ecf-f2ceba8af3dc</t>
         </is>
       </c>
     </row>
@@ -3186,14 +3278,14 @@
           <t>Nova Fonte Carregador Jfa Storm Lite 200a Bivolt</t>
         </is>
       </c>
-      <c r="B88" t="n">
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
         <v>716.71</v>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
       <c r="D88" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -3211,7 +3303,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3602873494-nova-fonte-carregador-jfa-storm-lite-200a-bivolt-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddcd48ac3-02bf-4b5b-a319-c6f6854222fd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3602873494-nova-fonte-carregador-jfa-storm-lite-200a-bivolt-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da7495a06-e3c0-4c19-9ecf-f2ceba8af3dc</t>
         </is>
       </c>
     </row>
@@ -3221,13 +3313,13 @@
           <t>Melhor Fonte 200a Caixa Bob Jfa 200a Storm Lite 110/220v</t>
         </is>
       </c>
-      <c r="B89" t="n">
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
         <v>681.83</v>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
@@ -3242,7 +3334,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3603511600-melhor-fonte-200a-caixa-bob-jfa-200a-storm-lite-110220v-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddcd48ac3-02bf-4b5b-a319-c6f6854222fd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3603511600-melhor-fonte-200a-caixa-bob-jfa-200a-storm-lite-110220v-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da7495a06-e3c0-4c19-9ecf-f2ceba8af3dc</t>
         </is>
       </c>
     </row>
@@ -3252,15 +3344,19 @@
           <t>Fonte Carregador 60a Jfa Automotiva Similar Stetsom 60a</t>
         </is>
       </c>
-      <c r="B90" t="n">
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
         <v>492.3</v>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E90" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3273,7 +3369,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-959311307-fonte-carregador-60a-jfa-automotiva-similar-stetsom-60a-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddcd48ac3-02bf-4b5b-a319-c6f6854222fd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-959311307-fonte-carregador-60a-jfa-automotiva-similar-stetsom-60a-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da7495a06-e3c0-4c19-9ecf-f2ceba8af3dc</t>
         </is>
       </c>
     </row>
@@ -3283,14 +3379,14 @@
           <t>Fonte Automotiva 120 A Jfa Carregador Tp Stetsom Full</t>
         </is>
       </c>
-      <c r="B91" t="n">
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
         <v>634.4</v>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D91" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -3308,7 +3404,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237790160-fonte-automotiva-120-a-jfa-carregador-tp-stetsom-full-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddcd48ac3-02bf-4b5b-a319-c6f6854222fd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237790160-fonte-automotiva-120-a-jfa-carregador-tp-stetsom-full-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da7495a06-e3c0-4c19-9ecf-f2ceba8af3dc</t>
         </is>
       </c>
     </row>
@@ -3318,14 +3414,14 @@
           <t>Carregador Bateria Inteligente Jfa 120a Sci Muito Forte</t>
         </is>
       </c>
-      <c r="B92" t="n">
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D92" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -3343,7 +3439,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237793041-carregador-bateria-inteligente-jfa-120a-sci-muito-forte-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddcd48ac3-02bf-4b5b-a319-c6f6854222fd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237793041-carregador-bateria-inteligente-jfa-120a-sci-muito-forte-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da7495a06-e3c0-4c19-9ecf-f2ceba8af3dc</t>
         </is>
       </c>
     </row>
@@ -3353,13 +3449,13 @@
           <t>Combo 10 Kits Jfa K600 - Controle Longa Distancia P/ Pioneer</t>
         </is>
       </c>
-      <c r="B93" t="n">
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
         <v>679</v>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
@@ -3374,7 +3470,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465449219-combo-10-kits-jfa-k600-controle-longa-distancia-p-pioneer-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddcd48ac3-02bf-4b5b-a319-c6f6854222fd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1465449219-combo-10-kits-jfa-k600-controle-longa-distancia-p-pioneer-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da7495a06-e3c0-4c19-9ecf-f2ceba8af3dc</t>
         </is>
       </c>
     </row>
@@ -3384,15 +3480,19 @@
           <t>Fonte Carregador Para Sistema Solar Jfa 70a Bivolt</t>
         </is>
       </c>
-      <c r="B94" t="n">
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
         <v>548.24</v>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E94" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3405,7 +3505,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474160263-fonte-carregador-para-sistema-solar-jfa-70a-bivolt-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddcd48ac3-02bf-4b5b-a319-c6f6854222fd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1474160263-fonte-carregador-para-sistema-solar-jfa-70a-bivolt-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da7495a06-e3c0-4c19-9ecf-f2ceba8af3dc</t>
         </is>
       </c>
     </row>
@@ -3415,15 +3515,19 @@
           <t>Fonte Carregador Automotivo Jfa 60a Redline 110/220v</t>
         </is>
       </c>
-      <c r="B95" t="n">
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
         <v>492.3</v>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E95" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3436,7 +3540,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1728434359-fonte-carregador-automotivo-jfa-60a-redline-110220v-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddcd48ac3-02bf-4b5b-a319-c6f6854222fd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1728434359-fonte-carregador-automotivo-jfa-60a-redline-110220v-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D421ec75d-e007-4204-864a-2abcc1090247</t>
         </is>
       </c>
     </row>
@@ -3446,15 +3550,19 @@
           <t>Fonte Caregador Jfa 60a Voltímetro/ Amp Redline Sci Bivolt</t>
         </is>
       </c>
-      <c r="B96" t="n">
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
         <v>525.87</v>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E96" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3467,7 +3575,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1728436916-fonte-caregador-jfa-60a-voltimetro-amp-redline-sci-bivolt-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddcd48ac3-02bf-4b5b-a319-c6f6854222fd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1728436916-fonte-caregador-jfa-60a-voltimetro-amp-redline-sci-bivolt-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D421ec75d-e007-4204-864a-2abcc1090247</t>
         </is>
       </c>
     </row>
@@ -3477,15 +3585,19 @@
           <t>Fonte Carregador Jfa Storm 200a Carga Lenta Motor Home</t>
         </is>
       </c>
-      <c r="B97" t="n">
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
         <v>939.86</v>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr"/>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E97" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3498,7 +3610,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174567593-fonte-carregador-jfa-storm-200a-carga-lenta-motor-home-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D17b59633-d008-438b-ae6f-3c0decb1c226</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2174567593-fonte-carregador-jfa-storm-200a-carga-lenta-motor-home-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D421ec75d-e007-4204-864a-2abcc1090247</t>
         </is>
       </c>
     </row>
@@ -3508,15 +3620,19 @@
           <t>Fonte Carregador Jfa 120a Caixa Bob Bivolt</t>
         </is>
       </c>
-      <c r="B98" t="n">
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
         <v>599.71</v>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E98" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3529,7 +3645,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2743232314-fonte-carregador-jfa-120a-caixa-bob-bivolt-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D17b59633-d008-438b-ae6f-3c0decb1c226</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2743232314-fonte-carregador-jfa-120a-caixa-bob-bivolt-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D421ec75d-e007-4204-864a-2abcc1090247</t>
         </is>
       </c>
     </row>
@@ -3539,13 +3655,13 @@
           <t>Melhor Fonte 70a Caixa Bob Jfa 70a Storm Lite 110/220v</t>
         </is>
       </c>
-      <c r="B99" t="n">
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
         <v>529.38</v>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
@@ -3560,7 +3676,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3312748981-melhor-fonte-70a-caixa-bob-jfa-70a-storm-lite-110220v-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D17b59633-d008-438b-ae6f-3c0decb1c226</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3312748981-melhor-fonte-70a-caixa-bob-jfa-70a-storm-lite-110220v-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D421ec75d-e007-4204-864a-2abcc1090247</t>
         </is>
       </c>
     </row>
@@ -3570,13 +3686,13 @@
           <t>Fonte Carregador Jfa 70a Storm Lite Bivolt P/ Caixa Bob</t>
         </is>
       </c>
-      <c r="B100" t="n">
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
         <v>529.38</v>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
@@ -3591,7 +3707,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3312773083-fonte-carregador-jfa-70a-storm-lite-bivolt-p-caixa-bob-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D17b59633-d008-438b-ae6f-3c0decb1c226</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3312773083-fonte-carregador-jfa-70a-storm-lite-bivolt-p-caixa-bob-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D421ec75d-e007-4204-864a-2abcc1090247</t>
         </is>
       </c>
     </row>
@@ -3601,14 +3717,14 @@
           <t>Fonte Automotiva Carregador 120a Jfa Voltímetro Original</t>
         </is>
       </c>
-      <c r="B101" t="n">
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D101" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -3626,7 +3742,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-961758073-fonte-automotiva-carregador-120a-jfa-voltimetro-original-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D17b59633-d008-438b-ae6f-3c0decb1c226</t>
+          <t>https://produto.mercadolivre.com.br/MLB-961758073-fonte-automotiva-carregador-120a-jfa-voltimetro-original-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D421ec75d-e007-4204-864a-2abcc1090247</t>
         </is>
       </c>
     </row>
@@ -3636,15 +3752,19 @@
           <t>Fonte Carregador Automotiva 200 A Jfa Muito Forte</t>
         </is>
       </c>
-      <c r="B102" t="n">
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
         <v>939.86</v>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E102" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3657,7 +3777,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-982208051-fonte-carregador-automotiva-200-a-jfa-muito-forte-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D17b59633-d008-438b-ae6f-3c0decb1c226</t>
+          <t>https://produto.mercadolivre.com.br/MLB-982208051-fonte-carregador-automotiva-200-a-jfa-muito-forte-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D421ec75d-e007-4204-864a-2abcc1090247</t>
         </is>
       </c>
     </row>
@@ -3667,15 +3787,19 @@
           <t>Fonte Carregador Jfa 70a Slim Mais Forte Que 60a Azul</t>
         </is>
       </c>
-      <c r="B103" t="n">
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
         <v>581.8200000000001</v>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E103" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3688,7 +3812,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474159062-fonte-carregador-jfa-70a-slim-mais-forte-que-60a-azul-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D17b59633-d008-438b-ae6f-3c0decb1c226</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1474159062-fonte-carregador-jfa-70a-slim-mais-forte-que-60a-azul-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D421ec75d-e007-4204-864a-2abcc1090247</t>
         </is>
       </c>
     </row>
@@ -3698,15 +3822,19 @@
           <t>Fonte Carregador Jfa 60a Redline Red Line Smart Cooler</t>
         </is>
       </c>
-      <c r="B104" t="n">
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
         <v>492.3</v>
       </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E104" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3719,7 +3847,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1983201489-fonte-carregador-jfa-60a-redline-red-line-smart-cooler-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D17b59633-d008-438b-ae6f-3c0decb1c226</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1983201489-fonte-carregador-jfa-60a-redline-red-line-smart-cooler-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D421ec75d-e007-4204-864a-2abcc1090247</t>
         </is>
       </c>
     </row>
@@ -3729,15 +3857,19 @@
           <t>Fonte Automotiva 200 Amperes Jfa Storm Redline Cca Sci Smart</t>
         </is>
       </c>
-      <c r="B105" t="n">
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
         <v>895.1</v>
       </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E105" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3750,7 +3882,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174561637-fonte-automotiva-200-amperes-jfa-storm-redline-cca-sci-smart-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D17b59633-d008-438b-ae6f-3c0decb1c226</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2174561637-fonte-automotiva-200-amperes-jfa-storm-redline-cca-sci-smart-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D79e219b8-dcbd-4d14-807f-611080f0772c</t>
         </is>
       </c>
     </row>
@@ -3760,15 +3892,19 @@
           <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático</t>
         </is>
       </c>
-      <c r="B106" t="n">
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
         <v>492.3</v>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E106" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3781,7 +3917,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2927430679-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab2ca0bc-da7a-423e-ac3f-0d8222080798</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2927430679-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D79e219b8-dcbd-4d14-807f-611080f0772c</t>
         </is>
       </c>
     </row>
@@ -3791,15 +3927,19 @@
           <t>Fonte Jfa Para Caixa Bob Esponja Storm 200a Bivolt Forte</t>
         </is>
       </c>
-      <c r="B107" t="n">
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
         <v>772.02</v>
       </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E107" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3812,7 +3952,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717124434-fonte-jfa-para-caixa-bob-esponja-storm-200a-bivolt-forte-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab2ca0bc-da7a-423e-ac3f-0d8222080798</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717124434-fonte-jfa-para-caixa-bob-esponja-storm-200a-bivolt-forte-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D79e219b8-dcbd-4d14-807f-611080f0772c</t>
         </is>
       </c>
     </row>
@@ -3822,15 +3962,19 @@
           <t>Fonte Carregador Jfa 90a Para Caixa Som Bob Bivolt Slim</t>
         </is>
       </c>
-      <c r="B108" t="n">
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
         <v>492.3</v>
       </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr"/>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E108" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3843,7 +3987,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2927505070-fonte-carregador-jfa-90a-para-caixa-som-bob-bivolt-slim-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab2ca0bc-da7a-423e-ac3f-0d8222080798</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2927505070-fonte-carregador-jfa-90a-para-caixa-som-bob-bivolt-slim-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D79e219b8-dcbd-4d14-807f-611080f0772c</t>
         </is>
       </c>
     </row>
@@ -3853,13 +3997,13 @@
           <t>Controle Universal Longa Jfa K1200 Preto C/ Laranja Original</t>
         </is>
       </c>
-      <c r="B109" t="n">
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
         <v>61.19</v>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
@@ -3874,7 +4018,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3306061097-controle-universal-longa-jfa-k1200-preto-c-laranja-original-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab2ca0bc-da7a-423e-ac3f-0d8222080798</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3306061097-controle-universal-longa-jfa-k1200-preto-c-laranja-original-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D79e219b8-dcbd-4d14-807f-611080f0772c</t>
         </is>
       </c>
     </row>
@@ -3884,13 +4028,13 @@
           <t>Controle Longa Jfa K600 Preto Laranja + Central Universal</t>
         </is>
       </c>
-      <c r="B110" t="n">
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
         <v>59.9</v>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
@@ -3905,7 +4049,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3311456007-controle-longa-jfa-k600-preto-laranja-central-universal-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab2ca0bc-da7a-423e-ac3f-0d8222080798</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3311456007-controle-longa-jfa-k600-preto-laranja-central-universal-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D79e219b8-dcbd-4d14-807f-611080f0772c</t>
         </is>
       </c>
     </row>
@@ -3915,13 +4059,13 @@
           <t>Controle Universal Longa Jfa K600 Preto Laranja Modo Aprende</t>
         </is>
       </c>
-      <c r="B111" t="n">
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
         <v>54.99</v>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
@@ -3936,7 +4080,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3311467587-controle-universal-longa-jfa-k600-preto-laranja-modo-aprende-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab2ca0bc-da7a-423e-ac3f-0d8222080798</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3311467587-controle-universal-longa-jfa-k600-preto-laranja-modo-aprende-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D79e219b8-dcbd-4d14-807f-611080f0772c</t>
         </is>
       </c>
     </row>
@@ -3946,15 +4090,19 @@
           <t>Nova Fonte Carregador Jfa Storm Lite 70a Bivolt</t>
         </is>
       </c>
-      <c r="B112" t="n">
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
         <v>529.38</v>
       </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E112" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3967,7 +4115,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3312740317-nova-fonte-carregador-jfa-storm-lite-70a-bivolt-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab2ca0bc-da7a-423e-ac3f-0d8222080798</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3312740317-nova-fonte-carregador-jfa-storm-lite-70a-bivolt-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D79e219b8-dcbd-4d14-807f-611080f0772c</t>
         </is>
       </c>
     </row>
@@ -3977,13 +4125,13 @@
           <t>Controle Longa Distância Jfa K600 + Central Branco Cinza</t>
         </is>
       </c>
-      <c r="B113" t="n">
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
         <v>59.9</v>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
@@ -3998,7 +4146,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-960910241-controle-longa-distncia-jfa-k600-central-branco-cinza-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab2ca0bc-da7a-423e-ac3f-0d8222080798</t>
+          <t>https://produto.mercadolivre.com.br/MLB-960910241-controle-longa-distncia-jfa-k600-central-branco-cinza-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D79e219b8-dcbd-4d14-807f-611080f0772c</t>
         </is>
       </c>
     </row>
@@ -4008,13 +4156,13 @@
           <t>Controle Longa Distância Jfa K600 + Central Cor Preto Verde</t>
         </is>
       </c>
-      <c r="B114" t="n">
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
         <v>59.9</v>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
@@ -4029,7 +4177,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-960924431-controle-longa-distncia-jfa-k600-central-cor-preto-verde-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab2ca0bc-da7a-423e-ac3f-0d8222080798</t>
+          <t>https://produto.mercadolivre.com.br/MLB-960924431-controle-longa-distncia-jfa-k600-central-cor-preto-verde-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D79e219b8-dcbd-4d14-807f-611080f0772c</t>
         </is>
       </c>
     </row>
@@ -4039,15 +4187,19 @@
           <t>Fonte Automotiva Jfa 200a Slim Bivolt Voltímetro Digital Som Full</t>
         </is>
       </c>
-      <c r="B115" t="n">
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
         <v>895.1</v>
       </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr"/>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E115" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4060,7 +4212,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1182763841-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-full-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab2ca0bc-da7a-423e-ac3f-0d8222080798</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1182763841-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-full-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D79e219b8-dcbd-4d14-807f-611080f0772c</t>
         </is>
       </c>
     </row>
@@ -4070,14 +4222,14 @@
           <t>Fonte Automotiva 120a Jfa Carregador Slim Oferta Pro</t>
         </is>
       </c>
-      <c r="B116" t="n">
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
         <v>634.4</v>
       </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D116" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -4095,7 +4247,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237795152-fonte-automotiva-120a-jfa-carregador-slim-oferta-pro-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab2ca0bc-da7a-423e-ac3f-0d8222080798</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237795152-fonte-automotiva-120a-jfa-carregador-slim-oferta-pro-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D79e219b8-dcbd-4d14-807f-611080f0772c</t>
         </is>
       </c>
     </row>
@@ -4105,14 +4257,14 @@
           <t>Fonte Carregador 120 A Jfa Com Sistema Sci Volt/amp</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
         <v>634.4</v>
       </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D117" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -4130,7 +4282,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1311934454-fonte-carregador-120-a-jfa-com-sistema-sci-voltamp-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab2ca0bc-da7a-423e-ac3f-0d8222080798</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1311934454-fonte-carregador-120-a-jfa-com-sistema-sci-voltamp-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D79e219b8-dcbd-4d14-807f-611080f0772c</t>
         </is>
       </c>
     </row>
@@ -4140,15 +4292,19 @@
           <t>Jfa K600 - Combo 10 Peças Longa Distancia Cores Variadas</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
         <v>699</v>
       </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr"/>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E118" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4161,7 +4317,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465449338-jfa-k600-combo-10-pecas-longa-distancia-cores-variadas-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab2ca0bc-da7a-423e-ac3f-0d8222080798</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1465449338-jfa-k600-combo-10-pecas-longa-distancia-cores-variadas-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D79e219b8-dcbd-4d14-807f-611080f0772c</t>
         </is>
       </c>
     </row>
@@ -4171,15 +4327,19 @@
           <t>Jfa K600 - Combo 10 Peças Longa Distancia Cores Variadas</t>
         </is>
       </c>
-      <c r="B119" t="n">
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
         <v>679</v>
       </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E119" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4192,7 +4352,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465449501-jfa-k600-combo-10-pecas-longa-distancia-cores-variadas-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab2ca0bc-da7a-423e-ac3f-0d8222080798</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1465449501-jfa-k600-combo-10-pecas-longa-distancia-cores-variadas-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D79e219b8-dcbd-4d14-807f-611080f0772c</t>
         </is>
       </c>
     </row>
@@ -4202,15 +4362,19 @@
           <t>Fonte Automotiva Jfa 60a Slim Azul Bivolt Voltímetro Digital</t>
         </is>
       </c>
-      <c r="B120" t="n">
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
         <v>525.87</v>
       </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E120" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4223,7 +4387,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474104428-fonte-automotiva-jfa-60a-slim-azul-bivolt-voltimetro-digital-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab2ca0bc-da7a-423e-ac3f-0d8222080798</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1474104428-fonte-automotiva-jfa-60a-slim-azul-bivolt-voltimetro-digital-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D79e219b8-dcbd-4d14-807f-611080f0772c</t>
         </is>
       </c>
     </row>
@@ -4233,15 +4397,19 @@
           <t>Carregador Bateria Jfa 60a Slim Bivolt 2020 Azul</t>
         </is>
       </c>
-      <c r="B121" t="n">
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
         <v>492.3</v>
       </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr"/>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E121" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4254,7 +4422,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474108361-carregador-bateria-jfa-60a-slim-bivolt-2020-azul-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab2ca0bc-da7a-423e-ac3f-0d8222080798</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1474108361-carregador-bateria-jfa-60a-slim-bivolt-2020-azul-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D79e219b8-dcbd-4d14-807f-611080f0772c</t>
         </is>
       </c>
     </row>
@@ -4264,15 +4432,19 @@
           <t>Fonte Carregador Para Sistema Solar Jfa 70a Bivolt</t>
         </is>
       </c>
-      <c r="B122" t="n">
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
         <v>581.8200000000001</v>
       </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr"/>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E122" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4285,7 +4457,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474159284-fonte-carregador-para-sistema-solar-jfa-70a-bivolt-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab2ca0bc-da7a-423e-ac3f-0d8222080798</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1474159284-fonte-carregador-para-sistema-solar-jfa-70a-bivolt-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D79e219b8-dcbd-4d14-807f-611080f0772c</t>
         </is>
       </c>
     </row>
@@ -4295,13 +4467,13 @@
           <t>Controle De Suspensão Ar Jfa Air Control  Castor Tebão</t>
         </is>
       </c>
-      <c r="B123" t="n">
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
         <v>209</v>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
@@ -4316,7 +4488,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1814404764-controle-de-suspenso-ar-jfa-air-control-castor-tebo-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab2ca0bc-da7a-423e-ac3f-0d8222080798</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1814404764-controle-de-suspenso-ar-jfa-air-control-castor-tebo-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3965f9a2-8fa1-4c9e-9e0f-94295fe9e7e4</t>
         </is>
       </c>
     </row>
@@ -4326,15 +4498,19 @@
           <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
         </is>
       </c>
-      <c r="B124" t="n">
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
         <v>581.8099999999999</v>
       </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr"/>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E124" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4347,23 +4523,23 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164486789-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8ad037be-6012-4389-b253-a126e61cb6b1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164486789-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3965f9a2-8fa1-4c9e-9e0f-94295fe9e7e4</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 90a Para Caixa Som Bob Bivolt Slim</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>469.92</v>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Fonte Carregador Jfa 70a Storm Lite Bivolt P/ Caixa Bob</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>498.08</v>
       </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
@@ -4378,25 +4554,29 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2927387667-fonte-carregador-jfa-90a-para-caixa-som-bob-bivolt-slim-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8ad037be-6012-4389-b253-a126e61cb6b1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3312798569-fonte-carregador-jfa-70a-storm-lite-bivolt-p-caixa-bob-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3965f9a2-8fa1-4c9e-9e0f-94295fe9e7e4</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Storm Lite Bivolt P/ Caixa Bob</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>498.08</v>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr"/>
+          <t>Nova Fonte Carregador Jfa Storm Lite 200a Bivolt</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>681.83</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E126" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4409,29 +4589,25 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3312798569-fonte-carregador-jfa-70a-storm-lite-bivolt-p-caixa-bob-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8ad037be-6012-4389-b253-a126e61cb6b1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3312850317-nova-fonte-carregador-jfa-storm-lite-200a-bivolt-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3965f9a2-8fa1-4c9e-9e0f-94295fe9e7e4</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Nova Fonte Carregador Jfa Storm Lite 200a Bivolt</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>681.83</v>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Controle Longa Jfa K600 Preto Laranja + Central Universal</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>54.99</v>
+      </c>
+      <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4444,25 +4620,29 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3312850317-nova-fonte-carregador-jfa-storm-lite-200a-bivolt-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8ad037be-6012-4389-b253-a126e61cb6b1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3597180890-controle-longa-jfa-k600-preto-laranja-central-universal-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3965f9a2-8fa1-4c9e-9e0f-94295fe9e7e4</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Controle Longa Jfa K600 Preto Laranja + Central Universal</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>54.99</v>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr"/>
+          <t>Fonte Carregador Automotivo Jfa 120a Sci Redline Bivolt Som</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>674.6799999999999</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E128" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4470,28 +4650,28 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3597180890-controle-longa-jfa-k600-preto-laranja-central-universal-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8ad037be-6012-4389-b253-a126e61cb6b1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1305190815-fonte-carregador-automotivo-jfa-120a-sci-redline-bivolt-som-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3965f9a2-8fa1-4c9e-9e0f-94295fe9e7e4</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Sci Redline Bivolt Som</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>674.6799999999999</v>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
+          <t>Fonte Automotiva Jfa 200a Redline Digital Sci Pwm Eae Bivolt</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>845.87</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -4510,27 +4690,27 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305190815-fonte-carregador-automotivo-jfa-120a-sci-redline-bivolt-som-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8ad037be-6012-4389-b253-a126e61cb6b1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1305219292-fonte-automotiva-jfa-200a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3965f9a2-8fa1-4c9e-9e0f-94295fe9e7e4</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a Redline Digital Sci Pwm Eae Bivolt</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>845.87</v>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
+          <t>Fonte Carregador Jfa 70a Digital Sci Bivolt Volt Amp Full</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>581.8200000000001</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -4545,25 +4725,29 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305219292-fonte-automotiva-jfa-200a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8ad037be-6012-4389-b253-a126e61cb6b1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1309055784-fonte-carregador-jfa-70a-digital-sci-bivolt-volt-amp-full-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3965f9a2-8fa1-4c9e-9e0f-94295fe9e7e4</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Digital Sci Bivolt Volt Amp Full</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>581.8200000000001</v>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr"/>
+          <t>Fonte Carregador Jfa 120 Amperes Sci Redline Digital Bivolt</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>634.4</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E131" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4571,32 +4755,32 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1309055784-fonte-carregador-jfa-70a-digital-sci-bivolt-volt-amp-full-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8ad037be-6012-4389-b253-a126e61cb6b1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1305191761-fonte-carregador-jfa-120-amperes-sci-redline-digital-bivolt-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3965f9a2-8fa1-4c9e-9e0f-94295fe9e7e4</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120 Amperes Sci Redline Digital Bivolt</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>634.4</v>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
+          <t>Jfa K600 - Combo 5 Peças Longa Distancia Cores Variadas</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>359</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -4606,12 +4790,12 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305191761-fonte-carregador-jfa-120-amperes-sci-redline-digital-bivolt-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8ad037be-6012-4389-b253-a126e61cb6b1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1465466670-jfa-k600-combo-5-pecas-longa-distancia-cores-variadas-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3965f9a2-8fa1-4c9e-9e0f-94295fe9e7e4</t>
         </is>
       </c>
     </row>
@@ -4621,15 +4805,19 @@
           <t>Carregador Bateria Estacionaria Jfa 60a Slim Bivolt Azul</t>
         </is>
       </c>
-      <c r="B133" t="n">
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
         <v>492.3</v>
       </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr"/>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E133" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4642,7 +4830,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474108881-carregador-bateria-estacionaria-jfa-60a-slim-bivolt-azul-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8ad037be-6012-4389-b253-a126e61cb6b1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1474108881-carregador-bateria-estacionaria-jfa-60a-slim-bivolt-azul-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9d6475f0-48dc-49a3-993c-5694e62c8747</t>
         </is>
       </c>
     </row>
@@ -4652,14 +4840,14 @@
           <t>Fonte Automotiva Jfa 120a Redline Digital Sci Pwm Eae Bivolt</t>
         </is>
       </c>
-      <c r="B134" t="n">
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D134" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -4677,7 +4865,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1728434390-fonte-automotiva-jfa-120a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0eaca8ed-3b2d-45fd-8039-c6b49ecc2c1b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1728434390-fonte-automotiva-jfa-120a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9d6475f0-48dc-49a3-993c-5694e62c8747</t>
         </is>
       </c>
     </row>
@@ -4687,14 +4875,14 @@
           <t>Fonte Carregador Jfa 120a Storm Bivolt Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B135" t="n">
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
         <v>634.4</v>
       </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D135" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -4712,7 +4900,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2161596310-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0eaca8ed-3b2d-45fd-8039-c6b49ecc2c1b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2161596310-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9d6475f0-48dc-49a3-993c-5694e62c8747</t>
         </is>
       </c>
     </row>
@@ -4722,15 +4910,19 @@
           <t>Fonte Carregador Jfa Storm 200a Bivolt 14,4v Sci Medidor Cca</t>
         </is>
       </c>
-      <c r="B136" t="n">
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
         <v>939.86</v>
       </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr"/>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E136" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4743,7 +4935,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174579586-fonte-carregador-jfa-storm-200a-bivolt-144v-sci-medidor-cca-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0eaca8ed-3b2d-45fd-8039-c6b49ecc2c1b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2174579586-fonte-carregador-jfa-storm-200a-bivolt-144v-sci-medidor-cca-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9d6475f0-48dc-49a3-993c-5694e62c8747</t>
         </is>
       </c>
     </row>
@@ -4753,15 +4945,19 @@
           <t>Fonte Carregador Jfa 120a Storm Bivolt P/ Caixa Bob</t>
         </is>
       </c>
-      <c r="B137" t="n">
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr"/>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E137" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4774,7 +4970,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2161622734-fonte-carregador-jfa-120a-storm-bivolt-p-caixa-bob-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0eaca8ed-3b2d-45fd-8039-c6b49ecc2c1b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2161622734-fonte-carregador-jfa-120a-storm-bivolt-p-caixa-bob-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9d6475f0-48dc-49a3-993c-5694e62c8747</t>
         </is>
       </c>
     </row>
@@ -4784,15 +4980,19 @@
           <t>Fonte Jfa Storm 200a Bob Carregador Automático Bivolt</t>
         </is>
       </c>
-      <c r="B138" t="n">
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
         <v>772.02</v>
       </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E138" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4805,7 +5005,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717157623-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0eaca8ed-3b2d-45fd-8039-c6b49ecc2c1b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717157623-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9d6475f0-48dc-49a3-993c-5694e62c8747</t>
         </is>
       </c>
     </row>
@@ -4815,13 +5015,13 @@
           <t>Controle Longa Distância Jfa K1200 Resistente A Água Branco</t>
         </is>
       </c>
-      <c r="B139" t="n">
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
         <v>87.90000000000001</v>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
@@ -4836,7 +5036,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724231242-controle-longa-distncia-jfa-k1200-resistente-a-agua-branco-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0eaca8ed-3b2d-45fd-8039-c6b49ecc2c1b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2724231242-controle-longa-distncia-jfa-k1200-resistente-a-agua-branco-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9d6475f0-48dc-49a3-993c-5694e62c8747</t>
         </is>
       </c>
     </row>
@@ -4846,15 +5046,19 @@
           <t>Fonte P/caixa Bob Jfa Storm 200a Bivolt 3800w Sem Bateria</t>
         </is>
       </c>
-      <c r="B140" t="n">
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
         <v>693.7</v>
       </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr"/>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E140" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4867,25 +5071,29 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717191956-fonte-pcaixa-bob-jfa-storm-200a-bivolt-3800w-sem-bateria-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0eaca8ed-3b2d-45fd-8039-c6b49ecc2c1b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717191956-fonte-pcaixa-bob-jfa-storm-200a-bivolt-3800w-sem-bateria-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9d6475f0-48dc-49a3-993c-5694e62c8747</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Lite Bivolt Sci Black Friday</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>498.08</v>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr"/>
+          <t>Fonte Carregador Jfa 90a Para Caixa Som Bob Bivolt Slim</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>469.92</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E141" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4898,25 +5106,29 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3312751719-fonte-carregador-jfa-70a-lite-bivolt-sci-black-friday-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Debfde714-1f31-4606-80f7-e06b463e8970</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2927387667-fonte-carregador-jfa-90a-para-caixa-som-bob-bivolt-slim-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D009fa19b-78e0-45c9-8332-5d1fe3ab901a</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Nova Fonte Carregador Jfa Storm Lite 70a Bivolt</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
+          <t>Fonte Carregador Jfa 70a Lite Bivolt Sci Black Friday</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
         <v>498.08</v>
       </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr"/>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E142" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4929,25 +5141,29 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3312781899-nova-fonte-carregador-jfa-storm-lite-70a-bivolt-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Debfde714-1f31-4606-80f7-e06b463e8970</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3312751719-fonte-carregador-jfa-70a-lite-bivolt-sci-black-friday-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D009fa19b-78e0-45c9-8332-5d1fe3ab901a</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Controle Longa Jfa K600 Preto / Verde + Central Universal</t>
-        </is>
-      </c>
-      <c r="B143" t="n">
-        <v>54.99</v>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr"/>
+          <t>Nova Fonte Carregador Jfa Storm Lite 70a Bivolt</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>498.08</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E143" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4960,23 +5176,23 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3597035906-controle-longa-jfa-k600-preto-verde-central-universal-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Debfde714-1f31-4606-80f7-e06b463e8970</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3312781899-nova-fonte-carregador-jfa-storm-lite-70a-bivolt-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D009fa19b-78e0-45c9-8332-5d1fe3ab901a</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Controle Longa Jfa K600 Preto / Verde + Central Universal</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>54.99</v>
       </c>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
@@ -4986,28 +5202,28 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1043231984-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Debfde714-1f31-4606-80f7-e06b463e8970</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3597035906-controle-longa-jfa-k600-preto-verde-central-universal-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D009fa19b-78e0-45c9-8332-5d1fe3ab901a</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200 Amperes Sci Mais Forte Do Brasil</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>895.1</v>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>64.90000000000001</v>
       </c>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
@@ -5017,32 +5233,32 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1182760121-fonte-carregador-jfa-200-amperes-sci-mais-forte-do-brasil-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Debfde714-1f31-4606-80f7-e06b463e8970</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1043231984-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D009fa19b-78e0-45c9-8332-5d1fe3ab901a</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120 A Jfa Carregador Automatico Flutuação</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>634.4</v>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
+          <t>Fonte Carregador Jfa 200 Amperes Sci Mais Forte Do Brasil</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>895.1</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -5057,24 +5273,24 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237790650-fonte-automotiva-120-a-jfa-carregador-automatico-flutuaco-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Debfde714-1f31-4606-80f7-e06b463e8970</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1182760121-fonte-carregador-jfa-200-amperes-sci-mais-forte-do-brasil-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D009fa19b-78e0-45c9-8332-5d1fe3ab901a</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Jfa Carregador Slim Oferta Som</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
+          <t>Fonte Automotiva 120 A Jfa Carregador Automatico Flutuação</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
         <v>634.4</v>
       </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D147" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -5092,24 +5308,24 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237791592-fonte-automotiva-120a-jfa-carregador-slim-oferta-som-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Debfde714-1f31-4606-80f7-e06b463e8970</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237790650-fonte-automotiva-120-a-jfa-carregador-automatico-flutuaco-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D009fa19b-78e0-45c9-8332-5d1fe3ab901a</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Carregador Bateria Inteligente Jfa 120a Sci Muito Forte</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
+          <t>Fonte Automotiva 120a Jfa Carregador Slim Oferta Som</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
         <v>634.4</v>
       </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D148" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -5127,23 +5343,23 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237799962-carregador-bateria-inteligente-jfa-120a-sci-muito-forte-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Debfde714-1f31-4606-80f7-e06b463e8970</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237791592-fonte-automotiva-120a-jfa-carregador-slim-oferta-som-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D009fa19b-78e0-45c9-8332-5d1fe3ab901a</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120 Amperes Sci Red Line Volt/amp</t>
-        </is>
-      </c>
-      <c r="B149" t="n">
-        <v>674.6799999999999</v>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
+          <t>Carregador Bateria Inteligente Jfa 120a Sci Muito Forte</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>634.4</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -5157,29 +5373,29 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305194787-fonte-carregador-jfa-120-amperes-sci-red-line-voltamp-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Debfde714-1f31-4606-80f7-e06b463e8970</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237799962-carregador-bateria-inteligente-jfa-120a-sci-muito-forte-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D009fa19b-78e0-45c9-8332-5d1fe3ab901a</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120 A Jfa Carregador Com Sistema Sci</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
+          <t>Fonte Carregador Jfa 120 Amperes Sci Red Line Volt/amp</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D150" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -5197,7 +5413,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1311934359-fonte-automotiva-120-a-jfa-carregador-com-sistema-sci-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Debfde714-1f31-4606-80f7-e06b463e8970</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1305194787-fonte-carregador-jfa-120-amperes-sci-red-line-voltamp-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D009fa19b-78e0-45c9-8332-5d1fe3ab901a</t>
         </is>
       </c>
     </row>
@@ -5207,13 +5423,13 @@
           <t>Fonte Automotiva 120 A Jfa Carregador Com Sistema Sci</t>
         </is>
       </c>
-      <c r="B151" t="n">
-        <v>634.4</v>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>674.6799999999999</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -5227,30 +5443,34 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1311934391-fonte-automotiva-120-a-jfa-carregador-com-sistema-sci-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Debfde714-1f31-4606-80f7-e06b463e8970</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1311934359-fonte-automotiva-120-a-jfa-carregador-com-sistema-sci-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D009fa19b-78e0-45c9-8332-5d1fe3ab901a</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Jfa K600 - Combo 5 Peças Longa Distancia Cores Variadas</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>359</v>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr"/>
+          <t>Fonte Automotiva 120 A Jfa Carregador Com Sistema Sci</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>634.4</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E152" t="inlineStr">
         <is>
           <t>NA</t>
@@ -5258,12 +5478,12 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465466670-jfa-k600-combo-5-pecas-longa-distancia-cores-variadas-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Debfde714-1f31-4606-80f7-e06b463e8970</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1311934391-fonte-automotiva-120-a-jfa-carregador-com-sistema-sci-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D009fa19b-78e0-45c9-8332-5d1fe3ab901a</t>
         </is>
       </c>
     </row>
@@ -5273,13 +5493,13 @@
           <t>Controle K600 Jfa Preto Cinza Mais Barato Do Brasil</t>
         </is>
       </c>
-      <c r="B153" t="n">
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
         <v>59.9</v>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr">
@@ -5294,7 +5514,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465514137-controle-k600-jfa-preto-cinza-mais-barato-do-brasil-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Debfde714-1f31-4606-80f7-e06b463e8970</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1465514137-controle-k600-jfa-preto-cinza-mais-barato-do-brasil-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D009fa19b-78e0-45c9-8332-5d1fe3ab901a</t>
         </is>
       </c>
     </row>
@@ -5304,13 +5524,13 @@
           <t>Controle K600 Jfa Preto Cinza Mais Barato Do Brasil</t>
         </is>
       </c>
-      <c r="B154" t="n">
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
         <v>54.99</v>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr">
@@ -5325,7 +5545,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465520187-controle-k600-jfa-preto-cinza-mais-barato-do-brasil-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Debfde714-1f31-4606-80f7-e06b463e8970</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1465520187-controle-k600-jfa-preto-cinza-mais-barato-do-brasil-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D009fa19b-78e0-45c9-8332-5d1fe3ab901a</t>
         </is>
       </c>
     </row>
@@ -5335,15 +5555,19 @@
           <t>Carregador Bateria Jfa 60a Slim Bivolt 2020 Azul</t>
         </is>
       </c>
-      <c r="B155" t="n">
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
         <v>525.87</v>
       </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr"/>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E155" t="inlineStr">
         <is>
           <t>NA</t>
@@ -5356,7 +5580,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474104464-carregador-bateria-jfa-60a-slim-bivolt-2020-azul-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Debfde714-1f31-4606-80f7-e06b463e8970</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1474104464-carregador-bateria-jfa-60a-slim-bivolt-2020-azul-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D009fa19b-78e0-45c9-8332-5d1fe3ab901a</t>
         </is>
       </c>
     </row>
@@ -5366,15 +5590,19 @@
           <t xml:space="preserve">Fonte Automotiva Jfa 60a Slim Azul Bivolt Voltímetro </t>
         </is>
       </c>
-      <c r="B156" t="n">
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
         <v>492.3</v>
       </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr"/>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E156" t="inlineStr">
         <is>
           <t>NA</t>
@@ -5387,7 +5615,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474108318-fonte-automotiva-jfa-60a-slim-azul-bivolt-voltimetro-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Debfde714-1f31-4606-80f7-e06b463e8970</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1474108318-fonte-automotiva-jfa-60a-slim-azul-bivolt-voltimetro-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D009fa19b-78e0-45c9-8332-5d1fe3ab901a</t>
         </is>
       </c>
     </row>
@@ -5397,15 +5625,19 @@
           <t>Fonte Carregador Automotivo Jfa 60a Red Line</t>
         </is>
       </c>
-      <c r="B157" t="n">
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
         <v>525.87</v>
       </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr"/>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E157" t="inlineStr">
         <is>
           <t>NA</t>
@@ -5418,7 +5650,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1983190199-fonte-carregador-automotivo-jfa-60a-red-line-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D285cd411-ca89-4d06-a987-f3402ef1cecf</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1983190199-fonte-carregador-automotivo-jfa-60a-red-line-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db8ab99d9-042e-457c-9f10-4c862bb51a42</t>
         </is>
       </c>
     </row>
@@ -5428,15 +5660,19 @@
           <t>Fonte Carregador Automotivo Jfa 60a Redline Slim</t>
         </is>
       </c>
-      <c r="B158" t="n">
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
         <v>525.87</v>
       </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr"/>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E158" t="inlineStr">
         <is>
           <t>NA</t>
@@ -5449,7 +5685,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1983200722-fonte-carregador-automotivo-jfa-60a-redline-slim-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D285cd411-ca89-4d06-a987-f3402ef1cecf</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1983200722-fonte-carregador-automotivo-jfa-60a-redline-slim-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db8ab99d9-042e-457c-9f10-4c862bb51a42</t>
         </is>
       </c>
     </row>
@@ -5459,15 +5695,19 @@
           <t>Fonte Automotiva Storm Jfa 60a Multifunção Inteligente Slim</t>
         </is>
       </c>
-      <c r="B159" t="n">
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
         <v>492.3</v>
       </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr"/>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E159" t="inlineStr">
         <is>
           <t>NA</t>
@@ -5480,7 +5720,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164385868-fonte-automotiva-storm-jfa-60a-multifunco-inteligente-slim-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D285cd411-ca89-4d06-a987-f3402ef1cecf</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164385868-fonte-automotiva-storm-jfa-60a-multifunco-inteligente-slim-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db8ab99d9-042e-457c-9f10-4c862bb51a42</t>
         </is>
       </c>
     </row>
@@ -5490,15 +5730,19 @@
           <t>Fonte Carregador Jfa Storm 70a Bivolt 14,4v Sci Medidor Cca</t>
         </is>
       </c>
-      <c r="B160" t="n">
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
         <v>548.24</v>
       </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr"/>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E160" t="inlineStr">
         <is>
           <t>NA</t>
@@ -5511,7 +5755,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164480847-fonte-carregador-jfa-storm-70a-bivolt-144v-sci-medidor-cca-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D285cd411-ca89-4d06-a987-f3402ef1cecf</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164480847-fonte-carregador-jfa-storm-70a-bivolt-144v-sci-medidor-cca-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db8ab99d9-042e-457c-9f10-4c862bb51a42</t>
         </is>
       </c>
     </row>
@@ -5521,15 +5765,19 @@
           <t>Fonte Carregador Jfa Storm 200a Bivolt 14,4v Sci Medidor Cca</t>
         </is>
       </c>
-      <c r="B161" t="n">
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
         <v>895.1</v>
       </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr"/>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E161" t="inlineStr">
         <is>
           <t>NA</t>
@@ -5542,7 +5790,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174554157-fonte-carregador-jfa-storm-200a-bivolt-144v-sci-medidor-cca-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D285cd411-ca89-4d06-a987-f3402ef1cecf</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2174554157-fonte-carregador-jfa-storm-200a-bivolt-144v-sci-medidor-cca-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dabed3ded-4e6c-4d99-a297-a2749b5ff9ec</t>
         </is>
       </c>
     </row>
@@ -5552,15 +5800,19 @@
           <t>Carregador Jfa Storm 60a 14,4v Mais Completa Smart Cca Sci</t>
         </is>
       </c>
-      <c r="B162" t="n">
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
         <v>525.87</v>
       </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr"/>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E162" t="inlineStr">
         <is>
           <t>NA</t>
@@ -5573,7 +5825,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164392561-carregador-jfa-storm-60a-144v-mais-completa-smart-cca-sci-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D285cd411-ca89-4d06-a987-f3402ef1cecf</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164392561-carregador-jfa-storm-60a-144v-mais-completa-smart-cca-sci-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dabed3ded-4e6c-4d99-a297-a2749b5ff9ec</t>
         </is>
       </c>
     </row>
@@ -5583,15 +5835,19 @@
           <t>Carregador Jfa Storm 200a 14,4v Mais Completa Smart Cca Sci</t>
         </is>
       </c>
-      <c r="B163" t="n">
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
         <v>939.86</v>
       </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr"/>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E163" t="inlineStr">
         <is>
           <t>NA</t>
@@ -5604,7 +5860,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174560779-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-sci-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd58839ee-f92e-4bc5-b2df-2fa183f9fddb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2174560779-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-sci-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dabed3ded-4e6c-4d99-a297-a2749b5ff9ec</t>
         </is>
       </c>
     </row>
@@ -5614,15 +5870,19 @@
           <t>Fonte Jfa Storm 200a Com Medidor Cca Slim Bivolt Full</t>
         </is>
       </c>
-      <c r="B164" t="n">
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
         <v>895.1</v>
       </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr"/>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E164" t="inlineStr">
         <is>
           <t>NA</t>
@@ -5635,7 +5895,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174594277-fonte-jfa-storm-200a-com-medidor-cca-slim-bivolt-full-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd58839ee-f92e-4bc5-b2df-2fa183f9fddb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2174594277-fonte-jfa-storm-200a-com-medidor-cca-slim-bivolt-full-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dabed3ded-4e6c-4d99-a297-a2749b5ff9ec</t>
         </is>
       </c>
     </row>
@@ -5645,15 +5905,19 @@
           <t>Fonte Som Automotivo Carregador Jfa Bob Storm 200a Caixa Bob</t>
         </is>
       </c>
-      <c r="B165" t="n">
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
         <v>693.7</v>
       </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr"/>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E165" t="inlineStr">
         <is>
           <t>NA</t>
@@ -5666,7 +5930,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717118227-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd58839ee-f92e-4bc5-b2df-2fa183f9fddb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717118227-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dabed3ded-4e6c-4d99-a297-a2749b5ff9ec</t>
         </is>
       </c>
     </row>
@@ -5676,13 +5940,13 @@
           <t>Controle Longa Distancia Jfa K1200 Acqua Completo Top</t>
         </is>
       </c>
-      <c r="B166" t="n">
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
         <v>132.66</v>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr">
@@ -5697,7 +5961,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724100975-controle-longa-distancia-jfa-k1200-acqua-completo-top-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd58839ee-f92e-4bc5-b2df-2fa183f9fddb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2724100975-controle-longa-distancia-jfa-k1200-acqua-completo-top-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dabed3ded-4e6c-4d99-a297-a2749b5ff9ec</t>
         </is>
       </c>
     </row>
@@ -5707,15 +5971,19 @@
           <t>Fonte Som Automotivo Carregador Jfa Bob Storm 200a Caixa Bob</t>
         </is>
       </c>
-      <c r="B167" t="n">
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
         <v>772.02</v>
       </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr"/>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E167" t="inlineStr">
         <is>
           <t>NA</t>
@@ -5728,7 +5996,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717191674-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd58839ee-f92e-4bc5-b2df-2fa183f9fddb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717191674-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dabed3ded-4e6c-4d99-a297-a2749b5ff9ec</t>
         </is>
       </c>
     </row>
@@ -5738,15 +6006,19 @@
           <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático</t>
         </is>
       </c>
-      <c r="B168" t="n">
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
         <v>469.92</v>
       </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr"/>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E168" t="inlineStr">
         <is>
           <t>NA</t>
@@ -5759,7 +6031,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2927430625-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd58839ee-f92e-4bc5-b2df-2fa183f9fddb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2927430625-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dabed3ded-4e6c-4d99-a297-a2749b5ff9ec</t>
         </is>
       </c>
     </row>
@@ -5769,13 +6041,13 @@
           <t>Fonte Carregador Jfa Storm 200a Monovolt Flutuação Proteção</t>
         </is>
       </c>
-      <c r="B169" t="n">
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
         <v>818.46</v>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
       </c>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr">
@@ -5790,7 +6062,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3284198989-fonte-carregador-jfa-storm-200a-monovolt-flutuaco-proteco-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd58839ee-f92e-4bc5-b2df-2fa183f9fddb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3284198989-fonte-carregador-jfa-storm-200a-monovolt-flutuaco-proteco-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dabed3ded-4e6c-4d99-a297-a2749b5ff9ec</t>
         </is>
       </c>
     </row>
@@ -5800,13 +6072,13 @@
           <t>Controle Longa Jfa K600 Branco / Cinza + Central Universal</t>
         </is>
       </c>
-      <c r="B170" t="n">
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
         <v>54.99</v>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr">
@@ -5821,7 +6093,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3311513055-controle-longa-jfa-k600-branco-cinza-central-universal-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd58839ee-f92e-4bc5-b2df-2fa183f9fddb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3311513055-controle-longa-jfa-k600-branco-cinza-central-universal-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dabed3ded-4e6c-4d99-a297-a2749b5ff9ec</t>
         </is>
       </c>
     </row>
@@ -5831,13 +6103,13 @@
           <t>Carregador Jfa Storm 200a 14,4v Mais Completa Smart Cca 220v</t>
         </is>
       </c>
-      <c r="B171" t="n">
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
         <v>818.46</v>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
       </c>
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr">
@@ -5852,7 +6124,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3452365244-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-220v-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd58839ee-f92e-4bc5-b2df-2fa183f9fddb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3452365244-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-220v-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dabed3ded-4e6c-4d99-a297-a2749b5ff9ec</t>
         </is>
       </c>
     </row>
@@ -5862,13 +6134,13 @@
           <t>Controle Universal Longa Jfa K600 Preto/verde Modo Aprender</t>
         </is>
       </c>
-      <c r="B172" t="n">
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
         <v>54.99</v>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr">
@@ -5883,7 +6155,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3597021428-controle-universal-longa-jfa-k600-pretoverde-modo-aprender-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd58839ee-f92e-4bc5-b2df-2fa183f9fddb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3597021428-controle-universal-longa-jfa-k600-pretoverde-modo-aprender-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dabed3ded-4e6c-4d99-a297-a2749b5ff9ec</t>
         </is>
       </c>
     </row>
@@ -5893,13 +6165,13 @@
           <t>Controle Longa Jfa K600 Preto / Cinza + Central Universal</t>
         </is>
       </c>
-      <c r="B173" t="n">
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
         <v>54.99</v>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr">
@@ -5914,7 +6186,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3597227604-controle-longa-jfa-k600-preto-cinza-central-universal-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd58839ee-f92e-4bc5-b2df-2fa183f9fddb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3597227604-controle-longa-jfa-k600-preto-cinza-central-universal-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D69e77296-a58e-404a-9f3f-10edcf488b9d</t>
         </is>
       </c>
     </row>
@@ -5924,13 +6196,13 @@
           <t>Controle Universal Longa Jfa K600 Branco Cinza Modo Aprender</t>
         </is>
       </c>
-      <c r="B174" t="n">
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
         <v>54.99</v>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr">
@@ -5945,7 +6217,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3597532456-controle-universal-longa-jfa-k600-branco-cinza-modo-aprender-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd58839ee-f92e-4bc5-b2df-2fa183f9fddb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3597532456-controle-universal-longa-jfa-k600-branco-cinza-modo-aprender-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D69e77296-a58e-404a-9f3f-10edcf488b9d</t>
         </is>
       </c>
     </row>
@@ -5955,13 +6227,13 @@
           <t>Controle Universal Longa Jfa K600 Preto/verde Modo Aprender</t>
         </is>
       </c>
-      <c r="B175" t="n">
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
         <v>59.9</v>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr">
@@ -5976,7 +6248,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3597219948-controle-universal-longa-jfa-k600-pretoverde-modo-aprender-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd58839ee-f92e-4bc5-b2df-2fa183f9fddb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3597219948-controle-universal-longa-jfa-k600-pretoverde-modo-aprender-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D69e77296-a58e-404a-9f3f-10edcf488b9d</t>
         </is>
       </c>
     </row>
@@ -5986,13 +6258,13 @@
           <t>Controle Longa Jfa K600 Preto / Cinza + Central Universal</t>
         </is>
       </c>
-      <c r="B176" t="n">
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
         <v>59.9</v>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr">
@@ -6007,7 +6279,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3597377794-controle-longa-jfa-k600-preto-cinza-central-universal-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd58839ee-f92e-4bc5-b2df-2fa183f9fddb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3597377794-controle-longa-jfa-k600-preto-cinza-central-universal-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D69e77296-a58e-404a-9f3f-10edcf488b9d</t>
         </is>
       </c>
     </row>
@@ -6017,13 +6289,13 @@
           <t>Controle Longa Distância Jfa K600  Branco Cinza Full</t>
         </is>
       </c>
-      <c r="B177" t="n">
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
         <v>59.9</v>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr">
@@ -6038,7 +6310,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-960917927-controle-longa-distncia-jfa-k600-branco-cinza-full-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcbab0608-e2b6-4801-8fca-a81cb722aecc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-960917927-controle-longa-distncia-jfa-k600-branco-cinza-full-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D69e77296-a58e-404a-9f3f-10edcf488b9d</t>
         </is>
       </c>
     </row>
@@ -6048,13 +6320,13 @@
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
-      <c r="B178" t="n">
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
         <v>64.90000000000001</v>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr">
@@ -6069,7 +6341,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1043232285-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcbab0608-e2b6-4801-8fca-a81cb722aecc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1043232285-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D69e77296-a58e-404a-9f3f-10edcf488b9d</t>
         </is>
       </c>
     </row>
@@ -6079,14 +6351,14 @@
           <t>Fonte Automotiva 120 A Jfa Carregador Slim Modelo 2020</t>
         </is>
       </c>
-      <c r="B179" t="n">
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D179" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -6104,7 +6376,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237790625-fonte-automotiva-120-a-jfa-carregador-slim-modelo-2020-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcbab0608-e2b6-4801-8fca-a81cb722aecc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237790625-fonte-automotiva-120-a-jfa-carregador-slim-modelo-2020-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D69e77296-a58e-404a-9f3f-10edcf488b9d</t>
         </is>
       </c>
     </row>
@@ -6114,15 +6386,19 @@
           <t>Fonte Carregador Bateria Jfa 60a  Sci Redline</t>
         </is>
       </c>
-      <c r="B180" t="n">
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
         <v>492.3</v>
       </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr"/>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E180" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6135,7 +6411,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305130699-fonte-carregador-bateria-jfa-60a-sci-redline-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcbab0608-e2b6-4801-8fca-a81cb722aecc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1305130699-fonte-carregador-bateria-jfa-60a-sci-redline-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D69e77296-a58e-404a-9f3f-10edcf488b9d</t>
         </is>
       </c>
     </row>
@@ -6145,15 +6421,19 @@
           <t>Fonte Carregador Jfa 70a Azul Slim Mais Forte Que 60a</t>
         </is>
       </c>
-      <c r="B181" t="n">
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
         <v>548.24</v>
       </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr"/>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E181" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6166,7 +6446,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474159067-fonte-carregador-jfa-70a-azul-slim-mais-forte-que-60a-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcbab0608-e2b6-4801-8fca-a81cb722aecc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1474159067-fonte-carregador-jfa-70a-azul-slim-mais-forte-que-60a-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D69e77296-a58e-404a-9f3f-10edcf488b9d</t>
         </is>
       </c>
     </row>
@@ -6176,13 +6456,13 @@
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
-      <c r="B182" t="n">
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
         <v>61.19</v>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr">
@@ -6197,7 +6477,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1043232334-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcbab0608-e2b6-4801-8fca-a81cb722aecc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1043232334-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D69e77296-a58e-404a-9f3f-10edcf488b9d</t>
         </is>
       </c>
     </row>
@@ -6207,14 +6487,14 @@
           <t>Fonte Automotiva 120a Jfa Carregador Slim Oferta Full</t>
         </is>
       </c>
-      <c r="B183" t="n">
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D183" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -6232,7 +6512,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237791576-fonte-automotiva-120a-jfa-carregador-slim-oferta-full-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcbab0608-e2b6-4801-8fca-a81cb722aecc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237791576-fonte-automotiva-120a-jfa-carregador-slim-oferta-full-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D69e77296-a58e-404a-9f3f-10edcf488b9d</t>
         </is>
       </c>
     </row>
@@ -6242,13 +6522,13 @@
           <t xml:space="preserve">Controle Longa Distancia Completo Jfa Branco / Cinza K600 </t>
         </is>
       </c>
-      <c r="B184" t="n">
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
         <v>59.9</v>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr">
@@ -6263,7 +6543,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465503798-controle-longa-distancia-completo-jfa-branco-cinza-k600-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcbab0608-e2b6-4801-8fca-a81cb722aecc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1465503798-controle-longa-distancia-completo-jfa-branco-cinza-k600-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D69e77296-a58e-404a-9f3f-10edcf488b9d</t>
         </is>
       </c>
     </row>
@@ -6273,15 +6553,19 @@
           <t xml:space="preserve">Fonte Carregador Jfa 70a Sistema Inteligente Para Bateria </t>
         </is>
       </c>
-      <c r="B185" t="n">
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
         <v>581.8200000000001</v>
       </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr"/>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E185" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6294,7 +6578,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474160068-fonte-carregador-jfa-70a-sistema-inteligente-para-bateria-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcbab0608-e2b6-4801-8fca-a81cb722aecc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1474160068-fonte-carregador-jfa-70a-sistema-inteligente-para-bateria-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D69e77296-a58e-404a-9f3f-10edcf488b9d</t>
         </is>
       </c>
     </row>
@@ -6304,14 +6588,14 @@
           <t>Fonte Automotiva 120a Jfa Carregador Slim Oferta Pro</t>
         </is>
       </c>
-      <c r="B186" t="n">
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D186" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -6329,7 +6613,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237791973-fonte-automotiva-120a-jfa-carregador-slim-oferta-pro-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcbab0608-e2b6-4801-8fca-a81cb722aecc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237791973-fonte-automotiva-120a-jfa-carregador-slim-oferta-pro-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D69e77296-a58e-404a-9f3f-10edcf488b9d</t>
         </is>
       </c>
     </row>
@@ -6339,14 +6623,14 @@
           <t>Fonte Carregador Automotivo Jfa 120a Sci Redline Bivolt</t>
         </is>
       </c>
-      <c r="B187" t="n">
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
         <v>634.4</v>
       </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D187" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -6364,7 +6648,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305190843-fonte-carregador-automotivo-jfa-120a-sci-redline-bivolt-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcbab0608-e2b6-4801-8fca-a81cb722aecc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1305190843-fonte-carregador-automotivo-jfa-120a-sci-redline-bivolt-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D69e77296-a58e-404a-9f3f-10edcf488b9d</t>
         </is>
       </c>
     </row>
@@ -6374,14 +6658,14 @@
           <t>Fonte Carregador 120 A Jfa Com Sistema Sci Volt/amp</t>
         </is>
       </c>
-      <c r="B188" t="n">
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D188" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -6399,7 +6683,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1311934427-fonte-carregador-120-a-jfa-com-sistema-sci-voltamp-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcbab0608-e2b6-4801-8fca-a81cb722aecc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1311934427-fonte-carregador-120-a-jfa-com-sistema-sci-voltamp-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D69e77296-a58e-404a-9f3f-10edcf488b9d</t>
         </is>
       </c>
     </row>
@@ -6409,13 +6693,13 @@
           <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
         </is>
       </c>
-      <c r="B189" t="n">
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
         <v>37.9</v>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr">
@@ -6430,7 +6714,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3654243584-conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc33d72f5-b288-49b7-9b4b-9506b0a4d4c8</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3654243584-conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8b4ffc87-9e90-45a2-bf55-77676ae64a86</t>
         </is>
       </c>
     </row>
@@ -6440,13 +6724,13 @@
           <t xml:space="preserve">Controle Longa Distancia Completo Jfa Branco / Cinza K600 </t>
         </is>
       </c>
-      <c r="B190" t="n">
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
         <v>59.9</v>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr">
@@ -6461,7 +6745,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1728432727-controle-longa-distancia-completo-jfa-branco-cinza-k600-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc33d72f5-b288-49b7-9b4b-9506b0a4d4c8</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1728432727-controle-longa-distancia-completo-jfa-branco-cinza-k600-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8b4ffc87-9e90-45a2-bf55-77676ae64a86</t>
         </is>
       </c>
     </row>
@@ -6471,15 +6755,19 @@
           <t>Fonte Carregador Automotivo Jfa 60a Redline Bivolt</t>
         </is>
       </c>
-      <c r="B191" t="n">
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
         <v>525.87</v>
       </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr"/>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E191" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6492,7 +6780,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1983200338-fonte-carregador-automotivo-jfa-60a-redline-bivolt-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De4f1957d-baf4-4743-889b-efe69c90346e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1983200338-fonte-carregador-automotivo-jfa-60a-redline-bivolt-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6fa6bcb6-e935-491a-b4a2-cf8cee283528</t>
         </is>
       </c>
     </row>
@@ -6502,15 +6790,19 @@
           <t>Fonte Carregador Jfa 60a Redline Red Line Smart Cooler</t>
         </is>
       </c>
-      <c r="B192" t="n">
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
         <v>525.87</v>
       </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr"/>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E192" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6523,7 +6815,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1983201120-fonte-carregador-jfa-60a-redline-red-line-smart-cooler-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De4f1957d-baf4-4743-889b-efe69c90346e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1983201120-fonte-carregador-jfa-60a-redline-red-line-smart-cooler-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6fa6bcb6-e935-491a-b4a2-cf8cee283528</t>
         </is>
       </c>
     </row>
@@ -6533,14 +6825,14 @@
           <t>Fonte Carregador Jfa Estor 120a Bivolt</t>
         </is>
       </c>
-      <c r="B193" t="n">
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D193" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -6558,7 +6850,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2161603784-fonte-carregador-jfa-estor-120a-bivolt-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2161603784-fonte-carregador-jfa-estor-120a-bivolt-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b6cc70f-4139-4b44-b42e-b73b8c4f269c</t>
         </is>
       </c>
     </row>
@@ -6568,14 +6860,14 @@
           <t>Nova Fonte Carregador Jfa Storm 120a Bivolt</t>
         </is>
       </c>
-      <c r="B194" t="n">
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D194" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -6593,7 +6885,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2161609578-nova-fonte-carregador-jfa-storm-120a-bivolt-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2161609578-nova-fonte-carregador-jfa-storm-120a-bivolt-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b6cc70f-4139-4b44-b42e-b73b8c4f269c</t>
         </is>
       </c>
     </row>
@@ -6603,14 +6895,14 @@
           <t>Carregador Fonte Automotivo 120a Jfa Stomr</t>
         </is>
       </c>
-      <c r="B195" t="n">
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D195" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -6628,7 +6920,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2161616527-carregador-fonte-automotivo-120a-jfa-stomr-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2161616527-carregador-fonte-automotivo-120a-jfa-stomr-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b6cc70f-4139-4b44-b42e-b73b8c4f269c</t>
         </is>
       </c>
     </row>
@@ -6638,14 +6930,14 @@
           <t>Carregador Fonte Automotivo 120a Jfa Stomr</t>
         </is>
       </c>
-      <c r="B196" t="n">
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
         <v>634.4</v>
       </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D196" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -6663,7 +6955,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2161629341-carregador-fonte-automotivo-120a-jfa-stomr-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2161629341-carregador-fonte-automotivo-120a-jfa-stomr-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b6cc70f-4139-4b44-b42e-b73b8c4f269c</t>
         </is>
       </c>
     </row>
@@ -6673,14 +6965,14 @@
           <t>Fonte Carregador Jfa Storm 120a Bivolt Slim</t>
         </is>
       </c>
-      <c r="B197" t="n">
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D197" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -6698,7 +6990,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2161654722-fonte-carregador-jfa-storm-120a-bivolt-slim-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2161654722-fonte-carregador-jfa-storm-120a-bivolt-slim-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b6cc70f-4139-4b44-b42e-b73b8c4f269c</t>
         </is>
       </c>
     </row>
@@ -6708,15 +7000,19 @@
           <t>Melhor Fonte 120a Caixa Bob Jfa 120a Storm 110/220v</t>
         </is>
       </c>
-      <c r="B198" t="n">
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
         <v>634.4</v>
       </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr"/>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E198" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6729,7 +7025,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2161654995-melhor-fonte-120a-caixa-bob-jfa-120a-storm-110220v-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2161654995-melhor-fonte-120a-caixa-bob-jfa-120a-storm-110220v-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b6cc70f-4139-4b44-b42e-b73b8c4f269c</t>
         </is>
       </c>
     </row>
@@ -6739,15 +7035,19 @@
           <t>Fonte Jfa Storm 60a Com Medidor Cca Slim Bivolt</t>
         </is>
       </c>
-      <c r="B199" t="n">
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
         <v>492.3</v>
       </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr"/>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E199" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6760,7 +7060,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164397548-fonte-jfa-storm-60a-com-medidor-cca-slim-bivolt-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164397548-fonte-jfa-storm-60a-com-medidor-cca-slim-bivolt-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b6cc70f-4139-4b44-b42e-b73b8c4f269c</t>
         </is>
       </c>
     </row>
@@ -6770,15 +7070,19 @@
           <t>Carregador Jfa Storm 60a 14,4v Mais Completa Smart Cca Sci</t>
         </is>
       </c>
-      <c r="B200" t="n">
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
         <v>492.3</v>
       </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr"/>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E200" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6791,7 +7095,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164405477-carregador-jfa-storm-60a-144v-mais-completa-smart-cca-sci-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164405477-carregador-jfa-storm-60a-144v-mais-completa-smart-cca-sci-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b6cc70f-4139-4b44-b42e-b73b8c4f269c</t>
         </is>
       </c>
     </row>
@@ -6801,15 +7105,19 @@
           <t>Fonte Automotiva Storm Jfa 60a Multifunção Inteligente Slim</t>
         </is>
       </c>
-      <c r="B201" t="n">
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
         <v>525.87</v>
       </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr"/>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E201" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6822,7 +7130,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164410721-fonte-automotiva-storm-jfa-60a-multifunco-inteligente-slim-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164410721-fonte-automotiva-storm-jfa-60a-multifunco-inteligente-slim-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b6cc70f-4139-4b44-b42e-b73b8c4f269c</t>
         </is>
       </c>
     </row>
@@ -6832,15 +7140,19 @@
           <t>Fonte Jfa Storm 60a Com Medidor Cca Slim Bivolt</t>
         </is>
       </c>
-      <c r="B202" t="n">
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
         <v>525.87</v>
       </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr"/>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E202" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6853,7 +7165,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164414147-fonte-jfa-storm-60a-com-medidor-cca-slim-bivolt-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164414147-fonte-jfa-storm-60a-com-medidor-cca-slim-bivolt-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b6cc70f-4139-4b44-b42e-b73b8c4f269c</t>
         </is>
       </c>
     </row>
@@ -6863,15 +7175,19 @@
           <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
         </is>
       </c>
-      <c r="B203" t="n">
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
         <v>548.24</v>
       </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr"/>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E203" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6884,7 +7200,7 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164480792-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164480792-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b6cc70f-4139-4b44-b42e-b73b8c4f269c</t>
         </is>
       </c>
     </row>
@@ -6894,15 +7210,19 @@
           <t>Carregador Jfa Storm 70a 14,4v Mais Completa Smart Cca Sci</t>
         </is>
       </c>
-      <c r="B204" t="n">
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
         <v>548.24</v>
       </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr"/>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E204" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6915,7 +7235,7 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164504350-carregador-jfa-storm-70a-144v-mais-completa-smart-cca-sci-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164504350-carregador-jfa-storm-70a-144v-mais-completa-smart-cca-sci-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b6cc70f-4139-4b44-b42e-b73b8c4f269c</t>
         </is>
       </c>
     </row>
@@ -6925,15 +7245,19 @@
           <t>Carregador Jfa Storm 70a 14,4v Mais Completa Smart Cca Sci</t>
         </is>
       </c>
-      <c r="B205" t="n">
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
         <v>581.8099999999999</v>
       </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr"/>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E205" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6946,7 +7270,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164517272-carregador-jfa-storm-70a-144v-mais-completa-smart-cca-sci-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164517272-carregador-jfa-storm-70a-144v-mais-completa-smart-cca-sci-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b6cc70f-4139-4b44-b42e-b73b8c4f269c</t>
         </is>
       </c>
     </row>
@@ -6956,15 +7280,19 @@
           <t>Fonte Automotiva Storm Jfa 70a Multifunção Inteligente Slim</t>
         </is>
       </c>
-      <c r="B206" t="n">
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
         <v>581.8099999999999</v>
       </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr"/>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E206" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6977,7 +7305,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164517323-fonte-automotiva-storm-jfa-70a-multifunco-inteligente-slim-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164517323-fonte-automotiva-storm-jfa-70a-multifunco-inteligente-slim-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b6cc70f-4139-4b44-b42e-b73b8c4f269c</t>
         </is>
       </c>
     </row>
@@ -6987,15 +7315,19 @@
           <t>Fonte Jfa Storm 70a Com Medidor Cca Slim Bivolt</t>
         </is>
       </c>
-      <c r="B207" t="n">
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
         <v>548.24</v>
       </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr"/>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E207" t="inlineStr">
         <is>
           <t>NA</t>
@@ -7008,7 +7340,7 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164523424-fonte-jfa-storm-70a-com-medidor-cca-slim-bivolt-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164523424-fonte-jfa-storm-70a-com-medidor-cca-slim-bivolt-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b6cc70f-4139-4b44-b42e-b73b8c4f269c</t>
         </is>
       </c>
     </row>
@@ -7018,15 +7350,19 @@
           <t>Fonte Jfa Storm 70a Com Medidor Cca Slim Bivolt</t>
         </is>
       </c>
-      <c r="B208" t="n">
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
         <v>581.8099999999999</v>
       </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr"/>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E208" t="inlineStr">
         <is>
           <t>NA</t>
@@ -7039,7 +7375,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164529855-fonte-jfa-storm-70a-com-medidor-cca-slim-bivolt-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164529855-fonte-jfa-storm-70a-com-medidor-cca-slim-bivolt-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b6cc70f-4139-4b44-b42e-b73b8c4f269c</t>
         </is>
       </c>
     </row>
@@ -7049,15 +7385,19 @@
           <t>Fonte Automotiva Storm Jfa 70a Multifunção Inteligente Slim</t>
         </is>
       </c>
-      <c r="B209" t="n">
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
         <v>548.24</v>
       </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr"/>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E209" t="inlineStr">
         <is>
           <t>NA</t>
@@ -7070,7 +7410,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164536143-fonte-automotiva-storm-jfa-70a-multifunco-inteligente-slim-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164536143-fonte-automotiva-storm-jfa-70a-multifunco-inteligente-slim-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b6cc70f-4139-4b44-b42e-b73b8c4f269c</t>
         </is>
       </c>
     </row>
@@ -7080,15 +7420,19 @@
           <t>Carregador Jfa Storm 200a 14,4v Mais Completa Smart Cca Sci</t>
         </is>
       </c>
-      <c r="B210" t="n">
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
         <v>895.1</v>
       </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr"/>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E210" t="inlineStr">
         <is>
           <t>NA</t>
@@ -7101,7 +7445,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174554397-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-sci-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2174554397-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-sci-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b6cc70f-4139-4b44-b42e-b73b8c4f269c</t>
         </is>
       </c>
     </row>
@@ -7111,15 +7455,19 @@
           <t>Fonte Jfa Storm 200a Com Medidor Cca Slim Bivolt Full</t>
         </is>
       </c>
-      <c r="B211" t="n">
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
         <v>939.86</v>
       </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr"/>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E211" t="inlineStr">
         <is>
           <t>NA</t>
@@ -7132,7 +7480,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174562069-fonte-jfa-storm-200a-com-medidor-cca-slim-bivolt-full-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2174562069-fonte-jfa-storm-200a-com-medidor-cca-slim-bivolt-full-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b6cc70f-4139-4b44-b42e-b73b8c4f269c</t>
         </is>
       </c>
     </row>
@@ -7142,15 +7490,19 @@
           <t>Fonte Carregador Jfa Storm 200a Bivolt Flutuação Proteção</t>
         </is>
       </c>
-      <c r="B212" t="n">
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
         <v>939.86</v>
       </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr"/>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E212" t="inlineStr">
         <is>
           <t>NA</t>
@@ -7163,7 +7515,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174598731-fonte-carregador-jfa-storm-200a-bivolt-flutuaco-proteco-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2174598731-fonte-carregador-jfa-storm-200a-bivolt-flutuaco-proteco-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b6cc70f-4139-4b44-b42e-b73b8c4f269c</t>
         </is>
       </c>
     </row>
@@ -7173,15 +7525,19 @@
           <t>Fonte Jfa Storm 200a Bob Carregador Automático Bivolt</t>
         </is>
       </c>
-      <c r="B213" t="n">
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
         <v>693.7</v>
       </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr"/>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E213" t="inlineStr">
         <is>
           <t>NA</t>
@@ -7194,7 +7550,7 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717157656-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717157656-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b6cc70f-4139-4b44-b42e-b73b8c4f269c</t>
         </is>
       </c>
     </row>
@@ -7204,13 +7560,13 @@
           <t>Controle Longa Distancia Jfa K1200 Acqua Som Completo Top</t>
         </is>
       </c>
-      <c r="B214" t="n">
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
         <v>78.90000000000001</v>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr">
@@ -7225,7 +7581,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724060953-controle-longa-distancia-jfa-k1200-acqua-som-completo-top-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2724060953-controle-longa-distancia-jfa-k1200-acqua-som-completo-top-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b6cc70f-4139-4b44-b42e-b73b8c4f269c</t>
         </is>
       </c>
     </row>
@@ -7235,13 +7591,13 @@
           <t>Controle Longa Distancia Jfa K1200 Acqua Som Completo Top</t>
         </is>
       </c>
-      <c r="B215" t="n">
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
         <v>131.96</v>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr">
@@ -7256,7 +7612,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724061125-controle-longa-distancia-jfa-k1200-acqua-som-completo-top-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2724061125-controle-longa-distancia-jfa-k1200-acqua-som-completo-top-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da91d47f1-dff1-4b90-8305-aa08cfb8179d</t>
         </is>
       </c>
     </row>
@@ -7266,13 +7622,13 @@
           <t>Controle Longa Distancia Jfa K1200 Acqua Completo Top</t>
         </is>
       </c>
-      <c r="B216" t="n">
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
         <v>78.90000000000001</v>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr">
@@ -7287,7 +7643,7 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724061274-controle-longa-distancia-jfa-k1200-acqua-completo-top-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2724061274-controle-longa-distancia-jfa-k1200-acqua-completo-top-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da91d47f1-dff1-4b90-8305-aa08cfb8179d</t>
         </is>
       </c>
     </row>
@@ -7297,13 +7653,13 @@
           <t>Controle Longa Distancia Jfa K1200 Acqua Completo Top Branco</t>
         </is>
       </c>
-      <c r="B217" t="n">
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
         <v>78.90000000000001</v>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr">
@@ -7318,7 +7674,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724197789-controle-longa-distancia-jfa-k1200-acqua-completo-top-branco-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc523465-d8a7-44c9-8de3-28ae1dd3fa2a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2724197789-controle-longa-distancia-jfa-k1200-acqua-completo-top-branco-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da91d47f1-dff1-4b90-8305-aa08cfb8179d</t>
         </is>
       </c>
     </row>
@@ -7328,13 +7684,13 @@
           <t>Controle Remoto Universal Longa Jfa K1200 Preto Com Laranja</t>
         </is>
       </c>
-      <c r="B218" t="n">
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
         <v>66.2</v>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr">
@@ -7349,7 +7705,7 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3569577904-controle-remoto-universal-longa-jfa-k1200-preto-com-laranja-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4aa6e206-4c70-491b-b0e4-4c0896c44301</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3569577904-controle-remoto-universal-longa-jfa-k1200-preto-com-laranja-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da91d47f1-dff1-4b90-8305-aa08cfb8179d</t>
         </is>
       </c>
     </row>
@@ -7359,13 +7715,13 @@
           <t>Controle Universal Longa Jfa K600 Preto Laranja Modo Aprende</t>
         </is>
       </c>
-      <c r="B219" t="n">
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
         <v>59.9</v>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr">
@@ -7380,7 +7736,7 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3597016844-controle-universal-longa-jfa-k600-preto-laranja-modo-aprende-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4aa6e206-4c70-491b-b0e4-4c0896c44301</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3597016844-controle-universal-longa-jfa-k600-preto-laranja-modo-aprende-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da91d47f1-dff1-4b90-8305-aa08cfb8179d</t>
         </is>
       </c>
     </row>
@@ -7390,13 +7746,13 @@
           <t>Controle Longa Jfa K600 Preto / Verde + Central Universal</t>
         </is>
       </c>
-      <c r="B220" t="n">
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
         <v>59.9</v>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr">
@@ -7411,7 +7767,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3597209408-controle-longa-jfa-k600-preto-verde-central-universal-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4aa6e206-4c70-491b-b0e4-4c0896c44301</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3597209408-controle-longa-jfa-k600-preto-verde-central-universal-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da91d47f1-dff1-4b90-8305-aa08cfb8179d</t>
         </is>
       </c>
     </row>
@@ -7421,13 +7777,13 @@
           <t>Controle Universal Longa Jfa K600 Preto Cinza Modo Aprender</t>
         </is>
       </c>
-      <c r="B221" t="n">
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
         <v>59.9</v>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D221" t="inlineStr"/>
       <c r="E221" t="inlineStr">
@@ -7442,7 +7798,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3597227192-controle-universal-longa-jfa-k600-preto-cinza-modo-aprender-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4aa6e206-4c70-491b-b0e4-4c0896c44301</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3597227192-controle-universal-longa-jfa-k600-preto-cinza-modo-aprender-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da91d47f1-dff1-4b90-8305-aa08cfb8179d</t>
         </is>
       </c>
     </row>
@@ -7452,13 +7808,13 @@
           <t>Controle Universal Longa Jfa K600 Branco Cinza Modo Aprender</t>
         </is>
       </c>
-      <c r="B222" t="n">
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
         <v>59.9</v>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D222" t="inlineStr"/>
       <c r="E222" t="inlineStr">
@@ -7473,7 +7829,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3597367758-controle-universal-longa-jfa-k600-branco-cinza-modo-aprender-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4aa6e206-4c70-491b-b0e4-4c0896c44301</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3597367758-controle-universal-longa-jfa-k600-branco-cinza-modo-aprender-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da91d47f1-dff1-4b90-8305-aa08cfb8179d</t>
         </is>
       </c>
     </row>
@@ -7483,13 +7839,13 @@
           <t>Controle Longa Jfa K600 Branco / Cinza + Central Universal</t>
         </is>
       </c>
-      <c r="B223" t="n">
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
         <v>59.9</v>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D223" t="inlineStr"/>
       <c r="E223" t="inlineStr">
@@ -7504,7 +7860,7 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3597368110-controle-longa-jfa-k600-branco-cinza-central-universal-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4aa6e206-4c70-491b-b0e4-4c0896c44301</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3597368110-controle-longa-jfa-k600-branco-cinza-central-universal-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da91d47f1-dff1-4b90-8305-aa08cfb8179d</t>
         </is>
       </c>
     </row>
@@ -7514,13 +7870,13 @@
           <t>Fonte Usina 200ah Bivolt + Controle Jfa K600 Brinde</t>
         </is>
       </c>
-      <c r="B224" t="n">
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
         <v>899</v>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D224" t="inlineStr"/>
       <c r="E224" t="inlineStr">
@@ -7535,25 +7891,29 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1968870290-fonte-usina-200ah-bivolt-controle-jfa-k600-brinde-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9bf193f3-3ee4-4c9c-ba5d-ee919660c687</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1968870290-fonte-usina-200ah-bivolt-controle-jfa-k600-brinde-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D37639f99-9acc-4e4d-8141-08697ea00b9e</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Fonte Carregador 200 Amperes Jfa Sci Inteligente 10.000w Rms</t>
-        </is>
-      </c>
-      <c r="B225" t="n">
-        <v>895.1</v>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr"/>
+          <t>Fonte Carregador Jfa Bob Storm 200a 12v 14,4v  Som Paredão</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>693.7</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E225" t="inlineStr">
         <is>
           <t>NA</t>
@@ -7566,28 +7926,32 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1182760088-fonte-carregador-200-amperes-jfa-sci-inteligente-10000w-rms-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9bf193f3-3ee4-4c9c-ba5d-ee919660c687</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717157512-fonte-carregador-jfa-bob-storm-200a-12v-144v-som-paredo-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D37639f99-9acc-4e4d-8141-08697ea00b9e</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a 12v 14,4v  Som Paredão</t>
-        </is>
-      </c>
-      <c r="B226" t="n">
-        <v>693.7</v>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr"/>
+          <t>Fonte Carregador 200 Amperes Jfa Sci Inteligente 10.000w Rms</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>895.1</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -7597,7 +7961,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717157512-fonte-carregador-jfa-bob-storm-200a-12v-144v-som-paredo-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9bf193f3-3ee4-4c9c-ba5d-ee919660c687</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1182760088-fonte-carregador-200-amperes-jfa-sci-inteligente-10000w-rms-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D37639f99-9acc-4e4d-8141-08697ea00b9e</t>
         </is>
       </c>
     </row>
@@ -7607,13 +7971,13 @@
           <t>Filtro Anti-ruido Jfa Rca Cd Dvd Eletromagnético Stereo</t>
         </is>
       </c>
-      <c r="B227" t="n">
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
         <v>75.33</v>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr">
@@ -7628,7 +7992,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2087221371-filtro-anti-ruido-jfa-rca-cd-dvd-eletromagnetico-stereo-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9bf193f3-3ee4-4c9c-ba5d-ee919660c687</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2087221371-filtro-anti-ruido-jfa-rca-cd-dvd-eletromagnetico-stereo-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D37639f99-9acc-4e4d-8141-08697ea00b9e</t>
         </is>
       </c>
     </row>
@@ -7638,15 +8002,19 @@
           <t>Fonte Automotiva Jfa 60a Redline Digital Sci Pwm Eae Bivolt</t>
         </is>
       </c>
-      <c r="B228" t="n">
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
         <v>525.87</v>
       </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr"/>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E228" t="inlineStr">
         <is>
           <t>NA</t>
@@ -7659,7 +8027,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305139099-fonte-automotiva-jfa-60a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D72ebcf69-d434-4ab9-b15b-46a94eb039a0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1305139099-fonte-automotiva-jfa-60a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8e5c790a-4261-43f8-b648-faedfb4f3fa9</t>
         </is>
       </c>
     </row>
@@ -7669,14 +8037,14 @@
           <t>Fonte Automotiva 120a Amperes Jfa Carregador + Boné</t>
         </is>
       </c>
-      <c r="B229" t="n">
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
         <v>689</v>
       </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D229" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -7694,7 +8062,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2193402127-fonte-automotiva-120a-amperes-jfa-carregador-bone-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D72ebcf69-d434-4ab9-b15b-46a94eb039a0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2193402127-fonte-automotiva-120a-amperes-jfa-carregador-bone-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8e5c790a-4261-43f8-b648-faedfb4f3fa9</t>
         </is>
       </c>
     </row>
@@ -7704,13 +8072,13 @@
           <t>Controle Longa Distância Jfa K600 + Central Cor Preto Verde Full</t>
         </is>
       </c>
-      <c r="B230" t="n">
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
         <v>59.9</v>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr">
@@ -7725,7 +8093,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1309207676-controle-longa-distncia-jfa-k600-central-cor-preto-verde-full-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D72ebcf69-d434-4ab9-b15b-46a94eb039a0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1309207676-controle-longa-distncia-jfa-k600-central-cor-preto-verde-full-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8e5c790a-4261-43f8-b648-faedfb4f3fa9</t>
         </is>
       </c>
     </row>
@@ -7735,13 +8103,13 @@
           <t>Filtro Anti-ruido Jfa Rca Cd Dvd Eletromagnético Stereo</t>
         </is>
       </c>
-      <c r="B231" t="n">
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
         <v>59.99</v>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D231" t="inlineStr"/>
       <c r="E231" t="inlineStr">
@@ -7756,7 +8124,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2087246945-filtro-anti-ruido-jfa-rca-cd-dvd-eletromagnetico-stereo-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D72ebcf69-d434-4ab9-b15b-46a94eb039a0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2087246945-filtro-anti-ruido-jfa-rca-cd-dvd-eletromagnetico-stereo-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8e5c790a-4261-43f8-b648-faedfb4f3fa9</t>
         </is>
       </c>
     </row>
@@ -7766,13 +8134,13 @@
           <t>Voltímetro Jfa Vs5hi 3 Em 1 Sequenciador High Voltagem /12v</t>
         </is>
       </c>
-      <c r="B232" t="n">
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
         <v>67.8</v>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D232" t="inlineStr"/>
       <c r="E232" t="inlineStr">
@@ -7787,7 +8155,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875295357-voltimetro-jfa-vs5hi-3-em-1-sequenciador-high-voltagem-12v-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D72ebcf69-d434-4ab9-b15b-46a94eb039a0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1875295357-voltimetro-jfa-vs5hi-3-em-1-sequenciador-high-voltagem-12v-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8e5c790a-4261-43f8-b648-faedfb4f3fa9</t>
         </is>
       </c>
     </row>
@@ -7797,13 +8165,13 @@
           <t>Sequenciador Voltimetro Medidor Bateria Digital Jfa Vs5 Hi</t>
         </is>
       </c>
-      <c r="B233" t="n">
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
         <v>77.98999999999999</v>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D233" t="inlineStr"/>
       <c r="E233" t="inlineStr">
@@ -7818,7 +8186,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875289506-sequenciador-voltimetro-medidor-bateria-digital-jfa-vs5-hi-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3fe56cc3-449a-4a7d-93a1-77d90ffa700a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1875289506-sequenciador-voltimetro-medidor-bateria-digital-jfa-vs5-hi-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da932ac98-48fe-4a2b-8fac-f232353e62e3</t>
         </is>
       </c>
     </row>
@@ -7828,13 +8196,13 @@
           <t>Fonte Carregador Automotivo 60a Jfa + Controle Stetsom Sx-2</t>
         </is>
       </c>
-      <c r="B234" t="n">
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
         <v>549</v>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D234" t="inlineStr"/>
       <c r="E234" t="inlineStr">
@@ -7849,7 +8217,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1080173822-fonte-carregador-automotivo-60a-jfa-controle-stetsom-sx-2-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3fe56cc3-449a-4a7d-93a1-77d90ffa700a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1080173822-fonte-carregador-automotivo-60a-jfa-controle-stetsom-sx-2-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da932ac98-48fe-4a2b-8fac-f232353e62e3</t>
         </is>
       </c>
     </row>
@@ -7859,14 +8227,14 @@
           <t>Fonte Carregador Jfa 120a Amperes Medidor Cca Bivolt + Boné</t>
         </is>
       </c>
-      <c r="B235" t="n">
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
         <v>645.1</v>
       </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D235" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -7884,7 +8252,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2193415173-fonte-carregador-jfa-120a-amperes-medidor-cca-bivolt-bone-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3fe56cc3-449a-4a7d-93a1-77d90ffa700a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2193415173-fonte-carregador-jfa-120a-amperes-medidor-cca-bivolt-bone-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da932ac98-48fe-4a2b-8fac-f232353e62e3</t>
         </is>
       </c>
     </row>
@@ -7894,13 +8262,13 @@
           <t>Voltímetro Jfa Vs5hi Hv/12v Com Sequenciador Tp Stetsom Ajk</t>
         </is>
       </c>
-      <c r="B236" t="n">
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
         <v>77.98999999999999</v>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D236" t="inlineStr"/>
       <c r="E236" t="inlineStr">
@@ -7915,7 +8283,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875305084-voltimetro-jfa-vs5hi-hv12v-com-sequenciador-tp-stetsom-ajk-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3fe56cc3-449a-4a7d-93a1-77d90ffa700a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1875305084-voltimetro-jfa-vs5hi-hv12v-com-sequenciador-tp-stetsom-ajk-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da932ac98-48fe-4a2b-8fac-f232353e62e3</t>
         </is>
       </c>
     </row>
@@ -7925,13 +8293,13 @@
           <t>Voltímetro Digital 12v Ajk Nano Plus Tp Stetsom Jfa</t>
         </is>
       </c>
-      <c r="B237" t="n">
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
         <v>39.9</v>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D237" t="inlineStr"/>
       <c r="E237" t="inlineStr">
@@ -7946,7 +8314,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-978195087-voltimetro-digital-12v-ajk-nano-plus-tp-stetsom-jfa-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3fe56cc3-449a-4a7d-93a1-77d90ffa700a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-978195087-voltimetro-digital-12v-ajk-nano-plus-tp-stetsom-jfa-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da932ac98-48fe-4a2b-8fac-f232353e62e3</t>
         </is>
       </c>
     </row>
@@ -7956,15 +8324,19 @@
           <t>Fonte Carregador Jfa Bob 200 Amperes Bivolt Inteligente Full</t>
         </is>
       </c>
-      <c r="B238" t="n">
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
         <v>772.02</v>
       </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr"/>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E238" t="inlineStr">
         <is>
           <t>NA</t>
@@ -7977,7 +8349,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717118970-fonte-carregador-jfa-bob-200-amperes-bivolt-inteligente-full-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd1b0aab6-ca94-45fd-a9d7-518662be6c6d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717118970-fonte-carregador-jfa-bob-200-amperes-bivolt-inteligente-full-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df7b54f09-6142-4b42-9e2e-51489e5680eb</t>
         </is>
       </c>
     </row>
@@ -7987,15 +8359,19 @@
           <t>Fonte Automotiva 200a Jfa Carregador Similar Stetsom</t>
         </is>
       </c>
-      <c r="B239" t="n">
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
         <v>939.86</v>
       </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr"/>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E239" t="inlineStr">
         <is>
           <t>NA</t>
@@ -8008,7 +8384,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-961801880-fonte-automotiva-200a-jfa-carregador-similar-stetsom-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd1b0aab6-ca94-45fd-a9d7-518662be6c6d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-961801880-fonte-automotiva-200a-jfa-carregador-similar-stetsom-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df7b54f09-6142-4b42-9e2e-51489e5680eb</t>
         </is>
       </c>
     </row>

--- a/dados/radicalsom_matriz.xlsx
+++ b/dados/radicalsom_matriz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G239"/>
+  <dimension ref="A1:G229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,13 +478,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>90.78</v>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>NA</t>
@@ -497,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:90899578#searchVariation=MLB28557249&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=43b891b9-32c4-4c9a-a241-94f9939e0a69</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:90899578#searchVariation=MLB28557249&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=7572d104-fc65-4454-ba6e-55fe9e39e0c0</t>
         </is>
       </c>
     </row>
@@ -509,13 +513,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>87.90000000000001</v>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>NA</t>
@@ -528,7 +536,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:90899578#searchVariation=MLB27685629&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=43b891b9-32c4-4c9a-a241-94f9939e0a69</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:90899578#searchVariation=MLB27685629&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=7572d104-fc65-4454-ba6e-55fe9e39e0c0</t>
         </is>
       </c>
     </row>
@@ -540,13 +548,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>54.99</v>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>NA</t>
@@ -559,7 +571,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:90899578#searchVariation=MLB27970249&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=43b891b9-32c4-4c9a-a241-94f9939e0a69</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:90899578#searchVariation=MLB27970249&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=7572d104-fc65-4454-ba6e-55fe9e39e0c0</t>
         </is>
       </c>
     </row>
@@ -571,13 +583,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>54.99</v>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>NA</t>
@@ -590,7 +606,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-preto-com-verde/p/MLB27999036?pdp_filters=seller_id:90899578#searchVariation=MLB27999036&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=43b891b9-32c4-4c9a-a241-94f9939e0a69</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-preto-com-verde/p/MLB27999036?pdp_filters=seller_id:90899578#searchVariation=MLB27999036&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=7572d104-fc65-4454-ba6e-55fe9e39e0c0</t>
         </is>
       </c>
     </row>
@@ -602,13 +618,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>NA</t>
@@ -621,7 +641,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:90899578#searchVariation=MLB27687422&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=43b891b9-32c4-4c9a-a241-94f9939e0a69</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:90899578#searchVariation=MLB27687422&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=7572d104-fc65-4454-ba6e-55fe9e39e0c0</t>
         </is>
       </c>
     </row>
@@ -633,13 +653,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>54.99</v>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>NA</t>
@@ -652,7 +676,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:90899578#searchVariation=MLB32364344&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=43b891b9-32c4-4c9a-a241-94f9939e0a69</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:90899578#searchVariation=MLB32364344&amp;position=19&amp;search_layout=grid&amp;type=product&amp;tracking_id=7572d104-fc65-4454-ba6e-55fe9e39e0c0</t>
         </is>
       </c>
     </row>
@@ -687,7 +711,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:90899578#searchVariation=MLB21392652&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=43b891b9-32c4-4c9a-a241-94f9939e0a69</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:90899578#searchVariation=MLB21392652&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=7572d104-fc65-4454-ba6e-55fe9e39e0c0</t>
         </is>
       </c>
     </row>
@@ -718,7 +742,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:90899578#searchVariation=MLB25707531&amp;position=20&amp;search_layout=grid&amp;type=product&amp;tracking_id=43b891b9-32c4-4c9a-a241-94f9939e0a69</t>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:90899578#searchVariation=MLB25707531&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=7572d104-fc65-4454-ba6e-55fe9e39e0c0</t>
         </is>
       </c>
     </row>
@@ -730,13 +754,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>860.98</v>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>NA</t>
@@ -749,7 +777,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:90899578#searchVariation=MLB24006449&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=43b891b9-32c4-4c9a-a241-94f9939e0a69</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:90899578#searchVariation=MLB24006449&amp;position=20&amp;search_layout=grid&amp;type=product&amp;tracking_id=7572d104-fc65-4454-ba6e-55fe9e39e0c0</t>
         </is>
       </c>
     </row>
@@ -784,7 +812,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:90899578#searchVariation=MLB22144397&amp;position=34&amp;search_layout=grid&amp;type=product&amp;tracking_id=43b891b9-32c4-4c9a-a241-94f9939e0a69</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:90899578#searchVariation=MLB22144397&amp;position=27&amp;search_layout=grid&amp;type=product&amp;tracking_id=7572d104-fc65-4454-ba6e-55fe9e39e0c0</t>
         </is>
       </c>
     </row>
@@ -796,13 +824,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>64.90000000000001</v>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>NA</t>
@@ -815,7 +847,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:90899578#searchVariation=MLB34210379&amp;position=37&amp;search_layout=grid&amp;type=product&amp;tracking_id=43b891b9-32c4-4c9a-a241-94f9939e0a69</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:90899578#searchVariation=MLB34210379&amp;position=29&amp;search_layout=grid&amp;type=product&amp;tracking_id=7572d104-fc65-4454-ba6e-55fe9e39e0c0</t>
         </is>
       </c>
     </row>
@@ -850,7 +882,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:90899578#searchVariation=MLB21348561&amp;position=29&amp;search_layout=grid&amp;type=product&amp;tracking_id=43b891b9-32c4-4c9a-a241-94f9939e0a69</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:90899578#searchVariation=MLB21348561&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=7572d104-fc65-4454-ba6e-55fe9e39e0c0</t>
         </is>
       </c>
     </row>
@@ -885,7 +917,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:90899578#searchVariation=MLB24154371&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=43b891b9-32c4-4c9a-a241-94f9939e0a69</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:90899578#searchVariation=MLB24154371&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=7572d104-fc65-4454-ba6e-55fe9e39e0c0</t>
         </is>
       </c>
     </row>
@@ -920,7 +952,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:90899578#searchVariation=MLB24834408&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=43b891b9-32c4-4c9a-a241-94f9939e0a69</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:90899578#searchVariation=MLB24834408&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=7572d104-fc65-4454-ba6e-55fe9e39e0c0</t>
         </is>
       </c>
     </row>
@@ -932,13 +964,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>59.9</v>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>NA</t>
@@ -951,7 +987,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:90899578#searchVariation=MLB28687615&amp;position=33&amp;search_layout=grid&amp;type=product&amp;tracking_id=43b891b9-32c4-4c9a-a241-94f9939e0a69</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:90899578#searchVariation=MLB28687615&amp;position=40&amp;search_layout=grid&amp;type=product&amp;tracking_id=7572d104-fc65-4454-ba6e-55fe9e39e0c0</t>
         </is>
       </c>
     </row>
@@ -986,7 +1022,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:90899578#searchVariation=MLB21562641&amp;position=43&amp;search_layout=grid&amp;type=product&amp;tracking_id=43b891b9-32c4-4c9a-a241-94f9939e0a69</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:90899578#searchVariation=MLB21562641&amp;position=42&amp;search_layout=grid&amp;type=product&amp;tracking_id=7572d104-fc65-4454-ba6e-55fe9e39e0c0</t>
         </is>
       </c>
     </row>
@@ -998,13 +1034,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>61.19</v>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1017,7 +1057,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:90899578#searchVariation=MLB28722231&amp;position=47&amp;search_layout=grid&amp;type=product&amp;tracking_id=43b891b9-32c4-4c9a-a241-94f9939e0a69</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:90899578#searchVariation=MLB28722231&amp;position=47&amp;search_layout=grid&amp;type=product&amp;tracking_id=7572d104-fc65-4454-ba6e-55fe9e39e0c0</t>
         </is>
       </c>
     </row>
@@ -1052,25 +1092,29 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-k600-combo-5-pecas-longa-distancia-cores-variadas/p/MLB27993263?pdp_filters=seller_id:90899578#searchVariation=MLB27993263&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=1816a933-8fe6-4a68-8bf5-4ca18b410c40</t>
+          <t>https://www.mercadolivre.com.br/jfa-k600-combo-5-pecas-longa-distancia-cores-variadas/p/MLB27993263?pdp_filters=seller_id:90899578#searchVariation=MLB27993263&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=3d21ee1b-c78f-442f-a93d-6e4b030c2e43</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 K 600 K-600 Completo</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
+        <v>548.24</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1078,32 +1122,32 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-k-600-k-600-completo/p/MLB28798841?pdp_filters=seller_id:90899578#searchVariation=MLB28798841&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=1816a933-8fe6-4a68-8bf5-4ca18b410c40</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:90899578#searchVariation=MLB21455208&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=3d21ee1b-c78f-442f-a93d-6e4b030c2e43</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>548.24</v>
+        <v>443.07</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1118,27 +1162,27 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:90899578#searchVariation=MLB21455208&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=1816a933-8fe6-4a68-8bf5-4ca18b410c40</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:90899578#searchVariation=MLB21320712&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=3d21ee1b-c78f-442f-a93d-6e4b030c2e43</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Controle Longa Distância Jfa K600 K 600 K-600 Completo</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>443.07</v>
+        <v>59.9</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1148,12 +1192,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:90899578#searchVariation=MLB21320712&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=1816a933-8fe6-4a68-8bf5-4ca18b410c40</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-k-600-k-600-completo/p/MLB28798841?pdp_filters=seller_id:90899578#searchVariation=MLB28798841&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=3d21ee1b-c78f-442f-a93d-6e4b030c2e43</t>
         </is>
       </c>
     </row>
@@ -1165,13 +1209,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>61.19</v>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1184,7 +1232,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:90899578#searchVariation=MLB28357019&amp;position=29&amp;search_layout=grid&amp;type=product&amp;tracking_id=1816a933-8fe6-4a68-8bf5-4ca18b410c40</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:90899578#searchVariation=MLB28357019&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=3d21ee1b-c78f-442f-a93d-6e4b030c2e43</t>
         </is>
       </c>
     </row>
@@ -1196,13 +1244,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>61.19</v>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1215,25 +1267,29 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:90899578#searchVariation=MLB30476096&amp;position=40&amp;search_layout=grid&amp;type=product&amp;tracking_id=1816a933-8fe6-4a68-8bf5-4ca18b410c40</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:90899578#searchVariation=MLB30476096&amp;position=40&amp;search_layout=grid&amp;type=product&amp;tracking_id=3d21ee1b-c78f-442f-a93d-6e4b030c2e43</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Filtro Anti Ruido Jfa Rca Com Blindagem P/ Som Automotivo</t>
+          <t>Controle Longa Distância Jfa K600 + Central Branco Cinza</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>59.9</v>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1246,25 +1302,29 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2044238984-filtro-anti-ruido-jfa-rca-com-blindagem-p-som-automotivo-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D980aad54-132c-46b8-828b-d5e2b18dfd17</t>
+          <t>https://produto.mercadolivre.com.br/MLB-960910241-controle-longa-distncia-jfa-k600-central-branco-cinza-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D42c9eba6-c16d-43be-b49f-f3757584ab43</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Filtro Anti-ruido Jfa Rca Eletromagnético Stereo</t>
+          <t>Controle Longa Distância Jfa K600 + Central Cor Preto Cinza</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
+        <v>54.99</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1272,19 +1332,19 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2044257162-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D980aad54-132c-46b8-828b-d5e2b18dfd17</t>
+          <t>https://produto.mercadolivre.com.br/MLB-960927274-controle-longa-distncia-jfa-k600-central-cor-preto-cinza-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D42c9eba6-c16d-43be-b49f-f3757584ab43</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 + Central Cor Preto Cinza</t>
+          <t>Fonte Usina 200ah Bivolt + Controle Jfa K600 Brinde</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1293,7 +1353,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>54.99</v>
+        <v>819</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
@@ -1308,29 +1368,25 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-960927274-controle-longa-distncia-jfa-k600-central-cor-preto-cinza-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D980aad54-132c-46b8-828b-d5e2b18dfd17</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1968884558-fonte-usina-200ah-bivolt-controle-jfa-k600-brinde-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D42c9eba6-c16d-43be-b49f-f3757584ab43</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120 A Jfa Carregador Com Sistema Sci +frete</t>
+          <t>Filtro Anti-ruido Jfa Rca Eletromagnético Stereo</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>674.6799999999999</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>59.9</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1343,29 +1399,25 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237786659-fonte-automotiva-120-a-jfa-carregador-com-sistema-sci-frete-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D980aad54-132c-46b8-828b-d5e2b18dfd17</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2044257162-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D42c9eba6-c16d-43be-b49f-f3757584ab43</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Fonte Carregador Inteligente Jfa 120 Amperes Sci Modelo Full</t>
+          <t>Fonte Carregador Automotivo 60a Jfa + Controle Stetsom Sx-2</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>634.4</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1373,30 +1425,34 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237793033-fonte-carregador-inteligente-jfa-120-amperes-sci-modelo-full-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D980aad54-132c-46b8-828b-d5e2b18dfd17</t>
+          <t>https://produto.mercadolivre.com.br/MLB-987406861-fonte-carregador-automotivo-60a-jfa-controle-stetsom-sx-2-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D42c9eba6-c16d-43be-b49f-f3757584ab43</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Voltímetro Sequenciado Jfa Digital Vs5hi Alta/baixa Voltage</t>
+          <t>Controle Longa Distância Jfa K600 + Central Preto / Laranja</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>77.98999999999999</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
+        <v>59.9</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1409,27 +1465,27 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1014470608-voltimetro-sequenciado-jfa-digital-vs5hi-altabaixa-voltage-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D980aad54-132c-46b8-828b-d5e2b18dfd17</t>
+          <t>https://produto.mercadolivre.com.br/MLB-960900243-controle-longa-distncia-jfa-k600-central-preto-laranja-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D42c9eba6-c16d-43be-b49f-f3757584ab43</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200 Amperes Sci Redline Volt/amp Bivolt</t>
+          <t>Controle Longa Distância Jfa K600 + Barato Brasil</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>805.59</v>
+        <v>54.99</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1444,14 +1500,14 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305212746-fonte-carregador-jfa-200-amperes-sci-redline-voltamp-bivolt-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D980aad54-132c-46b8-828b-d5e2b18dfd17</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1042812523-controle-longa-distncia-jfa-k600-barato-brasil-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D715477df-76d1-47c2-9a34-d93dc5b7020e</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Fonte Usina 200ah Bivolt + Controle Jfa K600 Brinde</t>
+          <t>Filtro Anti Ruido Jfa Rca Com Blindagem P/ Som Automotivo</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1460,7 +1516,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>819</v>
+        <v>59.9</v>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
@@ -1470,28 +1526,28 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1968884558-fonte-usina-200ah-bivolt-controle-jfa-k600-brinde-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D980aad54-132c-46b8-828b-d5e2b18dfd17</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2044238984-filtro-anti-ruido-jfa-rca-com-blindagem-p-som-automotivo-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D715477df-76d1-47c2-9a34-d93dc5b7020e</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a 200 Amperes Sci Redline Bivolt Som</t>
+          <t>Fonte Carregador Inteligente Jfa 120 Amperes Sci Modelo Full</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>845.87</v>
+        <v>634.4</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1505,28 +1561,28 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305215505-fonte-carregador-jfa-200a-200-amperes-sci-redline-bivolt-som-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D38ac97f3-4459-4104-a771-75cfbde023f1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237793033-fonte-carregador-inteligente-jfa-120-amperes-sci-modelo-full-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D715477df-76d1-47c2-9a34-d93dc5b7020e</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a 12v 14,4v  Som Paredão</t>
+          <t>Fonte Carregador Jfa 120a Bivolt Brinde Strobo Rgb</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>772.02</v>
+        <v>679</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1540,30 +1596,34 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717179525-fonte-carregador-jfa-bob-storm-200a-12v-144v-som-paredo-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D38ac97f3-4459-4104-a771-75cfbde023f1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1976484775-fonte-carregador-jfa-120a-bivolt-brinde-strobo-rgb-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D715477df-76d1-47c2-9a34-d93dc5b7020e</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 + Barato Brasil</t>
+          <t>Fonte Automotiva 120 A Jfa Carregador Com Sistema Sci +frete</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>54.99</v>
-      </c>
-      <c r="D35" t="inlineStr"/>
+        <v>674.6799999999999</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1571,30 +1631,34 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1042812523-controle-longa-distncia-jfa-k600-barato-brasil-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D38ac97f3-4459-4104-a771-75cfbde023f1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237786659-fonte-automotiva-120-a-jfa-carregador-com-sistema-sci-frete-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D715477df-76d1-47c2-9a34-d93dc5b7020e</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo 60a Jfa + Controle Stetsom Sx-2</t>
+          <t>Fonte Carregador Jfa 200a 200 Amperes Sci Redline Bivolt Som</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>549</v>
-      </c>
-      <c r="D36" t="inlineStr"/>
+        <v>845.87</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1607,25 +1671,29 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-987406861-fonte-carregador-automotivo-60a-jfa-controle-stetsom-sx-2-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D38ac97f3-4459-4104-a771-75cfbde023f1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1305215505-fonte-carregador-jfa-200a-200-amperes-sci-redline-bivolt-som-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D715477df-76d1-47c2-9a34-d93dc5b7020e</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Preto / Cinza K600 Full</t>
+          <t>Fonte Carregador Jfa 200 Amperes Sci Redline Volt/amp Bivolt</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="D37" t="inlineStr"/>
+        <v>805.59</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1633,30 +1701,34 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465503271-controle-longa-distancia-jfa-preto-cinza-k600-full-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D38ac97f3-4459-4104-a771-75cfbde023f1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1305212746-fonte-carregador-jfa-200-amperes-sci-redline-voltamp-bivolt-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D715477df-76d1-47c2-9a34-d93dc5b7020e</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Voltímetro Digital  Jfa Vs5hi Lançamento 3 Em 1 Som Paredão</t>
+          <t>Fonte Carregador Jfa Bob 200 Amperes Bivolt Inteligente Full</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>77.98999999999999</v>
-      </c>
-      <c r="D38" t="inlineStr"/>
+        <v>693.7</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1664,30 +1736,34 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875299616-voltimetro-digital-jfa-vs5hi-lancamento-3-em-1-som-paredo-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D38ac97f3-4459-4104-a771-75cfbde023f1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717151469-fonte-carregador-jfa-bob-200-amperes-bivolt-inteligente-full-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D715477df-76d1-47c2-9a34-d93dc5b7020e</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Filtro Anti-ruido Jfa Rca Eletromagnético Stereo</t>
+          <t>Controle Longa Distancia Jfa Preto / Cinza K600 Full</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>57.9</v>
-      </c>
-      <c r="D39" t="inlineStr"/>
+        <v>59.9</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1695,37 +1771,37 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2044232351-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D38ac97f3-4459-4104-a771-75cfbde023f1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1465503271-controle-longa-distancia-jfa-preto-cinza-k600-full-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D715477df-76d1-47c2-9a34-d93dc5b7020e</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob 200 Amperes Bivolt Inteligente Full</t>
+          <t>Controle Longa Distancia Jfa K1200 Acqua Som Completo Top</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>693.7</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1735,14 +1811,14 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717151469-fonte-carregador-jfa-bob-200-amperes-bivolt-inteligente-full-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D38ac97f3-4459-4104-a771-75cfbde023f1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2724203538-controle-longa-distancia-jfa-k1200-acqua-som-completo-top-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9594e9d1-d62c-4f5f-a09f-88fc61403c9e</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Voltímetro Jfa Vs5hi Hv/12v Sequenciador Caixa Bob Paredão</t>
+          <t>Filtro Anti-ruido Jfa Rca Eletromagnético Stereo</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1751,7 +1827,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>67.8</v>
+        <v>57.9</v>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
@@ -1766,27 +1842,27 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875307425-voltimetro-jfa-vs5hi-hv12v-sequenciador-caixa-bob-paredo-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D38ac97f3-4459-4104-a771-75cfbde023f1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2044232351-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9594e9d1-d62c-4f5f-a09f-88fc61403c9e</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 60 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+          <t>Controle Longa Distância Jfa K600 + Central Preto / Laranja</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>492.3</v>
+        <v>54.99</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1801,25 +1877,29 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164378570-fonte-automotiva-60-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D632d2af4-dfd8-4078-8b5b-d58f043da189</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1042815891-controle-longa-distncia-jfa-k600-central-preto-laranja-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9594e9d1-d62c-4f5f-a09f-88fc61403c9e</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Acqua Som Completo Top</t>
+          <t>Fonte Automotiva 60 Amperes Jfa Storm Red Line Cca Sci Smart</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="D43" t="inlineStr"/>
+        <v>492.3</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1832,25 +1912,29 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724203538-controle-longa-distancia-jfa-k1200-acqua-som-completo-top-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D632d2af4-dfd8-4078-8b5b-d58f043da189</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164378570-fonte-automotiva-60-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9594e9d1-d62c-4f5f-a09f-88fc61403c9e</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 + Central Preto / Laranja</t>
+          <t>Fonte Automotiva 60 Amperes Jfa Storm Red Line Cca Sci Smart</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>54.99</v>
-      </c>
-      <c r="D44" t="inlineStr"/>
+        <v>525.87</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1858,12 +1942,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1042815891-controle-longa-distncia-jfa-k600-central-preto-laranja-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D632d2af4-dfd8-4078-8b5b-d58f043da189</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164414544-fonte-automotiva-60-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9594e9d1-d62c-4f5f-a09f-88fc61403c9e</t>
         </is>
       </c>
     </row>
@@ -1898,25 +1982,29 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474155563-carregador-fonte-para-bateria-estacionaria-nobraque-jfa-70a-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D632d2af4-dfd8-4078-8b5b-d58f043da189</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1474155563-carregador-fonte-para-bateria-estacionaria-nobraque-jfa-70a-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7f482452-e856-4736-8385-76cc15b63d93</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Voltímetro Digital  Jfa Vs5hi Lançamento 3 Em 1 Som Paredão</t>
+          <t>Carregador Fonte Para Bateria Estacionaria Nobraque Jfa 70a</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="D46" t="inlineStr"/>
+        <v>581.8200000000001</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1924,28 +2012,28 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875304107-voltimetro-digital-jfa-vs5hi-lancamento-3-em-1-som-paredo-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D632d2af4-dfd8-4078-8b5b-d58f043da189</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1474160243-carregador-fonte-para-bateria-estacionaria-nobraque-jfa-70a-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7f482452-e856-4736-8385-76cc15b63d93</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Carregador Fonte Para Bateria Estacionaria Nobraque Jfa 70a</t>
+          <t>Fonte Automotiva 200 Amperes Jfa Storm Redline Cca Sci Smart</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>581.8200000000001</v>
+        <v>939.86</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1964,25 +2052,29 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474160243-carregador-fonte-para-bateria-estacionaria-nobraque-jfa-70a-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D632d2af4-dfd8-4078-8b5b-d58f043da189</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2174587167-fonte-automotiva-200-amperes-jfa-storm-redline-cca-sci-smart-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7f482452-e856-4736-8385-76cc15b63d93</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Voltímetro Jfa Vs5hi Hv/12v Com Sequenciador Tp Stetsom Ajk</t>
+          <t>Fonte Carregador Bateria Jfa 200a Sci Original/nf/garantia</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="D48" t="inlineStr"/>
+        <v>939.86</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1990,19 +2082,19 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875304952-voltimetro-jfa-vs5hi-hv12v-com-sequenciador-tp-stetsom-ajk-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc00ac9d2-4eee-4b20-8996-1804be14a96a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-961801997-fonte-carregador-bateria-jfa-200a-sci-originalnfgarantia-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7f482452-e856-4736-8385-76cc15b63d93</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bateria Jfa 200a Sci Original/nf/garantia</t>
+          <t>Fonte Carregador Jfa 200 Amperes Sci Mais Forte Do Brasil</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2030,23 +2122,23 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-961801997-fonte-carregador-bateria-jfa-200a-sci-originalnfgarantia-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc00ac9d2-4eee-4b20-8996-1804be14a96a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1182763871-fonte-carregador-jfa-200-amperes-sci-mais-forte-do-brasil-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7f482452-e856-4736-8385-76cc15b63d93</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 200 Amperes Jfa Storm Redline Cca Sci Smart</t>
+          <t>Fonte Carregador Jfa Storm 200a Mono - 12v</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>939.86</v>
+        <v>860.98</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2065,29 +2157,25 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174587167-fonte-automotiva-200-amperes-jfa-storm-redline-cca-sci-smart-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc00ac9d2-4eee-4b20-8996-1804be14a96a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3452332428-fonte-carregador-jfa-storm-200a-mono-12v-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7f482452-e856-4736-8385-76cc15b63d93</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200 Amperes Sci Mais Forte Do Brasil</t>
+          <t>Fonte Automotiva Spark Usina 120a + Controle Jfa K600 Comple</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>939.86</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>789</v>
+      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2100,25 +2188,29 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1182763871-fonte-carregador-jfa-200-amperes-sci-mais-forte-do-brasil-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1bcbbd3c-457b-43fe-bdf8-d4487f881633</t>
+          <t>https://produto.mercadolivre.com.br/MLB-933701204-fonte-automotiva-spark-usina-120a-controle-jfa-k600-comple-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7f482452-e856-4736-8385-76cc15b63d93</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 200a Mono - 12v</t>
+          <t>Fonte P/caixa Bob Jfa Storm 200a Bivolt 3800w Sem Bateria</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>860.98</v>
-      </c>
-      <c r="D52" t="inlineStr"/>
+        <v>772.02</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2131,25 +2223,29 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3452332428-fonte-carregador-jfa-storm-200a-mono-12v-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1bcbbd3c-457b-43fe-bdf8-d4487f881633</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717163463-fonte-pcaixa-bob-jfa-storm-200a-bivolt-3800w-sem-bateria-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7f482452-e856-4736-8385-76cc15b63d93</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Spark Usina 120a + Controle Jfa K600 Comple</t>
+          <t>Combo 10 Kits Jfa K600 - Controle Longa Distancia P/ Pioneer</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>789</v>
-      </c>
-      <c r="D53" t="inlineStr"/>
+        <v>699</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2162,25 +2258,29 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-933701204-fonte-automotiva-spark-usina-120a-controle-jfa-k600-comple-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1bcbbd3c-457b-43fe-bdf8-d4487f881633</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1465452768-combo-10-kits-jfa-k600-controle-longa-distancia-p-pioneer-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D81073238-b004-4109-88da-5295773f2205</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Combo 10 Kits Jfa K600 - Controle Longa Distancia P/ Pioneer</t>
+          <t>Fonte Carregador Jfa 120 Amperes Sci Redline Digital Bivolt</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>699</v>
-      </c>
-      <c r="D54" t="inlineStr"/>
+        <v>674.6799999999999</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2193,7 +2293,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465452768-combo-10-kits-jfa-k600-controle-longa-distancia-p-pioneer-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1bcbbd3c-457b-43fe-bdf8-d4487f881633</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1305191694-fonte-carregador-jfa-120-amperes-sci-redline-digital-bivolt-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D81073238-b004-4109-88da-5295773f2205</t>
         </is>
       </c>
     </row>
@@ -2228,14 +2328,14 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1484122024-fonte-automotiva-jfa-120a-amperes-redline-voltimetro-digita-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1bcbbd3c-457b-43fe-bdf8-d4487f881633</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1484122024-fonte-automotiva-jfa-120a-amperes-redline-voltimetro-digita-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D81073238-b004-4109-88da-5295773f2205</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120 Amperes Sci Redline Digital Bivolt</t>
+          <t>Fonte Automotiva Carregador 120a Jfa Voltímetro Original</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2263,23 +2363,23 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305191694-fonte-carregador-jfa-120-amperes-sci-redline-digital-bivolt-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1bcbbd3c-457b-43fe-bdf8-d4487f881633</t>
+          <t>https://produto.mercadolivre.com.br/MLB-961758073-fonte-automotiva-carregador-120a-jfa-voltimetro-original-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D81073238-b004-4109-88da-5295773f2205</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Carregador Bateria Estacionaria Jfa 60a Slim Bivolt </t>
+          <t>Fonte Carregador Jfa 70a Digital Sci Bivolt Volt E Amp 60</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>525.87</v>
+        <v>581.8200000000001</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -2298,14 +2398,14 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474102716-fonte-carregador-bateria-estacionaria-jfa-60a-slim-bivolt-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1bcbbd3c-457b-43fe-bdf8-d4487f881633</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1096345268-fonte-carregador-jfa-70a-digital-sci-bivolt-volt-e-amp-60-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D81073238-b004-4109-88da-5295773f2205</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Carregador Bateria Estacionaria Jfa 60a Slim Bivolt Azul</t>
+          <t xml:space="preserve">Fonte Carregador Bateria Estacionaria Jfa 60a Slim Bivolt </t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2333,14 +2433,14 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474104958-carregador-bateria-estacionaria-jfa-60a-slim-bivolt-azul-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1bcbbd3c-457b-43fe-bdf8-d4487f881633</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1474102716-fonte-carregador-bateria-estacionaria-jfa-60a-slim-bivolt-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D81073238-b004-4109-88da-5295773f2205</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 60 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+          <t>Carregador Bateria Estacionaria Jfa 60a Slim Bivolt Azul</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2368,7 +2468,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164414544-fonte-automotiva-60-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1bcbbd3c-457b-43fe-bdf8-d4487f881633</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1474104958-carregador-bateria-estacionaria-jfa-60a-slim-bivolt-azul-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D81073238-b004-4109-88da-5295773f2205</t>
         </is>
       </c>
     </row>
@@ -2380,13 +2480,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C60" t="n">
         <v>359</v>
       </c>
-      <c r="D60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2399,7 +2503,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465470065-combo-5-kits-jfa-k600-controle-longa-distancia-p-pioneer-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1bcbbd3c-457b-43fe-bdf8-d4487f881633</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1465470065-combo-5-kits-jfa-k600-controle-longa-distancia-p-pioneer-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D81073238-b004-4109-88da-5295773f2205</t>
         </is>
       </c>
     </row>
@@ -2430,14 +2534,14 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1814390398-controle-de-suspenso-ar-jfa-air-control-black-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1bcbbd3c-457b-43fe-bdf8-d4487f881633</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1814390398-controle-de-suspenso-ar-jfa-air-control-black-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D81073238-b004-4109-88da-5295773f2205</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr P Multimídia Import</t>
+          <t>Controle Jfa Suspensão Ar Air Control Longa Distancia +frete</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2446,7 +2550,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>105.93</v>
+        <v>209</v>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
@@ -2461,23 +2565,23 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1331581735-controle-longa-distancia-jfa-redline-wr-p-multimidia-import-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4f91c33c-821f-42ed-90e0-f2f616b7c378</t>
+          <t>https://produto.mercadolivre.com.br/MLB-961825741-controle-jfa-suspenso-ar-air-control-longa-distancia-frete-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D81073238-b004-4109-88da-5295773f2205</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bivolt Brinde Strobo Rgb</t>
+          <t>Controle Longa Distancia Jfa Redline Wr P Multimídia Import</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>679</v>
+        <v>105.93</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2491,30 +2595,34 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1976484775-fonte-carregador-jfa-120a-bivolt-brinde-strobo-rgb-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4f91c33c-821f-42ed-90e0-f2f616b7c378</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1331581735-controle-longa-distancia-jfa-redline-wr-p-multimidia-import-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8af554c7-193e-40d7-bab6-0d0f006a9dc9</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Preto / Cinza K600 Full</t>
+          <t>Controle Longa Distancia Completo Jfa K600 Preto / Laranja</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C64" t="n">
         <v>54.99</v>
       </c>
-      <c r="D64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2527,25 +2635,29 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465503294-controle-longa-distancia-jfa-preto-cinza-k600-full-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4f91c33c-821f-42ed-90e0-f2f616b7c378</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1465507283-controle-longa-distancia-completo-jfa-k600-preto-laranja-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8af554c7-193e-40d7-bab6-0d0f006a9dc9</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sequenciador Voltímetro Medidor Bateria Digital Jfa Vs5 Hi</t>
+          <t>Controle Longa Distancia Completo Jfa K600 Preto / Laranja</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="D65" t="inlineStr"/>
+        <v>59.9</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2553,30 +2665,34 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875286106-sequenciador-voltimetro-medidor-bateria-digital-jfa-vs5-hi-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4f91c33c-821f-42ed-90e0-f2f616b7c378</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1465510869-controle-longa-distancia-completo-jfa-k600-preto-laranja-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8af554c7-193e-40d7-bab6-0d0f006a9dc9</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Voltímetro Jfa Vs5hi 3 Em 1 Sequenciador High Voltagem /12v</t>
+          <t>Controle Longa Distancia Jfa Redline Wr P/ Aparelho Original</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>77.98999999999999</v>
-      </c>
-      <c r="D66" t="inlineStr"/>
+        <v>100.98</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2589,25 +2705,29 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875290424-voltimetro-jfa-vs5hi-3-em-1-sequenciador-high-voltagem-12v-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4f91c33c-821f-42ed-90e0-f2f616b7c378</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1331588058-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De6104211-2d70-4d27-9608-f5f8c72ff4c3</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 200a Mono - 12v</t>
+          <t>Controle Longa Distância Jfa K600 Preto Laranja +frete</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>818.46</v>
-      </c>
-      <c r="D67" t="inlineStr"/>
+        <v>59.9</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2615,30 +2735,34 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3284164699-fonte-carregador-jfa-storm-200a-mono-12v-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4f91c33c-821f-42ed-90e0-f2f616b7c378</t>
+          <t>https://produto.mercadolivre.com.br/MLB-960908168-controle-longa-distncia-jfa-k600-preto-laranja-frete-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De6104211-2d70-4d27-9608-f5f8c72ff4c3</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 Cor Preto Verde + Frete</t>
+          <t xml:space="preserve">Fonte Carregador Bateria Estacionaria Jfa 60a Slim Bivolt </t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="D68" t="inlineStr"/>
+        <v>492.3</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2646,19 +2770,19 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-960924608-controle-longa-distncia-jfa-k600-cor-preto-verde-frete-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4f91c33c-821f-42ed-90e0-f2f616b7c378</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1474102729-fonte-carregador-bateria-estacionaria-jfa-60a-slim-bivolt-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De6104211-2d70-4d27-9608-f5f8c72ff4c3</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Completo Jfa K600 Preto / Laranja</t>
+          <t>Controle De Suspensão Ar Jfa Air Control Black</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2667,7 +2791,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>59.9</v>
+        <v>193</v>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
@@ -2677,30 +2801,34 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465510869-controle-longa-distancia-completo-jfa-k600-preto-laranja-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4f91c33c-821f-42ed-90e0-f2f616b7c378</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1814400383-controle-de-suspenso-ar-jfa-air-control-black-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De6104211-2d70-4d27-9608-f5f8c72ff4c3</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 + Central Preto / Laranja</t>
+          <t>Fonte Automotiva 200 A Jfa Carregador Modelo Slim Pro</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="D70" t="inlineStr"/>
+        <v>895.1</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E70" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2708,19 +2836,19 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-960900243-controle-longa-distncia-jfa-k600-central-preto-laranja-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1f6c5869-88c6-4e18-a9c4-608bc5d46760</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1011493129-fonte-automotiva-200-a-jfa-carregador-modelo-slim-pro-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De6104211-2d70-4d27-9608-f5f8c72ff4c3</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Completo Jfa K600 Preto / Laranja</t>
+          <t>Conversor Rca Jfa Slim Com Comando Remoto Som</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2729,7 +2857,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>54.99</v>
+        <v>37.9</v>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
@@ -2744,25 +2872,29 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465507283-controle-longa-distancia-completo-jfa-k600-preto-laranja-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1f6c5869-88c6-4e18-a9c4-608bc5d46760</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3323947835-conversor-rca-jfa-slim-com-comando-remoto-som-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9a35c55c-c389-4651-8051-c24ec0c2562c</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr P/ Aparelho Original</t>
+          <t>Fonte Automotiva 120 A Jfa Carregador Tp Stetsom Full</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>100.98</v>
-      </c>
-      <c r="D72" t="inlineStr"/>
+        <v>634.4</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E72" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2770,32 +2902,32 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1331588058-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1f6c5869-88c6-4e18-a9c4-608bc5d46760</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237790160-fonte-automotiva-120-a-jfa-carregador-tp-stetsom-full-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9a35c55c-c389-4651-8051-c24ec0c2562c</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Carregador Bateria Estacionaria Jfa 60a Slim Bivolt </t>
+          <t>Controle Longa Distancia Completo Jfa K600 Preto / Verde</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>492.3</v>
+        <v>59.9</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2805,19 +2937,19 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474102729-fonte-carregador-bateria-estacionaria-jfa-60a-slim-bivolt-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1f6c5869-88c6-4e18-a9c4-608bc5d46760</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1465507809-controle-longa-distancia-completo-jfa-k600-preto-verde-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9a35c55c-c389-4651-8051-c24ec0c2562c</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 Preto Laranja +frete</t>
+          <t>Melhor Fonte 70a Caixa Bob Jfa 70a Storm Lite 110/220v</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2826,7 +2958,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>59.9</v>
+        <v>498.08</v>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
@@ -2836,30 +2968,34 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-960908168-controle-longa-distncia-jfa-k600-preto-laranja-frete-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1f6c5869-88c6-4e18-a9c4-608bc5d46760</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3312818505-melhor-fonte-70a-caixa-bob-jfa-70a-storm-lite-110220v-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9a35c55c-c389-4651-8051-c24ec0c2562c</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Controle De Suspensão Ar Jfa Air Control Black</t>
+          <t>Fonte Carregador Jfa Storm 200a Monovolt Flutuação Proteção</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>193</v>
-      </c>
-      <c r="D75" t="inlineStr"/>
+        <v>860.98</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E75" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2867,32 +3003,32 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1814400383-controle-de-suspenso-ar-jfa-air-control-black-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1f6c5869-88c6-4e18-a9c4-608bc5d46760</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3452331742-fonte-carregador-jfa-storm-200a-monovolt-flutuaco-proteco-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9a35c55c-c389-4651-8051-c24ec0c2562c</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 200 A Jfa Carregador Modelo Slim Pro</t>
+          <t>Nova Fonte Carregador Jfa Storm Lite 200a Bivolt</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>895.1</v>
+        <v>716.71</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2902,30 +3038,34 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1011493129-fonte-automotiva-200-a-jfa-carregador-modelo-slim-pro-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab86fc60-0a4a-43c3-937e-26aaf836e9ba</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3602873494-nova-fonte-carregador-jfa-storm-lite-200a-bivolt-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9a35c55c-c389-4651-8051-c24ec0c2562c</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Completo Jfa K600 Preto / Verde</t>
+          <t>Fonte Automotiva 200a Jfa Carregador Modelo Novo Pro</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="D77" t="inlineStr"/>
+        <v>939.86</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E77" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2938,25 +3078,29 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465507809-controle-longa-distancia-completo-jfa-k600-preto-verde-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab86fc60-0a4a-43c3-937e-26aaf836e9ba</t>
+          <t>https://produto.mercadolivre.com.br/MLB-982208316-fonte-automotiva-200a-jfa-carregador-modelo-novo-pro-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9a35c55c-c389-4651-8051-c24ec0c2562c</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Voltímetro Jfa Vs5hi Hv/12v Sequenciador Caixa Bob Paredão</t>
+          <t>Carregador Bateria Inteligente Jfa 120a Sci Muito Forte</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>77.98999999999999</v>
-      </c>
-      <c r="D78" t="inlineStr"/>
+        <v>674.6799999999999</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E78" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2969,27 +3113,27 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875305667-voltimetro-jfa-vs5hi-hv12v-sequenciador-caixa-bob-paredo-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab86fc60-0a4a-43c3-937e-26aaf836e9ba</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237793041-carregador-bateria-inteligente-jfa-120a-sci-muito-forte-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9a35c55c-c389-4651-8051-c24ec0c2562c</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Fonte P/caixa Bob Jfa Storm 200a Bivolt 3800w Sem Bateria</t>
+          <t>Fonte Carregador Inteligente Jfa 120 Amperes Sci Modelo Full</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>772.02</v>
+        <v>674.6799999999999</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3004,25 +3148,29 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717163463-fonte-pcaixa-bob-jfa-storm-200a-bivolt-3800w-sem-bateria-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab86fc60-0a4a-43c3-937e-26aaf836e9ba</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237796246-fonte-carregador-inteligente-jfa-120-amperes-sci-modelo-full-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9a35c55c-c389-4651-8051-c24ec0c2562c</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Melhor Fonte 70a Caixa Bob Jfa 70a Storm Lite 110/220v</t>
+          <t>Fonte Caregador Jfa 60a Voltímetro/ Amp Redline Sci Bivolt</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>498.08</v>
-      </c>
-      <c r="D80" t="inlineStr"/>
+        <v>525.87</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E80" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3030,30 +3178,34 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3312818505-melhor-fonte-70a-caixa-bob-jfa-70a-storm-lite-110220v-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab86fc60-0a4a-43c3-937e-26aaf836e9ba</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1728436916-fonte-caregador-jfa-60a-voltimetro-amp-redline-sci-bivolt-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9a35c55c-c389-4651-8051-c24ec0c2562c</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Conversor Rca Jfa Slim Com Comando Remoto Som</t>
+          <t>Fonte Carregador Jfa 90a Bob Storm Slim Bivolt 110v 220v</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="D81" t="inlineStr"/>
+        <v>469.92</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E81" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3066,14 +3218,14 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3323947835-conversor-rca-jfa-slim-com-comando-remoto-som-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab86fc60-0a4a-43c3-937e-26aaf836e9ba</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2927412531-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-110v-220v-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D076b0197-1560-4daf-8626-e9bdd2cbb186</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Controle Jfa Suspensão Ar Air Control Longa Distancia +frete</t>
+          <t>Melhor Fonte 200a Caixa Bob Jfa 200a Storm Lite 110/220v</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3082,7 +3234,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>209</v>
+        <v>681.83</v>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
@@ -3092,28 +3244,28 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-961825741-controle-jfa-suspenso-ar-air-control-longa-distancia-frete-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab86fc60-0a4a-43c3-937e-26aaf836e9ba</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3603511600-melhor-fonte-200a-caixa-bob-jfa-200a-storm-lite-110220v-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D076b0197-1560-4daf-8626-e9bdd2cbb186</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 200a Jfa Carregador Modelo Novo Pro</t>
+          <t>Fonte Carregador 60a Jfa Automotiva Similar Stetsom 60a</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>939.86</v>
+        <v>492.3</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -3127,28 +3279,28 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-982208316-fonte-automotiva-200a-jfa-carregador-modelo-novo-pro-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab86fc60-0a4a-43c3-937e-26aaf836e9ba</t>
+          <t>https://produto.mercadolivre.com.br/MLB-959311307-fonte-carregador-60a-jfa-automotiva-similar-stetsom-60a-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D076b0197-1560-4daf-8626-e9bdd2cbb186</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Digital Sci Bivolt Volt E Amp 60</t>
+          <t>Combo 10 Kits Jfa K600 - Controle Longa Distancia P/ Pioneer</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>581.8200000000001</v>
+        <v>679</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -3162,32 +3314,32 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1096345268-fonte-carregador-jfa-70a-digital-sci-bivolt-volt-e-amp-60-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab86fc60-0a4a-43c3-937e-26aaf836e9ba</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1465449219-combo-10-kits-jfa-k600-controle-longa-distancia-p-pioneer-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D076b0197-1560-4daf-8626-e9bdd2cbb186</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Fonte Carregador Inteligente Jfa 120 Amperes Sci Modelo Full</t>
+          <t>Fonte Carregador Para Sistema Solar Jfa 70a Bivolt</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>674.6799999999999</v>
+        <v>548.24</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3197,28 +3349,28 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237796246-fonte-carregador-inteligente-jfa-120-amperes-sci-modelo-full-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab86fc60-0a4a-43c3-937e-26aaf836e9ba</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1474160263-fonte-carregador-para-sistema-solar-jfa-70a-bivolt-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D076b0197-1560-4daf-8626-e9bdd2cbb186</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 90a Bob Storm Slim Bivolt 110v 220v</t>
+          <t>Fonte Carregador Automotivo Jfa 60a Redline 110/220v</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>469.92</v>
+        <v>492.3</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -3237,25 +3389,29 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2927412531-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-110v-220v-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da7495a06-e3c0-4c19-9ecf-f2ceba8af3dc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1728434359-fonte-carregador-automotivo-jfa-60a-redline-110220v-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D076b0197-1560-4daf-8626-e9bdd2cbb186</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 200a Monovolt Flutuação Proteção</t>
+          <t>Fonte Carregador Jfa Storm 200a Carga Lenta Motor Home</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>860.98</v>
-      </c>
-      <c r="D87" t="inlineStr"/>
+        <v>939.86</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3268,27 +3424,27 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3452331742-fonte-carregador-jfa-storm-200a-monovolt-flutuaco-proteco-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da7495a06-e3c0-4c19-9ecf-f2ceba8af3dc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2174567593-fonte-carregador-jfa-storm-200a-carga-lenta-motor-home-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D076b0197-1560-4daf-8626-e9bdd2cbb186</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Nova Fonte Carregador Jfa Storm Lite 200a Bivolt</t>
+          <t>Controle Universal Longa Jfa K600 Preto Laranja Modo Aprende</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>716.71</v>
+        <v>54.99</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3298,30 +3454,34 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3602873494-nova-fonte-carregador-jfa-storm-lite-200a-bivolt-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da7495a06-e3c0-4c19-9ecf-f2ceba8af3dc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3311467587-controle-universal-longa-jfa-k600-preto-laranja-modo-aprende-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D076b0197-1560-4daf-8626-e9bdd2cbb186</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Melhor Fonte 200a Caixa Bob Jfa 200a Storm Lite 110/220v</t>
+          <t>Nova Fonte Carregador Jfa Storm Lite 70a Bivolt</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>681.83</v>
-      </c>
-      <c r="D89" t="inlineStr"/>
+        <v>529.38</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E89" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3329,34 +3489,30 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3603511600-melhor-fonte-200a-caixa-bob-jfa-200a-storm-lite-110220v-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da7495a06-e3c0-4c19-9ecf-f2ceba8af3dc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3312740317-nova-fonte-carregador-jfa-storm-lite-70a-bivolt-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D076b0197-1560-4daf-8626-e9bdd2cbb186</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Fonte Carregador 60a Jfa Automotiva Similar Stetsom 60a</t>
+          <t>Melhor Fonte 70a Caixa Bob Jfa 70a Storm Lite 110/220v</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>492.3</v>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>529.38</v>
+      </c>
+      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3364,34 +3520,30 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-959311307-fonte-carregador-60a-jfa-automotiva-similar-stetsom-60a-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da7495a06-e3c0-4c19-9ecf-f2ceba8af3dc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3312748981-melhor-fonte-70a-caixa-bob-jfa-70a-storm-lite-110220v-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db982834e-5adb-4823-b705-a5e177275ba2</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120 A Jfa Carregador Tp Stetsom Full</t>
+          <t>Fonte Carregador Jfa 70a Storm Lite Bivolt P/ Caixa Bob</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>634.4</v>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>529.38</v>
+      </c>
+      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3399,32 +3551,32 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237790160-fonte-automotiva-120-a-jfa-carregador-tp-stetsom-full-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da7495a06-e3c0-4c19-9ecf-f2ceba8af3dc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3312773083-fonte-carregador-jfa-70a-storm-lite-bivolt-p-caixa-bob-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db982834e-5adb-4823-b705-a5e177275ba2</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Carregador Bateria Inteligente Jfa 120a Sci Muito Forte</t>
+          <t>Fonte Carregador Automotiva 200 A Jfa Muito Forte</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>674.6799999999999</v>
+        <v>939.86</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3439,25 +3591,29 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237793041-carregador-bateria-inteligente-jfa-120a-sci-muito-forte-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da7495a06-e3c0-4c19-9ecf-f2ceba8af3dc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-982208051-fonte-carregador-automotiva-200-a-jfa-muito-forte-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db982834e-5adb-4823-b705-a5e177275ba2</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Combo 10 Kits Jfa K600 - Controle Longa Distancia P/ Pioneer</t>
+          <t>Fonte Automotiva Jfa 60a Slim Azul Bivolt Voltímetro Digital</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>679</v>
-      </c>
-      <c r="D93" t="inlineStr"/>
+        <v>525.87</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E93" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3465,28 +3621,28 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465449219-combo-10-kits-jfa-k600-controle-longa-distancia-p-pioneer-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da7495a06-e3c0-4c19-9ecf-f2ceba8af3dc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1474104428-fonte-automotiva-jfa-60a-slim-azul-bivolt-voltimetro-digital-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db982834e-5adb-4823-b705-a5e177275ba2</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Fonte Carregador Para Sistema Solar Jfa 70a Bivolt</t>
+          <t>Carregador Bateria Estacionaria Jfa 60a Slim Bivolt Azul</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>548.24</v>
+        <v>492.3</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -3505,23 +3661,23 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474160263-fonte-carregador-para-sistema-solar-jfa-70a-bivolt-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da7495a06-e3c0-4c19-9ecf-f2ceba8af3dc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1474108881-carregador-bateria-estacionaria-jfa-60a-slim-bivolt-azul-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db982834e-5adb-4823-b705-a5e177275ba2</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 60a Redline 110/220v</t>
+          <t>Fonte Carregador Jfa 70a Slim Mais Forte Que 60a Azul</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492.3</v>
+        <v>581.8200000000001</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -3535,34 +3691,30 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1728434359-fonte-carregador-automotivo-jfa-60a-redline-110220v-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D421ec75d-e007-4204-864a-2abcc1090247</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1474159062-fonte-carregador-jfa-70a-slim-mais-forte-que-60a-azul-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db982834e-5adb-4823-b705-a5e177275ba2</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Fonte Caregador Jfa 60a Voltímetro/ Amp Redline Sci Bivolt</t>
+          <t>Controle De Suspensão Ar Jfa Air Control  Castor Tebão</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>525.87</v>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3575,23 +3727,23 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1728436916-fonte-caregador-jfa-60a-voltimetro-amp-redline-sci-bivolt-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D421ec75d-e007-4204-864a-2abcc1090247</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1814404764-controle-de-suspenso-ar-jfa-air-control-castor-tebo-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db982834e-5adb-4823-b705-a5e177275ba2</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 200a Carga Lenta Motor Home</t>
+          <t>Fonte Carregador Jfa 60a Redline Red Line Smart Cooler</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>939.86</v>
+        <v>492.3</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -3605,28 +3757,28 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174567593-fonte-carregador-jfa-storm-200a-carga-lenta-motor-home-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D421ec75d-e007-4204-864a-2abcc1090247</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1983201489-fonte-carregador-jfa-60a-redline-red-line-smart-cooler-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db982834e-5adb-4823-b705-a5e177275ba2</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Caixa Bob Bivolt</t>
+          <t>Fonte Automotiva 200 Amperes Jfa Storm Redline Cca Sci Smart</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>599.71</v>
+        <v>895.1</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -3640,30 +3792,34 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2743232314-fonte-carregador-jfa-120a-caixa-bob-bivolt-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D421ec75d-e007-4204-864a-2abcc1090247</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2174561637-fonte-automotiva-200-amperes-jfa-storm-redline-cca-sci-smart-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db982834e-5adb-4823-b705-a5e177275ba2</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Melhor Fonte 70a Caixa Bob Jfa 70a Storm Lite 110/220v</t>
+          <t>Fonte Carregador Jfa 120a Caixa Bob Bivolt</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>529.38</v>
-      </c>
-      <c r="D99" t="inlineStr"/>
+        <v>599.71</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E99" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3676,25 +3832,29 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3312748981-melhor-fonte-70a-caixa-bob-jfa-70a-storm-lite-110220v-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D421ec75d-e007-4204-864a-2abcc1090247</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2743232314-fonte-carregador-jfa-120a-caixa-bob-bivolt-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db982834e-5adb-4823-b705-a5e177275ba2</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Storm Lite Bivolt P/ Caixa Bob</t>
+          <t>Fonte Jfa Para Caixa Bob Esponja Storm 200a Bivolt Forte</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>529.38</v>
-      </c>
-      <c r="D100" t="inlineStr"/>
+        <v>772.02</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E100" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3707,27 +3867,27 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3312773083-fonte-carregador-jfa-70a-storm-lite-bivolt-p-caixa-bob-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D421ec75d-e007-4204-864a-2abcc1090247</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717124434-fonte-jfa-para-caixa-bob-esponja-storm-200a-bivolt-forte-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db982834e-5adb-4823-b705-a5e177275ba2</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Carregador 120a Jfa Voltímetro Original</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>674.6799999999999</v>
+        <v>492.3</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3742,23 +3902,23 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-961758073-fonte-automotiva-carregador-120a-jfa-voltimetro-original-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D421ec75d-e007-4204-864a-2abcc1090247</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2927430679-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db982834e-5adb-4823-b705-a5e177275ba2</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva 200 A Jfa Muito Forte</t>
+          <t>Fonte Carregador Jfa 90a Para Caixa Som Bob Bivolt Slim</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>939.86</v>
+        <v>492.3</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -3777,27 +3937,27 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-982208051-fonte-carregador-automotiva-200-a-jfa-muito-forte-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D421ec75d-e007-4204-864a-2abcc1090247</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2927505070-fonte-carregador-jfa-90a-para-caixa-som-bob-bivolt-slim-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db982834e-5adb-4823-b705-a5e177275ba2</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Slim Mais Forte Que 60a Azul</t>
+          <t>Controle Universal Longa Jfa K1200 Preto C/ Laranja Original</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>581.8200000000001</v>
+        <v>61.19</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3807,32 +3967,32 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474159062-fonte-carregador-jfa-70a-slim-mais-forte-que-60a-azul-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D421ec75d-e007-4204-864a-2abcc1090247</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3306061097-controle-universal-longa-jfa-k1200-preto-c-laranja-original-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D693ca5a1-7829-445f-bc9e-7194f77ac59e</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Redline Red Line Smart Cooler</t>
+          <t>Controle Longa Jfa K600 Preto Laranja + Central Universal</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>492.3</v>
+        <v>59.9</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3842,32 +4002,32 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1983201489-fonte-carregador-jfa-60a-redline-red-line-smart-cooler-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D421ec75d-e007-4204-864a-2abcc1090247</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3311456007-controle-longa-jfa-k600-preto-laranja-central-universal-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D693ca5a1-7829-445f-bc9e-7194f77ac59e</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 200 Amperes Jfa Storm Redline Cca Sci Smart</t>
+          <t>Nova Fonte Carregador Jfa Storm Lite 200a Bivolt</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>895.1</v>
+        <v>681.83</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3882,27 +4042,27 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174561637-fonte-automotiva-200-amperes-jfa-storm-redline-cca-sci-smart-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D79e219b8-dcbd-4d14-807f-611080f0772c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3312850317-nova-fonte-carregador-jfa-storm-lite-200a-bivolt-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D693ca5a1-7829-445f-bc9e-7194f77ac59e</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático</t>
+          <t>Controle Longa Jfa K600 Preto Laranja + Central Universal</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>492.3</v>
+        <v>54.99</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3912,32 +4072,32 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2927430679-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D79e219b8-dcbd-4d14-807f-611080f0772c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3597180890-controle-longa-jfa-k600-preto-laranja-central-universal-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D693ca5a1-7829-445f-bc9e-7194f77ac59e</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Fonte Jfa Para Caixa Bob Esponja Storm 200a Bivolt Forte</t>
+          <t>Controle Longa Distância Jfa K600 + Central Cor Preto Verde</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>772.02</v>
+        <v>59.9</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3952,23 +4112,23 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717124434-fonte-jfa-para-caixa-bob-esponja-storm-200a-bivolt-forte-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D79e219b8-dcbd-4d14-807f-611080f0772c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-960924431-controle-longa-distncia-jfa-k600-central-cor-preto-verde-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D693ca5a1-7829-445f-bc9e-7194f77ac59e</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 90a Para Caixa Som Bob Bivolt Slim</t>
+          <t>Fonte Automotiva Jfa 200a Slim Bivolt Voltímetro Digital Som Full</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>492.3</v>
+        <v>895.1</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -3982,30 +4142,34 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2927505070-fonte-carregador-jfa-90a-para-caixa-som-bob-bivolt-slim-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D79e219b8-dcbd-4d14-807f-611080f0772c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1182763841-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-full-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D693ca5a1-7829-445f-bc9e-7194f77ac59e</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Controle Universal Longa Jfa K1200 Preto C/ Laranja Original</t>
+          <t>Fonte Automotiva 120a Jfa Carregador Slim Oferta Pro</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>61.19</v>
-      </c>
-      <c r="D109" t="inlineStr"/>
+        <v>634.4</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E109" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4018,25 +4182,29 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3306061097-controle-universal-longa-jfa-k1200-preto-c-laranja-original-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D79e219b8-dcbd-4d14-807f-611080f0772c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237795152-fonte-automotiva-120a-jfa-carregador-slim-oferta-pro-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D693ca5a1-7829-445f-bc9e-7194f77ac59e</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Controle Longa Jfa K600 Preto Laranja + Central Universal</t>
+          <t>Fonte Carregador 120 A Jfa Com Sistema Sci Volt/amp</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="D110" t="inlineStr"/>
+        <v>634.4</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E110" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4044,30 +4212,34 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3311456007-controle-longa-jfa-k600-preto-laranja-central-universal-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D79e219b8-dcbd-4d14-807f-611080f0772c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1311934454-fonte-carregador-120-a-jfa-com-sistema-sci-voltamp-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D693ca5a1-7829-445f-bc9e-7194f77ac59e</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Controle Universal Longa Jfa K600 Preto Laranja Modo Aprende</t>
+          <t>Jfa K600 - Combo 10 Peças Longa Distancia Cores Variadas</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>54.99</v>
-      </c>
-      <c r="D111" t="inlineStr"/>
+        <v>699</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E111" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4075,28 +4247,28 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3311467587-controle-universal-longa-jfa-k600-preto-laranja-modo-aprende-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D79e219b8-dcbd-4d14-807f-611080f0772c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1465449338-jfa-k600-combo-10-pecas-longa-distancia-cores-variadas-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D693ca5a1-7829-445f-bc9e-7194f77ac59e</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Nova Fonte Carregador Jfa Storm Lite 70a Bivolt</t>
+          <t>Jfa K600 - Combo 10 Peças Longa Distancia Cores Variadas</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>529.38</v>
+        <v>679</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -4110,30 +4282,34 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3312740317-nova-fonte-carregador-jfa-storm-lite-70a-bivolt-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D79e219b8-dcbd-4d14-807f-611080f0772c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1465449501-jfa-k600-combo-10-pecas-longa-distancia-cores-variadas-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D693ca5a1-7829-445f-bc9e-7194f77ac59e</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 + Central Branco Cinza</t>
+          <t>Carregador Bateria Jfa 60a Slim Bivolt 2020 Azul</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="D113" t="inlineStr"/>
+        <v>492.3</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E113" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4141,30 +4317,34 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-960910241-controle-longa-distncia-jfa-k600-central-branco-cinza-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D79e219b8-dcbd-4d14-807f-611080f0772c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1474108361-carregador-bateria-jfa-60a-slim-bivolt-2020-azul-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D693ca5a1-7829-445f-bc9e-7194f77ac59e</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 + Central Cor Preto Verde</t>
+          <t>Fonte Carregador Para Sistema Solar Jfa 70a Bivolt</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="D114" t="inlineStr"/>
+        <v>581.8200000000001</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E114" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4177,23 +4357,23 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-960924431-controle-longa-distncia-jfa-k600-central-cor-preto-verde-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D79e219b8-dcbd-4d14-807f-611080f0772c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1474159284-fonte-carregador-para-sistema-solar-jfa-70a-bivolt-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D693ca5a1-7829-445f-bc9e-7194f77ac59e</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a Slim Bivolt Voltímetro Digital Som Full</t>
+          <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>895.1</v>
+        <v>581.8099999999999</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -4207,34 +4387,30 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1182763841-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-full-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D79e219b8-dcbd-4d14-807f-611080f0772c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164486789-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D82006029-effa-40ac-af80-f6ab6b0b4f47</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Jfa Carregador Slim Oferta Pro</t>
+          <t>Fonte Carregador Jfa 70a Storm Lite Bivolt P/ Caixa Bob</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>634.4</v>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>498.08</v>
+      </c>
+      <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4247,27 +4423,27 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237795152-fonte-automotiva-120a-jfa-carregador-slim-oferta-pro-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D79e219b8-dcbd-4d14-807f-611080f0772c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3312798569-fonte-carregador-jfa-70a-storm-lite-bivolt-p-caixa-bob-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D82006029-effa-40ac-af80-f6ab6b0b4f47</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Fonte Carregador 120 A Jfa Com Sistema Sci Volt/amp</t>
+          <t>Controle Longa Jfa K600 Preto / Verde + Central Universal</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>634.4</v>
+        <v>54.99</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4282,27 +4458,27 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1311934454-fonte-carregador-120-a-jfa-com-sistema-sci-voltamp-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D79e219b8-dcbd-4d14-807f-611080f0772c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3597035906-controle-longa-jfa-k600-preto-verde-central-universal-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D82006029-effa-40ac-af80-f6ab6b0b4f47</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Jfa K600 - Combo 10 Peças Longa Distancia Cores Variadas</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Sci Redline Bivolt Som</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>699</v>
+        <v>674.6799999999999</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -4317,27 +4493,27 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465449338-jfa-k600-combo-10-pecas-longa-distancia-cores-variadas-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D79e219b8-dcbd-4d14-807f-611080f0772c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1305190815-fonte-carregador-automotivo-jfa-120a-sci-redline-bivolt-som-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D82006029-effa-40ac-af80-f6ab6b0b4f47</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Jfa K600 - Combo 10 Peças Longa Distancia Cores Variadas</t>
+          <t>Fonte Automotiva Jfa 200a Redline Digital Sci Pwm Eae Bivolt</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>679</v>
+        <v>845.87</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -4347,32 +4523,32 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465449501-jfa-k600-combo-10-pecas-longa-distancia-cores-variadas-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D79e219b8-dcbd-4d14-807f-611080f0772c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1305219292-fonte-automotiva-jfa-200a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D82006029-effa-40ac-af80-f6ab6b0b4f47</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 60a Slim Azul Bivolt Voltímetro Digital</t>
+          <t>Fonte Carregador Jfa 120 Amperes Sci Redline Digital Bivolt</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>525.87</v>
+        <v>634.4</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4382,28 +4558,28 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474104428-fonte-automotiva-jfa-60a-slim-azul-bivolt-voltimetro-digital-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D79e219b8-dcbd-4d14-807f-611080f0772c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1305191761-fonte-carregador-jfa-120-amperes-sci-redline-digital-bivolt-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D82006029-effa-40ac-af80-f6ab6b0b4f47</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Carregador Bateria Jfa 60a Slim Bivolt 2020 Azul</t>
+          <t>Fonte Carregador Jfa 70a Digital Sci Bivolt Volt Amp Full</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>492.3</v>
+        <v>581.8200000000001</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -4417,32 +4593,32 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474108361-carregador-bateria-jfa-60a-slim-bivolt-2020-azul-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D79e219b8-dcbd-4d14-807f-611080f0772c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1309055784-fonte-carregador-jfa-70a-digital-sci-bivolt-volt-amp-full-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D82006029-effa-40ac-af80-f6ab6b0b4f47</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Fonte Carregador Para Sistema Solar Jfa 70a Bivolt</t>
+          <t>Jfa K600 - Combo 5 Peças Longa Distancia Cores Variadas</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>581.8200000000001</v>
+        <v>359</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4457,25 +4633,29 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474159284-fonte-carregador-para-sistema-solar-jfa-70a-bivolt-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D79e219b8-dcbd-4d14-807f-611080f0772c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1465466670-jfa-k600-combo-5-pecas-longa-distancia-cores-variadas-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D82006029-effa-40ac-af80-f6ab6b0b4f47</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Controle De Suspensão Ar Jfa Air Control  Castor Tebão</t>
+          <t>Controle K600 Jfa Preto Cinza Mais Barato Do Brasil</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>209</v>
-      </c>
-      <c r="D123" t="inlineStr"/>
+        <v>54.99</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E123" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4483,32 +4663,32 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1814404764-controle-de-suspenso-ar-jfa-air-control-castor-tebo-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3965f9a2-8fa1-4c9e-9e0f-94295fe9e7e4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1465520187-controle-k600-jfa-preto-cinza-mais-barato-do-brasil-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D82006029-effa-40ac-af80-f6ab6b0b4f47</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+          <t>Fonte Automotiva Jfa 120a Redline Digital Sci Pwm Eae Bivolt</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>581.8099999999999</v>
+        <v>674.6799999999999</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -4523,25 +4703,29 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164486789-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3965f9a2-8fa1-4c9e-9e0f-94295fe9e7e4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1728434390-fonte-automotiva-jfa-120a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D82006029-effa-40ac-af80-f6ab6b0b4f47</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Storm Lite Bivolt P/ Caixa Bob</t>
+          <t>Fonte Carregador Jfa 120a Storm Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>498.08</v>
-      </c>
-      <c r="D125" t="inlineStr"/>
+        <v>634.4</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E125" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4554,27 +4738,27 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3312798569-fonte-carregador-jfa-70a-storm-lite-bivolt-p-caixa-bob-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3965f9a2-8fa1-4c9e-9e0f-94295fe9e7e4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2161596310-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da62deb73-df4d-42e1-a33b-70800e677447</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Nova Fonte Carregador Jfa Storm Lite 200a Bivolt</t>
+          <t>Carregador Jfa Storm 60a 14,4v Mais Completa Smart Cca Sci</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>681.83</v>
+        <v>525.87</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -4584,30 +4768,34 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3312850317-nova-fonte-carregador-jfa-storm-lite-200a-bivolt-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3965f9a2-8fa1-4c9e-9e0f-94295fe9e7e4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164392561-carregador-jfa-storm-60a-144v-mais-completa-smart-cca-sci-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da62deb73-df4d-42e1-a33b-70800e677447</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Controle Longa Jfa K600 Preto Laranja + Central Universal</t>
+          <t>Carregador Jfa Storm 200a 14,4v Mais Completa Smart Cca Sci</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>54.99</v>
-      </c>
-      <c r="D127" t="inlineStr"/>
+        <v>939.86</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E127" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4615,24 +4803,24 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3597180890-controle-longa-jfa-k600-preto-laranja-central-universal-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3965f9a2-8fa1-4c9e-9e0f-94295fe9e7e4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2174560779-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-sci-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da62deb73-df4d-42e1-a33b-70800e677447</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Sci Redline Bivolt Som</t>
+          <t>Fonte Carregador Jfa 120a Storm Bivolt P/ Caixa Bob</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -4640,7 +4828,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -4655,14 +4843,14 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305190815-fonte-carregador-automotivo-jfa-120a-sci-redline-bivolt-som-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3965f9a2-8fa1-4c9e-9e0f-94295fe9e7e4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2161622734-fonte-carregador-jfa-120a-storm-bivolt-p-caixa-bob-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da62deb73-df4d-42e1-a33b-70800e677447</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a Redline Digital Sci Pwm Eae Bivolt</t>
+          <t>Fonte Carregador Jfa Storm 200a Bivolt 14,4v Sci Medidor Cca</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4671,11 +4859,11 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>845.87</v>
+        <v>939.86</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -4690,23 +4878,23 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305219292-fonte-automotiva-jfa-200a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3965f9a2-8fa1-4c9e-9e0f-94295fe9e7e4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2174579586-fonte-carregador-jfa-storm-200a-bivolt-144v-sci-medidor-cca-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da62deb73-df4d-42e1-a33b-70800e677447</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Digital Sci Bivolt Volt Amp Full</t>
+          <t>Fonte Jfa Storm 200a Bob Carregador Automático Bivolt</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>581.8200000000001</v>
+        <v>772.02</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -4725,27 +4913,27 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1309055784-fonte-carregador-jfa-70a-digital-sci-bivolt-volt-amp-full-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3965f9a2-8fa1-4c9e-9e0f-94295fe9e7e4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717157623-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da62deb73-df4d-42e1-a33b-70800e677447</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120 Amperes Sci Redline Digital Bivolt</t>
+          <t>Controle Longa Distância Jfa K1200 Resistente A Água Branco</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>634.4</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -4755,32 +4943,32 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305191761-fonte-carregador-jfa-120-amperes-sci-redline-digital-bivolt-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3965f9a2-8fa1-4c9e-9e0f-94295fe9e7e4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2724231242-controle-longa-distncia-jfa-k1200-resistente-a-agua-branco-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da62deb73-df4d-42e1-a33b-70800e677447</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Jfa K600 - Combo 5 Peças Longa Distancia Cores Variadas</t>
+          <t>Fonte P/caixa Bob Jfa Storm 200a Bivolt 3800w Sem Bateria</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>359</v>
+        <v>693.7</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -4790,28 +4978,28 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465466670-jfa-k600-combo-5-pecas-longa-distancia-cores-variadas-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3965f9a2-8fa1-4c9e-9e0f-94295fe9e7e4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717191956-fonte-pcaixa-bob-jfa-storm-200a-bivolt-3800w-sem-bateria-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da62deb73-df4d-42e1-a33b-70800e677447</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Carregador Bateria Estacionaria Jfa 60a Slim Bivolt Azul</t>
+          <t>Fonte Carregador Jfa 90a Para Caixa Som Bob Bivolt Slim</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>492.3</v>
+        <v>469.92</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -4830,27 +5018,27 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474108881-carregador-bateria-estacionaria-jfa-60a-slim-bivolt-azul-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9d6475f0-48dc-49a3-993c-5694e62c8747</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2927387667-fonte-carregador-jfa-90a-para-caixa-som-bob-bivolt-slim-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da62deb73-df4d-42e1-a33b-70800e677447</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 120a Redline Digital Sci Pwm Eae Bivolt</t>
+          <t>Fonte Carregador Jfa Storm 200a Monovolt Flutuação Proteção</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>674.6799999999999</v>
+        <v>818.46</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -4860,32 +5048,32 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1728434390-fonte-automotiva-jfa-120a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9d6475f0-48dc-49a3-993c-5694e62c8747</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3284198989-fonte-carregador-jfa-storm-200a-monovolt-flutuaco-proteco-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da62deb73-df4d-42e1-a33b-70800e677447</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Storm Bivolt Com Medidor Cca</t>
+          <t>Fonte Carregador Jfa 70a Lite Bivolt Sci Black Friday</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>634.4</v>
+        <v>498.08</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -4900,23 +5088,23 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2161596310-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9d6475f0-48dc-49a3-993c-5694e62c8747</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3312751719-fonte-carregador-jfa-70a-lite-bivolt-sci-black-friday-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da62deb73-df4d-42e1-a33b-70800e677447</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 200a Bivolt 14,4v Sci Medidor Cca</t>
+          <t>Nova Fonte Carregador Jfa Storm Lite 70a Bivolt</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>939.86</v>
+        <v>498.08</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -4930,32 +5118,32 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174579586-fonte-carregador-jfa-storm-200a-bivolt-144v-sci-medidor-cca-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9d6475f0-48dc-49a3-993c-5694e62c8747</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3312781899-nova-fonte-carregador-jfa-storm-lite-70a-bivolt-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da62deb73-df4d-42e1-a33b-70800e677447</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Storm Bivolt P/ Caixa Bob</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>674.6799999999999</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -4970,23 +5158,23 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2161622734-fonte-carregador-jfa-120a-storm-bivolt-p-caixa-bob-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9d6475f0-48dc-49a3-993c-5694e62c8747</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1043231984-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6caeea91-9a7b-4cb0-b745-48f616290ce5</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm 200a Bob Carregador Automático Bivolt</t>
+          <t>Fonte Carregador Jfa 200 Amperes Sci Mais Forte Do Brasil</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>772.02</v>
+        <v>895.1</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -5000,30 +5188,34 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717157623-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9d6475f0-48dc-49a3-993c-5694e62c8747</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1182760121-fonte-carregador-jfa-200-amperes-sci-mais-forte-do-brasil-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6caeea91-9a7b-4cb0-b745-48f616290ce5</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Resistente A Água Branco</t>
+          <t>Fonte Automotiva 120 A Jfa Carregador Automatico Flutuação</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="D139" t="inlineStr"/>
+        <v>634.4</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E139" t="inlineStr">
         <is>
           <t>NA</t>
@@ -5031,32 +5223,32 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724231242-controle-longa-distncia-jfa-k1200-resistente-a-agua-branco-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9d6475f0-48dc-49a3-993c-5694e62c8747</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237790650-fonte-automotiva-120-a-jfa-carregador-automatico-flutuaco-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6caeea91-9a7b-4cb0-b745-48f616290ce5</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Fonte P/caixa Bob Jfa Storm 200a Bivolt 3800w Sem Bateria</t>
+          <t>Fonte Automotiva 120a Jfa Carregador Slim Oferta Som</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>693.7</v>
+        <v>634.4</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -5071,27 +5263,27 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717191956-fonte-pcaixa-bob-jfa-storm-200a-bivolt-3800w-sem-bateria-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9d6475f0-48dc-49a3-993c-5694e62c8747</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237791592-fonte-automotiva-120a-jfa-carregador-slim-oferta-som-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6caeea91-9a7b-4cb0-b745-48f616290ce5</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 90a Para Caixa Som Bob Bivolt Slim</t>
+          <t>Carregador Bateria Inteligente Jfa 120a Sci Muito Forte</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>469.92</v>
+        <v>634.4</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -5106,27 +5298,27 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2927387667-fonte-carregador-jfa-90a-para-caixa-som-bob-bivolt-slim-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D009fa19b-78e0-45c9-8332-5d1fe3ab901a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237799962-carregador-bateria-inteligente-jfa-120a-sci-muito-forte-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6caeea91-9a7b-4cb0-b745-48f616290ce5</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Lite Bivolt Sci Black Friday</t>
+          <t>Fonte Carregador Jfa 120 Amperes Sci Red Line Volt/amp</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>498.08</v>
+        <v>674.6799999999999</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -5136,32 +5328,32 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3312751719-fonte-carregador-jfa-70a-lite-bivolt-sci-black-friday-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D009fa19b-78e0-45c9-8332-5d1fe3ab901a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1305194787-fonte-carregador-jfa-120-amperes-sci-red-line-voltamp-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6caeea91-9a7b-4cb0-b745-48f616290ce5</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Nova Fonte Carregador Jfa Storm Lite 70a Bivolt</t>
+          <t>Fonte Automotiva 120 A Jfa Carregador Com Sistema Sci</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>498.08</v>
+        <v>674.6799999999999</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -5171,30 +5363,34 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3312781899-nova-fonte-carregador-jfa-storm-lite-70a-bivolt-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D009fa19b-78e0-45c9-8332-5d1fe3ab901a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1311934359-fonte-automotiva-120-a-jfa-carregador-com-sistema-sci-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6caeea91-9a7b-4cb0-b745-48f616290ce5</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Controle Longa Jfa K600 Preto / Verde + Central Universal</t>
+          <t>Fonte Automotiva 120 A Jfa Carregador Com Sistema Sci</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>54.99</v>
-      </c>
-      <c r="D144" t="inlineStr"/>
+        <v>634.4</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E144" t="inlineStr">
         <is>
           <t>NA</t>
@@ -5207,25 +5403,29 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3597035906-controle-longa-jfa-k600-preto-verde-central-universal-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D009fa19b-78e0-45c9-8332-5d1fe3ab901a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1311934391-fonte-automotiva-120-a-jfa-carregador-com-sistema-sci-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6caeea91-9a7b-4cb0-b745-48f616290ce5</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+          <t>Controle K600 Jfa Preto Cinza Mais Barato Do Brasil</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="D145" t="inlineStr"/>
+        <v>59.9</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E145" t="inlineStr">
         <is>
           <t>NA</t>
@@ -5238,23 +5438,23 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1043231984-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D009fa19b-78e0-45c9-8332-5d1fe3ab901a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1465514137-controle-k600-jfa-preto-cinza-mais-barato-do-brasil-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6caeea91-9a7b-4cb0-b745-48f616290ce5</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200 Amperes Sci Mais Forte Do Brasil</t>
+          <t>Carregador Bateria Jfa 60a Slim Bivolt 2020 Azul</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>895.1</v>
+        <v>525.87</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -5268,32 +5468,32 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1182760121-fonte-carregador-jfa-200-amperes-sci-mais-forte-do-brasil-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D009fa19b-78e0-45c9-8332-5d1fe3ab901a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1474104464-carregador-bateria-jfa-60a-slim-bivolt-2020-azul-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6caeea91-9a7b-4cb0-b745-48f616290ce5</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120 A Jfa Carregador Automatico Flutuação</t>
+          <t xml:space="preserve">Fonte Automotiva Jfa 60a Slim Azul Bivolt Voltímetro </t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>634.4</v>
+        <v>492.3</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -5308,27 +5508,27 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237790650-fonte-automotiva-120-a-jfa-carregador-automatico-flutuaco-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D009fa19b-78e0-45c9-8332-5d1fe3ab901a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1474108318-fonte-automotiva-jfa-60a-slim-azul-bivolt-voltimetro-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6caeea91-9a7b-4cb0-b745-48f616290ce5</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Jfa Carregador Slim Oferta Som</t>
+          <t>Fonte Carregador Automotivo Jfa 60a Red Line</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>634.4</v>
+        <v>525.87</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -5338,32 +5538,32 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237791592-fonte-automotiva-120a-jfa-carregador-slim-oferta-som-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D009fa19b-78e0-45c9-8332-5d1fe3ab901a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1983190199-fonte-carregador-automotivo-jfa-60a-red-line-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6caeea91-9a7b-4cb0-b745-48f616290ce5</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Carregador Bateria Inteligente Jfa 120a Sci Muito Forte</t>
+          <t>Fonte Carregador Automotivo Jfa 60a Redline Slim</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>634.4</v>
+        <v>525.87</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -5373,19 +5573,19 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237799962-carregador-bateria-inteligente-jfa-120a-sci-muito-forte-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D009fa19b-78e0-45c9-8332-5d1fe3ab901a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1983200722-fonte-carregador-automotivo-jfa-60a-redline-slim-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc1ee3d8-8d2d-46fb-b7d8-d7a1baf9c535</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120 Amperes Sci Red Line Volt/amp</t>
+          <t>Nova Fonte Carregador Jfa Storm 120a Bivolt</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5413,27 +5613,27 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305194787-fonte-carregador-jfa-120-amperes-sci-red-line-voltamp-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D009fa19b-78e0-45c9-8332-5d1fe3ab901a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2161609578-nova-fonte-carregador-jfa-storm-120a-bivolt-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc1ee3d8-8d2d-46fb-b7d8-d7a1baf9c535</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120 A Jfa Carregador Com Sistema Sci</t>
+          <t>Fonte Automotiva Storm Jfa 60a Multifunção Inteligente Slim</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>674.6799999999999</v>
+        <v>492.3</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -5443,32 +5643,32 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1311934359-fonte-automotiva-120-a-jfa-carregador-com-sistema-sci-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D009fa19b-78e0-45c9-8332-5d1fe3ab901a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164385868-fonte-automotiva-storm-jfa-60a-multifunco-inteligente-slim-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc1ee3d8-8d2d-46fb-b7d8-d7a1baf9c535</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120 A Jfa Carregador Com Sistema Sci</t>
+          <t>Fonte Carregador Jfa Storm 70a Bivolt 14,4v Sci Medidor Cca</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>634.4</v>
+        <v>548.24</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -5483,25 +5683,29 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1311934391-fonte-automotiva-120-a-jfa-carregador-com-sistema-sci-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D009fa19b-78e0-45c9-8332-5d1fe3ab901a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164480847-fonte-carregador-jfa-storm-70a-bivolt-144v-sci-medidor-cca-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc1ee3d8-8d2d-46fb-b7d8-d7a1baf9c535</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Controle K600 Jfa Preto Cinza Mais Barato Do Brasil</t>
+          <t>Fonte Carregador Jfa Storm 200a Bivolt 14,4v Sci Medidor Cca</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="D153" t="inlineStr"/>
+        <v>895.1</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E153" t="inlineStr">
         <is>
           <t>NA</t>
@@ -5509,30 +5713,34 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465514137-controle-k600-jfa-preto-cinza-mais-barato-do-brasil-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D009fa19b-78e0-45c9-8332-5d1fe3ab901a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2174554157-fonte-carregador-jfa-storm-200a-bivolt-144v-sci-medidor-cca-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc1ee3d8-8d2d-46fb-b7d8-d7a1baf9c535</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Controle K600 Jfa Preto Cinza Mais Barato Do Brasil</t>
+          <t>Controle Longa Distancia Jfa K1200 Acqua Completo Top</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>54.99</v>
-      </c>
-      <c r="D154" t="inlineStr"/>
+        <v>132.66</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E154" t="inlineStr">
         <is>
           <t>NA</t>
@@ -5540,28 +5748,28 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465520187-controle-k600-jfa-preto-cinza-mais-barato-do-brasil-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D009fa19b-78e0-45c9-8332-5d1fe3ab901a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2724100975-controle-longa-distancia-jfa-k1200-acqua-completo-top-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc1ee3d8-8d2d-46fb-b7d8-d7a1baf9c535</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Carregador Bateria Jfa 60a Slim Bivolt 2020 Azul</t>
+          <t>Fonte Jfa Storm 200a Com Medidor Cca Slim Bivolt Full</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>525.87</v>
+        <v>895.1</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -5575,28 +5783,28 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474104464-carregador-bateria-jfa-60a-slim-bivolt-2020-azul-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D009fa19b-78e0-45c9-8332-5d1fe3ab901a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2174594277-fonte-jfa-storm-200a-com-medidor-cca-slim-bivolt-full-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc1ee3d8-8d2d-46fb-b7d8-d7a1baf9c535</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Automotiva Jfa 60a Slim Azul Bivolt Voltímetro </t>
+          <t>Fonte Som Automotivo Carregador Jfa Bob Storm 200a Caixa Bob</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>492.3</v>
+        <v>693.7</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -5615,23 +5823,23 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474108318-fonte-automotiva-jfa-60a-slim-azul-bivolt-voltimetro-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D009fa19b-78e0-45c9-8332-5d1fe3ab901a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717118227-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc1ee3d8-8d2d-46fb-b7d8-d7a1baf9c535</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 60a Red Line</t>
+          <t>Fonte Som Automotivo Carregador Jfa Bob Storm 200a Caixa Bob</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>525.87</v>
+        <v>772.02</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -5650,23 +5858,23 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1983190199-fonte-carregador-automotivo-jfa-60a-red-line-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db8ab99d9-042e-457c-9f10-4c862bb51a42</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717191674-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc1ee3d8-8d2d-46fb-b7d8-d7a1baf9c535</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 60a Redline Slim</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>525.87</v>
+        <v>469.92</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -5680,32 +5888,32 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1983200722-fonte-carregador-automotivo-jfa-60a-redline-slim-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db8ab99d9-042e-457c-9f10-4c862bb51a42</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2927430625-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddc1ee3d8-8d2d-46fb-b7d8-d7a1baf9c535</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Storm Jfa 60a Multifunção Inteligente Slim</t>
+          <t>Controle Longa Jfa K600 Branco / Cinza + Central Universal</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>492.3</v>
+        <v>54.99</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -5720,23 +5928,23 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164385868-fonte-automotiva-storm-jfa-60a-multifunco-inteligente-slim-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db8ab99d9-042e-457c-9f10-4c862bb51a42</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3311513055-controle-longa-jfa-k600-branco-cinza-central-universal-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D98db4f70-40cb-49eb-9d64-0e0e471b4781</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 70a Bivolt 14,4v Sci Medidor Cca</t>
+          <t>Carregador Jfa Storm 200a 14,4v Mais Completa Smart Cca 220v</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>548.24</v>
+        <v>818.46</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -5755,27 +5963,27 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164480847-fonte-carregador-jfa-storm-70a-bivolt-144v-sci-medidor-cca-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db8ab99d9-042e-457c-9f10-4c862bb51a42</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3452365244-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-220v-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D98db4f70-40cb-49eb-9d64-0e0e471b4781</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 200a Bivolt 14,4v Sci Medidor Cca</t>
+          <t>Controle Universal Longa Jfa K600 Preto/verde Modo Aprender</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>895.1</v>
+        <v>54.99</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -5790,27 +5998,27 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174554157-fonte-carregador-jfa-storm-200a-bivolt-144v-sci-medidor-cca-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dabed3ded-4e6c-4d99-a297-a2749b5ff9ec</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3597021428-controle-universal-longa-jfa-k600-pretoverde-modo-aprender-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D98db4f70-40cb-49eb-9d64-0e0e471b4781</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Carregador Jfa Storm 60a 14,4v Mais Completa Smart Cca Sci</t>
+          <t>Controle Longa Jfa K600 Preto / Cinza + Central Universal</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>525.87</v>
+        <v>54.99</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -5820,32 +6028,32 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164392561-carregador-jfa-storm-60a-144v-mais-completa-smart-cca-sci-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dabed3ded-4e6c-4d99-a297-a2749b5ff9ec</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3597227604-controle-longa-jfa-k600-preto-cinza-central-universal-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D98db4f70-40cb-49eb-9d64-0e0e471b4781</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Carregador Jfa Storm 200a 14,4v Mais Completa Smart Cca Sci</t>
+          <t>Controle Universal Longa Jfa K600 Branco Cinza Modo Aprender</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>939.86</v>
+        <v>54.99</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -5855,32 +6063,32 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174560779-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-sci-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dabed3ded-4e6c-4d99-a297-a2749b5ff9ec</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3597532456-controle-universal-longa-jfa-k600-branco-cinza-modo-aprender-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D98db4f70-40cb-49eb-9d64-0e0e471b4781</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm 200a Com Medidor Cca Slim Bivolt Full</t>
+          <t>Controle Universal Longa Jfa K600 Preto/verde Modo Aprender</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>895.1</v>
+        <v>59.9</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -5890,32 +6098,32 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174594277-fonte-jfa-storm-200a-com-medidor-cca-slim-bivolt-full-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dabed3ded-4e6c-4d99-a297-a2749b5ff9ec</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3597219948-controle-universal-longa-jfa-k600-pretoverde-modo-aprender-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D98db4f70-40cb-49eb-9d64-0e0e471b4781</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Fonte Som Automotivo Carregador Jfa Bob Storm 200a Caixa Bob</t>
+          <t>Controle Longa Jfa K600 Preto / Cinza + Central Universal</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>693.7</v>
+        <v>59.9</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -5925,30 +6133,34 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717118227-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dabed3ded-4e6c-4d99-a297-a2749b5ff9ec</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3597377794-controle-longa-jfa-k600-preto-cinza-central-universal-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D98db4f70-40cb-49eb-9d64-0e0e471b4781</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Acqua Completo Top</t>
+          <t>Controle Longa Distância Jfa K600  Branco Cinza Full</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>132.66</v>
-      </c>
-      <c r="D166" t="inlineStr"/>
+        <v>59.9</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E166" t="inlineStr">
         <is>
           <t>NA</t>
@@ -5961,27 +6173,27 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724100975-controle-longa-distancia-jfa-k1200-acqua-completo-top-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dabed3ded-4e6c-4d99-a297-a2749b5ff9ec</t>
+          <t>https://produto.mercadolivre.com.br/MLB-960917927-controle-longa-distncia-jfa-k600-branco-cinza-full-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D98db4f70-40cb-49eb-9d64-0e0e471b4781</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Fonte Som Automotivo Carregador Jfa Bob Storm 200a Caixa Bob</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>772.02</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -5996,27 +6208,27 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717191674-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dabed3ded-4e6c-4d99-a297-a2749b5ff9ec</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1043232285-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D98db4f70-40cb-49eb-9d64-0e0e471b4781</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático</t>
+          <t>Fonte Automotiva 120 A Jfa Carregador Slim Modelo 2020</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>469.92</v>
+        <v>674.6799999999999</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -6026,30 +6238,34 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2927430625-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dabed3ded-4e6c-4d99-a297-a2749b5ff9ec</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237790625-fonte-automotiva-120-a-jfa-carregador-slim-modelo-2020-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D98db4f70-40cb-49eb-9d64-0e0e471b4781</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 200a Monovolt Flutuação Proteção</t>
+          <t>Fonte Carregador Bateria Jfa 60a  Sci Redline</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>818.46</v>
-      </c>
-      <c r="D169" t="inlineStr"/>
+        <v>492.3</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E169" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6062,25 +6278,29 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3284198989-fonte-carregador-jfa-storm-200a-monovolt-flutuaco-proteco-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dabed3ded-4e6c-4d99-a297-a2749b5ff9ec</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1305130699-fonte-carregador-bateria-jfa-60a-sci-redline-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D98db4f70-40cb-49eb-9d64-0e0e471b4781</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Controle Longa Jfa K600 Branco / Cinza + Central Universal</t>
+          <t>Fonte Carregador Jfa 70a Azul Slim Mais Forte Que 60a</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>54.99</v>
-      </c>
-      <c r="D170" t="inlineStr"/>
+        <v>548.24</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E170" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6093,25 +6313,29 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3311513055-controle-longa-jfa-k600-branco-cinza-central-universal-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dabed3ded-4e6c-4d99-a297-a2749b5ff9ec</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1474159067-fonte-carregador-jfa-70a-azul-slim-mais-forte-que-60a-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D98db4f70-40cb-49eb-9d64-0e0e471b4781</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Carregador Jfa Storm 200a 14,4v Mais Completa Smart Cca 220v</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>818.46</v>
-      </c>
-      <c r="D171" t="inlineStr"/>
+        <v>61.19</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E171" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6124,25 +6348,29 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3452365244-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-220v-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dabed3ded-4e6c-4d99-a297-a2749b5ff9ec</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1043232334-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D98db4f70-40cb-49eb-9d64-0e0e471b4781</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Controle Universal Longa Jfa K600 Preto/verde Modo Aprender</t>
+          <t>Fonte Automotiva 120a Jfa Carregador Slim Oferta Full</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>54.99</v>
-      </c>
-      <c r="D172" t="inlineStr"/>
+        <v>674.6799999999999</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E172" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6150,30 +6378,34 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3597021428-controle-universal-longa-jfa-k600-pretoverde-modo-aprender-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dabed3ded-4e6c-4d99-a297-a2749b5ff9ec</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237791576-fonte-automotiva-120a-jfa-carregador-slim-oferta-full-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D98db4f70-40cb-49eb-9d64-0e0e471b4781</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Controle Longa Jfa K600 Preto / Cinza + Central Universal</t>
+          <t xml:space="preserve">Controle Longa Distancia Completo Jfa Branco / Cinza K600 </t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>54.99</v>
-      </c>
-      <c r="D173" t="inlineStr"/>
+        <v>59.9</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E173" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6181,30 +6413,34 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3597227604-controle-longa-jfa-k600-preto-cinza-central-universal-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D69e77296-a58e-404a-9f3f-10edcf488b9d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1465503798-controle-longa-distancia-completo-jfa-branco-cinza-k600-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D98db4f70-40cb-49eb-9d64-0e0e471b4781</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Controle Universal Longa Jfa K600 Branco Cinza Modo Aprender</t>
+          <t xml:space="preserve">Fonte Carregador Jfa 70a Sistema Inteligente Para Bateria </t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>54.99</v>
-      </c>
-      <c r="D174" t="inlineStr"/>
+        <v>581.8200000000001</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E174" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6212,30 +6448,34 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3597532456-controle-universal-longa-jfa-k600-branco-cinza-modo-aprender-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D69e77296-a58e-404a-9f3f-10edcf488b9d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1474160068-fonte-carregador-jfa-70a-sistema-inteligente-para-bateria-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D98db4f70-40cb-49eb-9d64-0e0e471b4781</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Controle Universal Longa Jfa K600 Preto/verde Modo Aprender</t>
+          <t>Fonte Automotiva 120a Jfa Carregador Slim Oferta Pro</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="D175" t="inlineStr"/>
+        <v>674.6799999999999</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E175" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6248,25 +6488,29 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3597219948-controle-universal-longa-jfa-k600-pretoverde-modo-aprender-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D69e77296-a58e-404a-9f3f-10edcf488b9d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237791973-fonte-automotiva-120a-jfa-carregador-slim-oferta-pro-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D98db4f70-40cb-49eb-9d64-0e0e471b4781</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Controle Longa Jfa K600 Preto / Cinza + Central Universal</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Sci Redline Bivolt</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="D176" t="inlineStr"/>
+        <v>634.4</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E176" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6274,30 +6518,34 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3597377794-controle-longa-jfa-k600-preto-cinza-central-universal-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D69e77296-a58e-404a-9f3f-10edcf488b9d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1305190843-fonte-carregador-automotivo-jfa-120a-sci-redline-bivolt-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D98db4f70-40cb-49eb-9d64-0e0e471b4781</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600  Branco Cinza Full</t>
+          <t>Fonte Carregador 120 A Jfa Com Sistema Sci Volt/amp</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="D177" t="inlineStr"/>
+        <v>674.6799999999999</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E177" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6310,25 +6558,29 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-960917927-controle-longa-distncia-jfa-k600-branco-cinza-full-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D69e77296-a58e-404a-9f3f-10edcf488b9d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1311934427-fonte-carregador-120-a-jfa-com-sistema-sci-voltamp-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D98db4f70-40cb-49eb-9d64-0e0e471b4781</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+          <t>Fonte Carregador Automotivo Jfa 60a Redline Bivolt</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="D178" t="inlineStr"/>
+        <v>525.87</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E178" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6341,27 +6593,27 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1043232285-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D69e77296-a58e-404a-9f3f-10edcf488b9d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1983200338-fonte-carregador-automotivo-jfa-60a-redline-bivolt-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df75bfbe1-1533-4a2a-8124-f8d27033f68a</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120 A Jfa Carregador Slim Modelo 2020</t>
+          <t>Fonte Carregador Jfa 60a Redline Red Line Smart Cooler</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>674.6799999999999</v>
+        <v>525.87</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -6376,29 +6628,25 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237790625-fonte-automotiva-120-a-jfa-carregador-slim-modelo-2020-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D69e77296-a58e-404a-9f3f-10edcf488b9d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1983201120-fonte-carregador-jfa-60a-redline-red-line-smart-cooler-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df75bfbe1-1533-4a2a-8124-f8d27033f68a</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bateria Jfa 60a  Sci Redline</t>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>492.3</v>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>37.9</v>
+      </c>
+      <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6411,29 +6659,25 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305130699-fonte-carregador-bateria-jfa-60a-sci-redline-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D69e77296-a58e-404a-9f3f-10edcf488b9d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3654243584-conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df75bfbe1-1533-4a2a-8124-f8d27033f68a</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Azul Slim Mais Forte Que 60a</t>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>548.24</v>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>37.9</v>
+      </c>
+      <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6446,25 +6690,29 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474159067-fonte-carregador-jfa-70a-azul-slim-mais-forte-que-60a-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D69e77296-a58e-404a-9f3f-10edcf488b9d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3654243584-conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd14977ae-4bcc-4f8d-98c4-d817f5ecff80</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+          <t xml:space="preserve">Controle Longa Distancia Completo Jfa Branco / Cinza K600 </t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>61.19</v>
-      </c>
-      <c r="D182" t="inlineStr"/>
+        <v>59.9</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E182" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6472,19 +6720,19 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1043232334-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D69e77296-a58e-404a-9f3f-10edcf488b9d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1728432727-controle-longa-distancia-completo-jfa-branco-cinza-k600-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd14977ae-4bcc-4f8d-98c4-d817f5ecff80</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Jfa Carregador Slim Oferta Full</t>
+          <t>Fonte Carregador Jfa Estor 120a Bivolt</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -6512,25 +6760,29 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237791576-fonte-automotiva-120a-jfa-carregador-slim-oferta-full-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D69e77296-a58e-404a-9f3f-10edcf488b9d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2161603784-fonte-carregador-jfa-estor-120a-bivolt-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc4f388fd-8ec5-42a6-b9e9-4387d14a59ed</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distancia Completo Jfa Branco / Cinza K600 </t>
+          <t>Carregador Fonte Automotivo 120a Jfa Stomr</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="D184" t="inlineStr"/>
+        <v>674.6799999999999</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E184" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6543,27 +6795,27 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1465503798-controle-longa-distancia-completo-jfa-branco-cinza-k600-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D69e77296-a58e-404a-9f3f-10edcf488b9d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2161616527-carregador-fonte-automotivo-120a-jfa-stomr-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc4f388fd-8ec5-42a6-b9e9-4387d14a59ed</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Carregador Jfa 70a Sistema Inteligente Para Bateria </t>
+          <t>Carregador Fonte Automotivo 120a Jfa Stomr</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>581.8200000000001</v>
+        <v>634.4</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -6573,19 +6825,19 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474160068-fonte-carregador-jfa-70a-sistema-inteligente-para-bateria-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D69e77296-a58e-404a-9f3f-10edcf488b9d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2161629341-carregador-fonte-automotivo-120a-jfa-stomr-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc4f388fd-8ec5-42a6-b9e9-4387d14a59ed</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Jfa Carregador Slim Oferta Pro</t>
+          <t>Fonte Carregador Jfa Storm 120a Bivolt Slim</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -6613,19 +6865,19 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237791973-fonte-automotiva-120a-jfa-carregador-slim-oferta-pro-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D69e77296-a58e-404a-9f3f-10edcf488b9d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2161654722-fonte-carregador-jfa-storm-120a-bivolt-slim-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc4f388fd-8ec5-42a6-b9e9-4387d14a59ed</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Sci Redline Bivolt</t>
+          <t>Melhor Fonte 120a Caixa Bob Jfa 120a Storm 110/220v</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -6633,7 +6885,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -6648,27 +6900,27 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305190843-fonte-carregador-automotivo-jfa-120a-sci-redline-bivolt-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D69e77296-a58e-404a-9f3f-10edcf488b9d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2161654995-melhor-fonte-120a-caixa-bob-jfa-120a-storm-110220v-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc4f388fd-8ec5-42a6-b9e9-4387d14a59ed</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Fonte Carregador 120 A Jfa Com Sistema Sci Volt/amp</t>
+          <t>Fonte Jfa Storm 60a Com Medidor Cca Slim Bivolt</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>674.6799999999999</v>
+        <v>492.3</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -6678,30 +6930,34 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1311934427-fonte-carregador-120-a-jfa-com-sistema-sci-voltamp-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D69e77296-a58e-404a-9f3f-10edcf488b9d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164397548-fonte-jfa-storm-60a-com-medidor-cca-slim-bivolt-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc4f388fd-8ec5-42a6-b9e9-4387d14a59ed</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+          <t>Carregador Jfa Storm 60a 14,4v Mais Completa Smart Cca Sci</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="D189" t="inlineStr"/>
+        <v>492.3</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E189" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6714,25 +6970,29 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3654243584-conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8b4ffc87-9e90-45a2-bf55-77676ae64a86</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164405477-carregador-jfa-storm-60a-144v-mais-completa-smart-cca-sci-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc4f388fd-8ec5-42a6-b9e9-4387d14a59ed</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distancia Completo Jfa Branco / Cinza K600 </t>
+          <t>Fonte Automotiva Storm Jfa 60a Multifunção Inteligente Slim</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="D190" t="inlineStr"/>
+        <v>525.87</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E190" t="inlineStr">
         <is>
           <t>NA</t>
@@ -6745,14 +7005,14 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1728432727-controle-longa-distancia-completo-jfa-branco-cinza-k600-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8b4ffc87-9e90-45a2-bf55-77676ae64a86</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164410721-fonte-automotiva-storm-jfa-60a-multifunco-inteligente-slim-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc4f388fd-8ec5-42a6-b9e9-4387d14a59ed</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 60a Redline Bivolt</t>
+          <t>Fonte Jfa Storm 60a Com Medidor Cca Slim Bivolt</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -6780,23 +7040,23 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1983200338-fonte-carregador-automotivo-jfa-60a-redline-bivolt-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6fa6bcb6-e935-491a-b4a2-cf8cee283528</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164414147-fonte-jfa-storm-60a-com-medidor-cca-slim-bivolt-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc4f388fd-8ec5-42a6-b9e9-4387d14a59ed</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Redline Red Line Smart Cooler</t>
+          <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>525.87</v>
+        <v>548.24</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -6810,32 +7070,32 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1983201120-fonte-carregador-jfa-60a-redline-red-line-smart-cooler-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6fa6bcb6-e935-491a-b4a2-cf8cee283528</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164480792-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc4f388fd-8ec5-42a6-b9e9-4387d14a59ed</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Estor 120a Bivolt</t>
+          <t>Carregador Jfa Storm 70a 14,4v Mais Completa Smart Cca Sci</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>674.6799999999999</v>
+        <v>548.24</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -6845,32 +7105,32 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2161603784-fonte-carregador-jfa-estor-120a-bivolt-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b6cc70f-4139-4b44-b42e-b73b8c4f269c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164504350-carregador-jfa-storm-70a-144v-mais-completa-smart-cca-sci-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc4f388fd-8ec5-42a6-b9e9-4387d14a59ed</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Nova Fonte Carregador Jfa Storm 120a Bivolt</t>
+          <t>Carregador Jfa Storm 70a 14,4v Mais Completa Smart Cca Sci</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>674.6799999999999</v>
+        <v>581.8099999999999</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -6885,27 +7145,27 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2161609578-nova-fonte-carregador-jfa-storm-120a-bivolt-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b6cc70f-4139-4b44-b42e-b73b8c4f269c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164517272-carregador-jfa-storm-70a-144v-mais-completa-smart-cca-sci-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc4f388fd-8ec5-42a6-b9e9-4387d14a59ed</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Carregador Fonte Automotivo 120a Jfa Stomr</t>
+          <t>Fonte Automotiva Storm Jfa 70a Multifunção Inteligente Slim</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>674.6799999999999</v>
+        <v>581.8099999999999</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -6920,27 +7180,27 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2161616527-carregador-fonte-automotivo-120a-jfa-stomr-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b6cc70f-4139-4b44-b42e-b73b8c4f269c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164517323-fonte-automotiva-storm-jfa-70a-multifunco-inteligente-slim-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc4f388fd-8ec5-42a6-b9e9-4387d14a59ed</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Carregador Fonte Automotivo 120a Jfa Stomr</t>
+          <t>Fonte Jfa Storm 70a Com Medidor Cca Slim Bivolt</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>634.4</v>
+        <v>548.24</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -6955,27 +7215,27 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2161629341-carregador-fonte-automotivo-120a-jfa-stomr-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b6cc70f-4139-4b44-b42e-b73b8c4f269c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164523424-fonte-jfa-storm-70a-com-medidor-cca-slim-bivolt-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc4f388fd-8ec5-42a6-b9e9-4387d14a59ed</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 120a Bivolt Slim</t>
+          <t>Fonte Jfa Storm 70a Com Medidor Cca Slim Bivolt</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>674.6799999999999</v>
+        <v>581.8099999999999</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -6990,23 +7250,23 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2161654722-fonte-carregador-jfa-storm-120a-bivolt-slim-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b6cc70f-4139-4b44-b42e-b73b8c4f269c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164529855-fonte-jfa-storm-70a-com-medidor-cca-slim-bivolt-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc4f388fd-8ec5-42a6-b9e9-4387d14a59ed</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Melhor Fonte 120a Caixa Bob Jfa 120a Storm 110/220v</t>
+          <t>Fonte Automotiva Storm Jfa 70a Multifunção Inteligente Slim</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>634.4</v>
+        <v>548.24</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -7025,23 +7285,23 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2161654995-melhor-fonte-120a-caixa-bob-jfa-120a-storm-110220v-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b6cc70f-4139-4b44-b42e-b73b8c4f269c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164536143-fonte-automotiva-storm-jfa-70a-multifunco-inteligente-slim-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc4f388fd-8ec5-42a6-b9e9-4387d14a59ed</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm 60a Com Medidor Cca Slim Bivolt</t>
+          <t>Carregador Jfa Storm 200a 14,4v Mais Completa Smart Cca Sci</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>492.3</v>
+        <v>895.1</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -7060,23 +7320,23 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164397548-fonte-jfa-storm-60a-com-medidor-cca-slim-bivolt-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b6cc70f-4139-4b44-b42e-b73b8c4f269c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2174554397-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-sci-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc4f388fd-8ec5-42a6-b9e9-4387d14a59ed</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Carregador Jfa Storm 60a 14,4v Mais Completa Smart Cca Sci</t>
+          <t>Fonte Jfa Storm 200a Com Medidor Cca Slim Bivolt Full</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>492.3</v>
+        <v>939.86</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -7090,28 +7350,28 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164405477-carregador-jfa-storm-60a-144v-mais-completa-smart-cca-sci-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b6cc70f-4139-4b44-b42e-b73b8c4f269c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2174562069-fonte-jfa-storm-200a-com-medidor-cca-slim-bivolt-full-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc4f388fd-8ec5-42a6-b9e9-4387d14a59ed</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Storm Jfa 60a Multifunção Inteligente Slim</t>
+          <t>Fonte Carregador Jfa Storm 200a Bivolt Flutuação Proteção</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>525.87</v>
+        <v>939.86</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -7130,23 +7390,23 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164410721-fonte-automotiva-storm-jfa-60a-multifunco-inteligente-slim-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b6cc70f-4139-4b44-b42e-b73b8c4f269c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2174598731-fonte-carregador-jfa-storm-200a-bivolt-flutuaco-proteco-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc4f388fd-8ec5-42a6-b9e9-4387d14a59ed</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm 60a Com Medidor Cca Slim Bivolt</t>
+          <t>Fonte Jfa Storm 200a Bob Carregador Automático Bivolt</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>525.87</v>
+        <v>693.7</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -7160,32 +7420,32 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164414147-fonte-jfa-storm-60a-com-medidor-cca-slim-bivolt-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b6cc70f-4139-4b44-b42e-b73b8c4f269c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717157656-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db08b3c96-6d45-4aa5-b462-7f834372130b</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+          <t>Controle Longa Distancia Jfa K1200 Acqua Som Completo Top</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>548.24</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -7200,23 +7460,23 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164480792-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b6cc70f-4139-4b44-b42e-b73b8c4f269c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2724060953-controle-longa-distancia-jfa-k1200-acqua-som-completo-top-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db08b3c96-6d45-4aa5-b462-7f834372130b</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Carregador Jfa Storm 70a 14,4v Mais Completa Smart Cca Sci</t>
+          <t>Controle Longa Distancia Jfa K1200 Acqua Som Completo Top</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>548.24</v>
+        <v>131.96</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -7230,32 +7490,32 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164504350-carregador-jfa-storm-70a-144v-mais-completa-smart-cca-sci-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b6cc70f-4139-4b44-b42e-b73b8c4f269c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2724061125-controle-longa-distancia-jfa-k1200-acqua-som-completo-top-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db08b3c96-6d45-4aa5-b462-7f834372130b</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Carregador Jfa Storm 70a 14,4v Mais Completa Smart Cca Sci</t>
+          <t>Controle Longa Distancia Jfa K1200 Acqua Completo Top</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>581.8099999999999</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -7265,32 +7525,32 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164517272-carregador-jfa-storm-70a-144v-mais-completa-smart-cca-sci-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b6cc70f-4139-4b44-b42e-b73b8c4f269c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2724061274-controle-longa-distancia-jfa-k1200-acqua-completo-top-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db08b3c96-6d45-4aa5-b462-7f834372130b</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Storm Jfa 70a Multifunção Inteligente Slim</t>
+          <t>Controle Longa Distancia Jfa K1200 Acqua Completo Top Branco</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>581.8099999999999</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -7300,32 +7560,32 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164517323-fonte-automotiva-storm-jfa-70a-multifunco-inteligente-slim-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b6cc70f-4139-4b44-b42e-b73b8c4f269c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2724197789-controle-longa-distancia-jfa-k1200-acqua-completo-top-branco-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db08b3c96-6d45-4aa5-b462-7f834372130b</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm 70a Com Medidor Cca Slim Bivolt</t>
+          <t>Controle Remoto Universal Longa Jfa K1200 Preto Com Laranja</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>548.24</v>
+        <v>66.2</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -7335,32 +7595,32 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164523424-fonte-jfa-storm-70a-com-medidor-cca-slim-bivolt-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b6cc70f-4139-4b44-b42e-b73b8c4f269c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3569577904-controle-remoto-universal-longa-jfa-k1200-preto-com-laranja-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db08b3c96-6d45-4aa5-b462-7f834372130b</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm 70a Com Medidor Cca Slim Bivolt</t>
+          <t>Controle Universal Longa Jfa K600 Preto Laranja Modo Aprende</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>581.8099999999999</v>
+        <v>59.9</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -7375,27 +7635,27 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164529855-fonte-jfa-storm-70a-com-medidor-cca-slim-bivolt-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b6cc70f-4139-4b44-b42e-b73b8c4f269c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3597016844-controle-universal-longa-jfa-k600-preto-laranja-modo-aprende-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db08b3c96-6d45-4aa5-b462-7f834372130b</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Storm Jfa 70a Multifunção Inteligente Slim</t>
+          <t>Controle Longa Jfa K600 Preto / Verde + Central Universal</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>548.24</v>
+        <v>59.9</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -7405,32 +7665,32 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164536143-fonte-automotiva-storm-jfa-70a-multifunco-inteligente-slim-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b6cc70f-4139-4b44-b42e-b73b8c4f269c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3597209408-controle-longa-jfa-k600-preto-verde-central-universal-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db08b3c96-6d45-4aa5-b462-7f834372130b</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Carregador Jfa Storm 200a 14,4v Mais Completa Smart Cca Sci</t>
+          <t>Controle Universal Longa Jfa K600 Preto Cinza Modo Aprender</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>895.1</v>
+        <v>59.9</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -7440,32 +7700,32 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174554397-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-sci-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b6cc70f-4139-4b44-b42e-b73b8c4f269c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3597227192-controle-universal-longa-jfa-k600-preto-cinza-modo-aprender-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db08b3c96-6d45-4aa5-b462-7f834372130b</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm 200a Com Medidor Cca Slim Bivolt Full</t>
+          <t>Controle Universal Longa Jfa K600 Branco Cinza Modo Aprender</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>939.86</v>
+        <v>59.9</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -7480,27 +7740,27 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174562069-fonte-jfa-storm-200a-com-medidor-cca-slim-bivolt-full-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b6cc70f-4139-4b44-b42e-b73b8c4f269c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3597367758-controle-universal-longa-jfa-k600-branco-cinza-modo-aprender-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db08b3c96-6d45-4aa5-b462-7f834372130b</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 200a Bivolt Flutuação Proteção</t>
+          <t>Controle Longa Jfa K600 Branco / Cinza + Central Universal</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>939.86</v>
+        <v>59.9</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -7515,23 +7775,23 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174598731-fonte-carregador-jfa-storm-200a-bivolt-flutuaco-proteco-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b6cc70f-4139-4b44-b42e-b73b8c4f269c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3597368110-controle-longa-jfa-k600-branco-cinza-central-universal-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db08b3c96-6d45-4aa5-b462-7f834372130b</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm 200a Bob Carregador Automático Bivolt</t>
+          <t>Fonte Carregador 200 Amperes Jfa Sci Inteligente 10.000w Rms</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>693.7</v>
+        <v>895.1</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -7550,25 +7810,29 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717157656-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b6cc70f-4139-4b44-b42e-b73b8c4f269c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1182760088-fonte-carregador-200-amperes-jfa-sci-inteligente-10000w-rms-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1f620d15-8786-46c6-9bea-3bd0e04a3bd0</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Acqua Som Completo Top</t>
+          <t>Fonte Carregador Jfa Bob Storm 200a 12v 14,4v  Som Paredão</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="D214" t="inlineStr"/>
+        <v>772.02</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E214" t="inlineStr">
         <is>
           <t>NA</t>
@@ -7576,19 +7840,19 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724060953-controle-longa-distancia-jfa-k1200-acqua-som-completo-top-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b6cc70f-4139-4b44-b42e-b73b8c4f269c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717179525-fonte-carregador-jfa-bob-storm-200a-12v-144v-som-paredo-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1f620d15-8786-46c6-9bea-3bd0e04a3bd0</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Acqua Som Completo Top</t>
+          <t>Fonte Usina 200ah Bivolt + Controle Jfa K600 Brinde</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -7597,7 +7861,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>131.96</v>
+        <v>899</v>
       </c>
       <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr">
@@ -7612,28 +7876,32 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724061125-controle-longa-distancia-jfa-k1200-acqua-som-completo-top-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da91d47f1-dff1-4b90-8305-aa08cfb8179d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1968870290-fonte-usina-200ah-bivolt-controle-jfa-k600-brinde-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1f620d15-8786-46c6-9bea-3bd0e04a3bd0</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Acqua Completo Top</t>
+          <t>Fonte Carregador Jfa Bob Storm 200a 12v 14,4v  Som Paredão</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="D216" t="inlineStr"/>
+        <v>693.7</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -7643,25 +7911,29 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724061274-controle-longa-distancia-jfa-k1200-acqua-completo-top-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da91d47f1-dff1-4b90-8305-aa08cfb8179d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717157512-fonte-carregador-jfa-bob-storm-200a-12v-144v-som-paredo-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1f620d15-8786-46c6-9bea-3bd0e04a3bd0</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Acqua Completo Top Branco</t>
+          <t>Controle Longa Distância Jfa K600 Cor Preto Verde + Frete</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="D217" t="inlineStr"/>
+        <v>59.9</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E217" t="inlineStr">
         <is>
           <t>NA</t>
@@ -7669,30 +7941,34 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724197789-controle-longa-distancia-jfa-k1200-acqua-completo-top-branco-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da91d47f1-dff1-4b90-8305-aa08cfb8179d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-960924608-controle-longa-distncia-jfa-k600-cor-preto-verde-frete-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1f620d15-8786-46c6-9bea-3bd0e04a3bd0</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Jfa K1200 Preto Com Laranja</t>
+          <t>Fonte Automotiva Jfa 60a Redline Digital Sci Pwm Eae Bivolt</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="D218" t="inlineStr"/>
+        <v>525.87</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E218" t="inlineStr">
         <is>
           <t>NA</t>
@@ -7705,25 +7981,29 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3569577904-controle-remoto-universal-longa-jfa-k1200-preto-com-laranja-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da91d47f1-dff1-4b90-8305-aa08cfb8179d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1305139099-fonte-automotiva-jfa-60a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D27eb9a3e-9556-4366-a553-7268c248af05</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Controle Universal Longa Jfa K600 Preto Laranja Modo Aprende</t>
+          <t>Controle Longa Distância Jfa K600 + Central Cor Preto Verde Full</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C219" t="n">
         <v>59.9</v>
       </c>
-      <c r="D219" t="inlineStr"/>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E219" t="inlineStr">
         <is>
           <t>NA</t>
@@ -7736,25 +8016,29 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3597016844-controle-universal-longa-jfa-k600-preto-laranja-modo-aprende-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da91d47f1-dff1-4b90-8305-aa08cfb8179d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1309207676-controle-longa-distncia-jfa-k600-central-cor-preto-verde-full-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D27eb9a3e-9556-4366-a553-7268c248af05</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Controle Longa Jfa K600 Preto / Verde + Central Universal</t>
+          <t>Fonte Carregador Jfa Storm 200a Mono - 12v</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="D220" t="inlineStr"/>
+        <v>818.46</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E220" t="inlineStr">
         <is>
           <t>NA</t>
@@ -7762,30 +8046,34 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3597209408-controle-longa-jfa-k600-preto-verde-central-universal-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da91d47f1-dff1-4b90-8305-aa08cfb8179d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3284164699-fonte-carregador-jfa-storm-200a-mono-12v-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D27eb9a3e-9556-4366-a553-7268c248af05</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Controle Universal Longa Jfa K600 Preto Cinza Modo Aprender</t>
+          <t>Controle Longa Distancia Jfa Preto / Cinza K600 Full</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="D221" t="inlineStr"/>
+        <v>54.99</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E221" t="inlineStr">
         <is>
           <t>NA</t>
@@ -7793,19 +8081,19 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3597227192-controle-universal-longa-jfa-k600-preto-cinza-modo-aprender-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da91d47f1-dff1-4b90-8305-aa08cfb8179d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1465503294-controle-longa-distancia-jfa-preto-cinza-k600-full-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D27eb9a3e-9556-4366-a553-7268c248af05</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Controle Universal Longa Jfa K600 Branco Cinza Modo Aprender</t>
+          <t>Filtro Anti-ruido Jfa Rca Cd Dvd Eletromagnético Stereo</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -7814,7 +8102,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>59.9</v>
+        <v>75.33</v>
       </c>
       <c r="D222" t="inlineStr"/>
       <c r="E222" t="inlineStr">
@@ -7829,25 +8117,29 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3597367758-controle-universal-longa-jfa-k600-branco-cinza-modo-aprender-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da91d47f1-dff1-4b90-8305-aa08cfb8179d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2087221371-filtro-anti-ruido-jfa-rca-cd-dvd-eletromagnetico-stereo-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D27eb9a3e-9556-4366-a553-7268c248af05</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Controle Longa Jfa K600 Branco / Cinza + Central Universal</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador + Boné</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="D223" t="inlineStr"/>
+        <v>689</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E223" t="inlineStr">
         <is>
           <t>NA</t>
@@ -7860,14 +8152,14 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3597368110-controle-longa-jfa-k600-branco-cinza-central-universal-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da91d47f1-dff1-4b90-8305-aa08cfb8179d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2193402127-fonte-automotiva-120a-amperes-jfa-carregador-bone-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D27eb9a3e-9556-4366-a553-7268c248af05</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Fonte Usina 200ah Bivolt + Controle Jfa K600 Brinde</t>
+          <t>Filtro Anti-ruido Jfa Rca Cd Dvd Eletromagnético Stereo</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -7876,7 +8168,7 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>899</v>
+        <v>59.99</v>
       </c>
       <c r="D224" t="inlineStr"/>
       <c r="E224" t="inlineStr">
@@ -7886,34 +8178,30 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1968870290-fonte-usina-200ah-bivolt-controle-jfa-k600-brinde-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D37639f99-9acc-4e4d-8141-08697ea00b9e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2087246945-filtro-anti-ruido-jfa-rca-cd-dvd-eletromagnetico-stereo-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3051bdda-9563-42e9-8444-71b281f9e77d</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a 12v 14,4v  Som Paredão</t>
+          <t>Fonte Carregador Automotivo 60a Jfa + Controle Stetsom Sx-2</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>693.7</v>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="D225" t="inlineStr"/>
       <c r="E225" t="inlineStr">
         <is>
           <t>NA</t>
@@ -7926,23 +8214,23 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717157512-fonte-carregador-jfa-bob-storm-200a-12v-144v-som-paredo-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D37639f99-9acc-4e4d-8141-08697ea00b9e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1080173822-fonte-carregador-automotivo-60a-jfa-controle-stetsom-sx-2-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3051bdda-9563-42e9-8444-71b281f9e77d</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Fonte Carregador 200 Amperes Jfa Sci Inteligente 10.000w Rms</t>
+          <t>Fonte Carregador Jfa 120a Amperes Medidor Cca Bivolt + Boné</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>895.1</v>
+        <v>645.1</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -7961,14 +8249,14 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1182760088-fonte-carregador-200-amperes-jfa-sci-inteligente-10000w-rms-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D37639f99-9acc-4e4d-8141-08697ea00b9e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2193415173-fonte-carregador-jfa-120a-amperes-medidor-cca-bivolt-bone-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3051bdda-9563-42e9-8444-71b281f9e77d</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Filtro Anti-ruido Jfa Rca Cd Dvd Eletromagnético Stereo</t>
+          <t>Voltímetro Digital 12v Ajk Nano Plus Tp Stetsom Jfa</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -7977,7 +8265,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>75.33</v>
+        <v>39.9</v>
       </c>
       <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr">
@@ -7987,28 +8275,28 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2087221371-filtro-anti-ruido-jfa-rca-cd-dvd-eletromagnetico-stereo-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D37639f99-9acc-4e4d-8141-08697ea00b9e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-978195087-voltimetro-digital-12v-ajk-nano-plus-tp-stetsom-jfa-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dad144424-bac3-4d4e-b3a7-2272de3013b6</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 60a Redline Digital Sci Pwm Eae Bivolt</t>
+          <t>Fonte Automotiva 200a Jfa Carregador Similar Stetsom</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>525.87</v>
+        <v>939.86</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -8027,23 +8315,23 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305139099-fonte-automotiva-jfa-60a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8e5c790a-4261-43f8-b648-faedfb4f3fa9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-961801880-fonte-automotiva-200a-jfa-carregador-similar-stetsom-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dad144424-bac3-4d4e-b3a7-2272de3013b6</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador + Boné</t>
+          <t>Fonte Carregador Jfa Bob 200 Amperes Bivolt Inteligente Full</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>689</v>
+        <v>772.02</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -8062,329 +8350,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2193402127-fonte-automotiva-120a-amperes-jfa-carregador-bone-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8e5c790a-4261-43f8-b648-faedfb4f3fa9</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>Controle Longa Distância Jfa K600 + Central Cor Preto Verde Full</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C230" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="D230" t="inlineStr"/>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G230" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1309207676-controle-longa-distncia-jfa-k600-central-cor-preto-verde-full-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8e5c790a-4261-43f8-b648-faedfb4f3fa9</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>Filtro Anti-ruido Jfa Rca Cd Dvd Eletromagnético Stereo</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C231" t="n">
-        <v>59.99</v>
-      </c>
-      <c r="D231" t="inlineStr"/>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G231" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2087246945-filtro-anti-ruido-jfa-rca-cd-dvd-eletromagnetico-stereo-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8e5c790a-4261-43f8-b648-faedfb4f3fa9</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>Voltímetro Jfa Vs5hi 3 Em 1 Sequenciador High Voltagem /12v</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C232" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="D232" t="inlineStr"/>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G232" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875295357-voltimetro-jfa-vs5hi-3-em-1-sequenciador-high-voltagem-12v-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8e5c790a-4261-43f8-b648-faedfb4f3fa9</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>Sequenciador Voltimetro Medidor Bateria Digital Jfa Vs5 Hi</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C233" t="n">
-        <v>77.98999999999999</v>
-      </c>
-      <c r="D233" t="inlineStr"/>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G233" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875289506-sequenciador-voltimetro-medidor-bateria-digital-jfa-vs5-hi-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da932ac98-48fe-4a2b-8fac-f232353e62e3</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>Fonte Carregador Automotivo 60a Jfa + Controle Stetsom Sx-2</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C234" t="n">
-        <v>549</v>
-      </c>
-      <c r="D234" t="inlineStr"/>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G234" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1080173822-fonte-carregador-automotivo-60a-jfa-controle-stetsom-sx-2-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da932ac98-48fe-4a2b-8fac-f232353e62e3</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>Fonte Carregador Jfa 120a Amperes Medidor Cca Bivolt + Boné</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C235" t="n">
-        <v>645.1</v>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G235" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2193415173-fonte-carregador-jfa-120a-amperes-medidor-cca-bivolt-bone-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da932ac98-48fe-4a2b-8fac-f232353e62e3</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>Voltímetro Jfa Vs5hi Hv/12v Com Sequenciador Tp Stetsom Ajk</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C236" t="n">
-        <v>77.98999999999999</v>
-      </c>
-      <c r="D236" t="inlineStr"/>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G236" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1875305084-voltimetro-jfa-vs5hi-hv12v-com-sequenciador-tp-stetsom-ajk-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da932ac98-48fe-4a2b-8fac-f232353e62e3</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>Voltímetro Digital 12v Ajk Nano Plus Tp Stetsom Jfa</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C237" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="D237" t="inlineStr"/>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G237" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-978195087-voltimetro-digital-12v-ajk-nano-plus-tp-stetsom-jfa-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da932ac98-48fe-4a2b-8fac-f232353e62e3</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>Fonte Carregador Jfa Bob 200 Amperes Bivolt Inteligente Full</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="C238" t="n">
-        <v>772.02</v>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G238" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717118970-fonte-carregador-jfa-bob-200-amperes-bivolt-inteligente-full-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df7b54f09-6142-4b42-9e2e-51489e5680eb</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>Fonte Automotiva 200a Jfa Carregador Similar Stetsom</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C239" t="n">
-        <v>939.86</v>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G239" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-961801880-fonte-automotiva-200a-jfa-carregador-similar-stetsom-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df7b54f09-6142-4b42-9e2e-51489e5680eb</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717118970-fonte-carregador-jfa-bob-200-amperes-bivolt-inteligente-full-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dad144424-bac3-4d4e-b3a7-2272de3013b6</t>
         </is>
       </c>
     </row>

--- a/dados/radicalsom_matriz.xlsx
+++ b/dados/radicalsom_matriz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,16 +493,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Fonte Carregador Jfa 200 Amperes Sci Redline Volt/amp Bivolt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>634.4</v>
+        <v>805.59</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -521,14 +521,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:90899578#searchVariation=MLB21392652&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=e4bc110f-c931-4db3-a991-bbc431bc147a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1305212746-fonte-carregador-jfa-200-amperes-sci-redline-voltamp-bivolt-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D944f2934-c91c-4651-9b1b-de79f6625456</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,20 +538,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>774.88</v>
+        <v>54.99</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -561,19 +561,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:90899578#searchVariation=MLB24006449&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=e4bc110f-c931-4db3-a991-bbc431bc147a</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:90899578#searchVariation=MLB27970249&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=944f2934-c91c-4651-9b1b-de79f6625456</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -583,20 +583,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jfa K600 - Combo 5 Peças Longa Distancia Cores Variadas</t>
+          <t>Fonte Carregador Jfa Bob 200 Amperes Bivolt Inteligente Full</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>269</v>
+        <v>694.8200000000001</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -606,19 +606,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-k600-combo-5-pecas-longa-distancia-cores-variadas/p/MLB27993263?pdp_filters=seller_id:90899578#searchVariation=MLB27993263&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=e4bc110f-c931-4db3-a991-bbc431bc147a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717118970-fonte-carregador-jfa-bob-200-amperes-bivolt-inteligente-full-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D944f2934-c91c-4651-9b1b-de79f6625456</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -628,16 +628,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>539.74</v>
+        <v>634.4</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -651,19 +651,19 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:90899578#searchVariation=MLB22144397&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=e4bc110f-c931-4db3-a991-bbc431bc147a</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:90899578#searchVariation=MLB21392652&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=944f2934-c91c-4651-9b1b-de79f6625456</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -673,16 +673,16 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>845.87</v>
+        <v>539.74</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -701,14 +701,14 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:90899578#searchVariation=MLB21348561&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=e4bc110f-c931-4db3-a991-bbc431bc147a</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:90899578#searchVariation=MLB22144397&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=944f2934-c91c-4651-9b1b-de79f6625456</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -718,16 +718,16 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>Fonte Carregador Jfa 200a 200 Amperes Sci Redline Bivolt Som</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>716.71</v>
+        <v>845.87</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -746,14 +746,14 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:90899578#searchVariation=MLB24154371&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=e4bc110f-c931-4db3-a991-bbc431bc147a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1305215505-fonte-carregador-jfa-200a-200-amperes-sci-redline-bivolt-som-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D944f2934-c91c-4651-9b1b-de79f6625456</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -763,20 +763,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Fonte Carregador Jfa 90a Para Caixa Som Bob Bivolt Slim</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>78.90000000000001</v>
+        <v>443.07</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -786,19 +786,19 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:90899578#searchVariation=MLB27687422&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=e4bc110f-c931-4db3-a991-bbc431bc147a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2927505070-fonte-carregador-jfa-90a-para-caixa-som-bob-bivolt-slim-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D944f2934-c91c-4651-9b1b-de79f6625456</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -808,16 +808,16 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>624.33</v>
+        <v>422.93</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -836,14 +836,14 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:90899578#searchVariation=MLB24834408&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=e4bc110f-c931-4db3-a991-bbc431bc147a</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:90899578#searchVariation=MLB21562641&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=944f2934-c91c-4651-9b1b-de79f6625456</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -853,16 +853,16 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Fonte Carregador Inteligente Jfa 120 Amperes Sci Modelo Full</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>422.93</v>
+        <v>634.4</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -881,14 +881,14 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:90899578#searchVariation=MLB21562641&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=e4bc110f-c931-4db3-a991-bbc431bc147a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237793033-fonte-carregador-inteligente-jfa-120-amperes-sci-modelo-full-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D944f2934-c91c-4651-9b1b-de79f6625456</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -898,20 +898,20 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>54.99</v>
+        <v>624.33</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -926,14 +926,14 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:90899578#searchVariation=MLB27970249&amp;position=21&amp;search_layout=stack&amp;type=product&amp;tracking_id=e4bc110f-c931-4db3-a991-bbc431bc147a</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:90899578#searchVariation=MLB24834408&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=944f2934-c91c-4651-9b1b-de79f6625456</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -943,20 +943,20 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Fonte Carregador Jfa 120a Bivolt Brinde Strobo Rgb</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>493.42</v>
+        <v>679</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -971,14 +971,14 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:90899578#searchVariation=MLB21455208&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=e4bc110f-c931-4db3-a991-bbc431bc147a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1976484775-fonte-carregador-jfa-120a-bivolt-brinde-strobo-rgb-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D944f2934-c91c-4651-9b1b-de79f6625456</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -988,16 +988,16 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>443.07</v>
+        <v>774.88</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1011,19 +1011,19 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:90899578#searchVariation=MLB21320712&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=e4bc110f-c931-4db3-a991-bbc431bc147a</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:90899578#searchVariation=MLB24006449&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=944f2934-c91c-4651-9b1b-de79f6625456</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1033,20 +1033,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Fonte Carregador Jfa Bob 200 Amperes Bivolt Inteligente Full</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>87.90000000000001</v>
+        <v>624.33</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1056,19 +1056,19 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:90899578#searchVariation=MLB27685629&amp;position=26&amp;search_layout=stack&amp;type=product&amp;tracking_id=e4bc110f-c931-4db3-a991-bbc431bc147a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717151469-fonte-carregador-jfa-bob-200-amperes-bivolt-inteligente-full-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D944f2934-c91c-4651-9b1b-de79f6625456</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1078,20 +1078,20 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Preto Com Verde</t>
+          <t>Fonte Carregador Jfa 200 Amperes Sci Red Line Volt/amp</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>54.99</v>
+        <v>845.87</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1101,19 +1101,19 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-preto-com-verde/p/MLB27999036?pdp_filters=seller_id:90899578#searchVariation=MLB27999036&amp;position=27&amp;search_layout=stack&amp;type=product&amp;tracking_id=e4bc110f-c931-4db3-a991-bbc431bc147a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1305209701-fonte-carregador-jfa-200-amperes-sci-red-line-voltamp-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D944f2934-c91c-4651-9b1b-de79f6625456</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1123,16 +1123,16 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 90a Bob Storm Slim Bivolt 110v 220v</t>
+          <t>Fonte Automotiva 60 Amperes Jfa Storm Red Line Cca Sci Smart</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>422.93</v>
+        <v>473.28</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1146,19 +1146,19 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2927412531-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-110v-220v-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De4bc110f-c931-4db3-a991-bbc431bc147a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2164414544-fonte-automotiva-60-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D944f2934-c91c-4651-9b1b-de79f6625456</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1168,18 +1168,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fonte Usina 200ah Bivolt + Controle Jfa K600 Brinde</t>
+          <t>Jfa K600 - Combo 5 Peças Longa Distancia Cores Variadas</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>819</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
+        <v>269</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1192,14 +1196,14 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1968884558-fonte-usina-200ah-bivolt-controle-jfa-k600-brinde-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De4bc110f-c931-4db3-a991-bbc431bc147a</t>
+          <t>https://www.mercadolivre.com.br/jfa-k600-combo-5-pecas-longa-distancia-cores-variadas/p/MLB27993263?pdp_filters=seller_id:90899578#searchVariation=MLB27993263&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=944f2934-c91c-4651-9b1b-de79f6625456</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1209,16 +1213,16 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob 200 Amperes Bivolt Inteligente Full</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>694.8200000000001</v>
+        <v>443.07</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1237,14 +1241,14 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717118970-fonte-carregador-jfa-bob-200-amperes-bivolt-inteligente-full-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De4bc110f-c931-4db3-a991-bbc431bc147a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2927430679-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D944f2934-c91c-4651-9b1b-de79f6625456</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1254,16 +1258,16 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a 200 Amperes Sci Redline Bivolt Som</t>
+          <t>Fonte Automotiva 120 A Jfa Carregador Com Sistema Sci +frete</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>845.87</v>
+        <v>674.6799999999999</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1282,14 +1286,14 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305215505-fonte-carregador-jfa-200a-200-amperes-sci-redline-bivolt-som-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De4bc110f-c931-4db3-a991-bbc431bc147a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237786659-fonte-automotiva-120-a-jfa-carregador-com-sistema-sci-frete-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D944f2934-c91c-4651-9b1b-de79f6625456</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1299,20 +1303,20 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>54.99</v>
+        <v>738.22</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1322,19 +1326,19 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:90899578#searchVariation=MLB32364344&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=e4bc110f-c931-4db3-a991-bbc431bc147a</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:90899578#searchVariation=MLB24154371&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=944f2934-c91c-4651-9b1b-de79f6625456</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1344,22 +1348,18 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bivolt Brinde Strobo Rgb</t>
+          <t>Fonte Carregador Automotivo 60a Jfa + Controle Stetsom Sx-2</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>679</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1367,19 +1367,19 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1976484775-fonte-carregador-jfa-120a-bivolt-brinde-strobo-rgb-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De4bc110f-c931-4db3-a991-bbc431bc147a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-987406861-fonte-carregador-automotivo-60a-jfa-controle-stetsom-sx-2-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D944f2934-c91c-4651-9b1b-de79f6625456</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1389,16 +1389,16 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fonte Carregador Inteligente Jfa 120 Amperes Sci Modelo Full</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>634.4</v>
+        <v>845.87</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1412,19 +1412,19 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237793033-fonte-carregador-inteligente-jfa-120-amperes-sci-modelo-full-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De4bc110f-c931-4db3-a991-bbc431bc147a</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:90899578#searchVariation=MLB21348561&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=944f2934-c91c-4651-9b1b-de79f6625456</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1434,16 +1434,16 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120 A Jfa Carregador Com Sistema Sci +frete</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>674.6799999999999</v>
+        <v>493.42</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1457,19 +1457,19 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237786659-fonte-automotiva-120-a-jfa-carregador-com-sistema-sci-frete-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De4bc110f-c931-4db3-a991-bbc431bc147a</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:90899578#searchVariation=MLB21455208&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=944f2934-c91c-4651-9b1b-de79f6625456</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1507,14 +1507,14 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2193415173-fonte-carregador-jfa-120a-amperes-medidor-cca-bivolt-bone-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De4bc110f-c931-4db3-a991-bbc431bc147a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2193415173-fonte-carregador-jfa-120a-amperes-medidor-cca-bivolt-bone-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D944f2934-c91c-4651-9b1b-de79f6625456</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+          <t>Fonte Usina 200ah Bivolt + Controle Jfa K600 Brinde</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1533,7 +1533,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>37.9</v>
+        <v>819</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
@@ -1548,14 +1548,14 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:90899578#searchVariation=MLB25707531&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=e4bc110f-c931-4db3-a991-bbc431bc147a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1968884558-fonte-usina-200ah-bivolt-controle-jfa-k600-brinde-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D944f2934-c91c-4651-9b1b-de79f6625456</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1565,16 +1565,16 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático</t>
+          <t>Fonte Automotiva 200a Jfa Carregador Modelo Novo Pro</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>443.07</v>
+        <v>845.87</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1593,14 +1593,14 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2927430679-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De4bc110f-c931-4db3-a991-bbc431bc147a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-982208316-fonte-automotiva-200a-jfa-carregador-modelo-novo-pro-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D944f2934-c91c-4651-9b1b-de79f6625456</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1610,18 +1610,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo 60a Jfa + Controle Stetsom Sx-2</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>549</v>
-      </c>
-      <c r="F27" t="inlineStr"/>
+        <v>78.90000000000001</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1629,19 +1633,19 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-987406861-fonte-carregador-automotivo-60a-jfa-controle-stetsom-sx-2-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De4bc110f-c931-4db3-a991-bbc431bc147a</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:90899578#searchVariation=MLB27687422&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=944f2934-c91c-4651-9b1b-de79f6625456</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1651,20 +1655,20 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+          <t>Fonte Carregador Inteligente Jfa 120 Amperes Sci Modelo Full</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>61.19</v>
+        <v>674.6799999999999</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1674,19 +1678,19 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:90899578#searchVariation=MLB28722231&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=e4bc110f-c931-4db3-a991-bbc431bc147a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1237796246-fonte-carregador-inteligente-jfa-120-amperes-sci-modelo-full-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D944f2934-c91c-4651-9b1b-de79f6625456</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1696,16 +1700,16 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200 Amperes Sci Redline Volt/amp Bivolt</t>
+          <t>Fonte Carregador Jfa Bob Storm 200a 12v 14,4v  Som Paredão</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>805.59</v>
+        <v>624.33</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1714,7 +1718,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1724,14 +1728,14 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305212746-fonte-carregador-jfa-200-amperes-sci-redline-voltamp-bivolt-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De4bc110f-c931-4db3-a991-bbc431bc147a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717157512-fonte-carregador-jfa-bob-storm-200a-12v-144v-som-paredo-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D944f2934-c91c-4651-9b1b-de79f6625456</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1741,16 +1745,16 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob 200 Amperes Bivolt Inteligente Full</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>624.33</v>
+        <v>443.07</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1769,14 +1773,14 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2717151469-fonte-carregador-jfa-bob-200-amperes-bivolt-inteligente-full-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De4bc110f-c931-4db3-a991-bbc431bc147a</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:90899578#searchVariation=MLB21320712&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=944f2934-c91c-4651-9b1b-de79f6625456</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1786,20 +1790,20 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
+          <t>Carregador Fonte Para Bateria Estacionaria Nobraque Jfa 70a</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>64.90000000000001</v>
+        <v>581.8200000000001</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1814,14 +1818,14 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:90899578#searchVariation=MLB34210379&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=e4bc110f-c931-4db3-a991-bbc431bc147a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1474160243-carregador-fonte-para-bateria-estacionaria-nobraque-jfa-70a-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D944f2934-c91c-4651-9b1b-de79f6625456</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1831,20 +1835,20 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Fonte Carregador Inteligente Jfa 120 Amperes Sci Modelo Full</t>
+          <t>Controle Longa Distancia Jfa K600 Preto Com Verde</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>674.6799999999999</v>
+        <v>54.99</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1854,19 +1858,19 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1237796246-fonte-carregador-inteligente-jfa-120-amperes-sci-modelo-full-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De4bc110f-c931-4db3-a991-bbc431bc147a</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-preto-com-verde/p/MLB27999036?pdp_filters=seller_id:90899578#searchVariation=MLB27999036&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=944f2934-c91c-4651-9b1b-de79f6625456</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1876,20 +1880,20 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200 Amperes Sci Red Line Volt/amp</t>
+          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>845.87</v>
+        <v>90.78</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1899,19 +1903,19 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305209701-fonte-carregador-jfa-200-amperes-sci-red-line-voltamp-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De4bc110f-c931-4db3-a991-bbc431bc147a</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:90899578#searchVariation=MLB28557249&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=944f2934-c91c-4651-9b1b-de79f6625456</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1921,16 +1925,16 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>59.9</v>
+        <v>54.99</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1944,19 +1948,19 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:90899578#searchVariation=MLB28687615&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=e4bc110f-c931-4db3-a991-bbc431bc147a</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:90899578#searchVariation=MLB32364344&amp;position=26&amp;search_layout=stack&amp;type=product&amp;tracking_id=944f2934-c91c-4651-9b1b-de79f6625456</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1966,16 +1970,16 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 60 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+          <t>Fonte Carregador Jfa 120 Amperes Sci Redline Digital Bivolt</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>473.28</v>
+        <v>674.6799999999999</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1994,14 +1998,14 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2164414544-fonte-automotiva-60-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De4bc110f-c931-4db3-a991-bbc431bc147a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1305191694-fonte-carregador-jfa-120-amperes-sci-redline-digital-bivolt-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D944f2934-c91c-4651-9b1b-de79f6625456</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2011,22 +2015,18 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 K 600 K-600 Completo</t>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
+        <v>37.9</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2034,19 +2034,19 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-k-600-k-600-completo/p/MLB28798841?pdp_filters=seller_id:90899578#searchVariation=MLB28798841&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=e4bc110f-c931-4db3-a991-bbc431bc147a</t>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:90899578#searchVariation=MLB25707531&amp;position=27&amp;search_layout=stack&amp;type=product&amp;tracking_id=944f2934-c91c-4651-9b1b-de79f6625456</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2056,20 +2056,20 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Carregador Fonte Para Bateria Estacionaria Nobraque Jfa 70a</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>581.8200000000001</v>
+        <v>61.19</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2079,19 +2079,19 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1474160243-carregador-fonte-para-bateria-estacionaria-nobraque-jfa-70a-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De4bc110f-c931-4db3-a991-bbc431bc147a</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:90899578#searchVariation=MLB28722231&amp;position=25&amp;search_layout=stack&amp;type=product&amp;tracking_id=944f2934-c91c-4651-9b1b-de79f6625456</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2110,7 +2110,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>61.19</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2124,19 +2124,19 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:90899578#searchVariation=MLB28357019&amp;position=25&amp;search_layout=stack&amp;type=product&amp;tracking_id=e4bc110f-c931-4db3-a991-bbc431bc147a</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:90899578#searchVariation=MLB34210379&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=944f2934-c91c-4651-9b1b-de79f6625456</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2155,7 +2155,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>61.19</v>
+        <v>59.9</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2169,19 +2169,19 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:90899578#searchVariation=MLB30476096&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=e4bc110f-c931-4db3-a991-bbc431bc147a</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:90899578#searchVariation=MLB28687615&amp;position=22&amp;search_layout=stack&amp;type=product&amp;tracking_id=944f2934-c91c-4651-9b1b-de79f6625456</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 + Central Branco Cinza</t>
+          <t>Controle Longa Distância Jfa K600 K 600 K-600 Completo</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2219,14 +2219,14 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-960910241-controle-longa-distncia-jfa-k600-central-branco-cinza-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De4bc110f-c931-4db3-a991-bbc431bc147a</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-k-600-k-600-completo/p/MLB28798841?pdp_filters=seller_id:90899578#searchVariation=MLB28798841&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=944f2934-c91c-4651-9b1b-de79f6625456</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2236,20 +2236,20 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120 Amperes Sci Redline Digital Bivolt</t>
+          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>674.6799999999999</v>
+        <v>61.19</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2259,19 +2259,19 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1305191694-fonte-carregador-jfa-120-amperes-sci-redline-digital-bivolt-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De4bc110f-c931-4db3-a991-bbc431bc147a</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:90899578#searchVariation=MLB28357019&amp;position=24&amp;search_layout=stack&amp;type=product&amp;tracking_id=944f2934-c91c-4651-9b1b-de79f6625456</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2281,20 +2281,20 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 200a Jfa Carregador Modelo Novo Pro</t>
+          <t>Controle Longa Distância Jfa K600 + Central Branco Cinza</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>845.87</v>
+        <v>59.9</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2309,14 +2309,14 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-982208316-fonte-automotiva-200a-jfa-carregador-modelo-novo-pro-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De4bc110f-c931-4db3-a991-bbc431bc147a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-960910241-controle-longa-distncia-jfa-k600-central-branco-cinza-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D944f2934-c91c-4651-9b1b-de79f6625456</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2326,35 +2326,2179 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>61.19</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:90899578#searchVariation=MLB30476096&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=944f2934-c91c-4651-9b1b-de79f6625456</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>Fonte Carregador Jfa Storm 200a Carga Lenta Motor Home</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>FONTE 200A STORM</t>
         </is>
       </c>
-      <c r="E43" t="n">
+      <c r="E44" t="n">
         <v>845.87</v>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2174567593-fonte-carregador-jfa-storm-200a-carga-lenta-motor-home-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De4bc110f-c931-4db3-a991-bbc431bc147a</t>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2174567593-fonte-carregador-jfa-storm-200a-carga-lenta-motor-home-_JM#position%3D2%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 200a Redline Digital Sci Pwm Eae Bivolt</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>845.87</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1305219292-fonte-automotiva-jfa-200a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 200 Amperes Sci Mais Forte Do Brasil</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>845.87</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1182763871-fonte-carregador-jfa-200-amperes-sci-mais-forte-do-brasil-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 200 Amperes Jfa Storm Redline Cca Sci Smart</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>845.87</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2174587167-fonte-automotiva-200-amperes-jfa-storm-redline-cca-sci-smart-_JM#position%3D3%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Fonte Jfa Storm 200a Com Medidor Cca Slim Bivolt Full</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>845.87</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2174562069-fonte-jfa-storm-200a-com-medidor-cca-slim-bivolt-full-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Spark Usina 120a + Controle Jfa K600 Comple</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>789</v>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-933701204-fonte-automotiva-spark-usina-120a-controle-jfa-k600-comple-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Storm 200a Bivolt 14,4v Sci Medidor Cca</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>845.87</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2174579586-fonte-carregador-jfa-storm-200a-bivolt-144v-sci-medidor-cca-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Filtro Anti-ruido Jfa Rca Eletromagnético Stereo</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2044257162-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Carregador Jfa Storm 200a 14,4v Mais Completa Smart Cca Sci</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>845.87</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2174560779-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-sci-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Storm 200a Mono - 12v</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>FONTE 200 MONO</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>774.88</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3452332428-fonte-carregador-jfa-storm-200a-mono-12v-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Storm 200a Monovolt Flutuação Proteção</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>FONTE 200 MONO</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>774.88</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3452331742-fonte-carregador-jfa-storm-200a-monovolt-flutuaco-proteco-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa K600 + Central Cor Preto Cinza</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>54.99</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-960927274-controle-longa-distncia-jfa-k600-central-cor-preto-cinza-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Storm 200a Bivolt Flutuação Proteção</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>845.87</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2174598731-fonte-carregador-jfa-storm-200a-bivolt-flutuaco-proteco-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Carregador 120a Jfa Voltímetro Original</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>674.6799999999999</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-961758073-fonte-automotiva-carregador-120a-jfa-voltimetro-original-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Fonte Jfa Para Caixa Bob Esponja Storm 200a Bivolt Forte</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>694.8200000000001</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2717124434-fonte-jfa-para-caixa-bob-esponja-storm-200a-bivolt-forte-_JM?searchVariation=179006094719#searchVariation%3D179006094719%26position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Fonte P/caixa Bob Jfa Storm 200a Bivolt 3800w Sem Bateria</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>694.8200000000001</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2717163463-fonte-pcaixa-bob-jfa-storm-200a-bivolt-3800w-sem-bateria-_JM?searchVariation=179008105011#searchVariation%3D179008105011%26position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa K600 + Central Preto / Laranja</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-960900243-controle-longa-distncia-jfa-k600-central-preto-laranja-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Nova Fonte Carregador Jfa Storm Lite 200a Bivolt</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>738.22</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3602873494-nova-fonte-carregador-jfa-storm-lite-200a-bivolt-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Fonte Som Automotivo Carregador Jfa Bob Storm 200a Caixa Bob</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>694.8200000000001</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2717191674-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM?searchVariation=179008212315#searchVariation%3D179008212315%26position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Fonte Jfa Storm 200a Bob Carregador Automático Bivolt</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>694.8200000000001</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2717157623-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-_JM?searchVariation=179008043267#searchVariation%3D179008043267%26position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 120a Sci Redline Bivolt Som</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>674.6799999999999</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1305190815-fonte-carregador-automotivo-jfa-120a-sci-redline-bivolt-som-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 120a Amperes Redline Voltímetro Digita</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>674.6799999999999</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1484122024-fonte-automotiva-jfa-120a-amperes-redline-voltimetro-digita-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa K600 + Barato Brasil</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>54.99</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1042812523-controle-longa-distncia-jfa-k600-barato-brasil-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Filtro Anti Ruido Jfa Rca Com Blindagem P/ Som Automotivo</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2044238984-filtro-anti-ruido-jfa-rca-com-blindagem-p-som-automotivo-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Storm Bivolt P/ Caixa Bob</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>674.6799999999999</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2161622734-fonte-carregador-jfa-120a-storm-bivolt-p-caixa-bob-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120 Amperes Sci Red Line Volt/amp</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>674.6799999999999</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1305194787-fonte-carregador-jfa-120-amperes-sci-red-line-voltamp-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa Preto / Cinza K600 Full</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1465503271-controle-longa-distancia-jfa-preto-cinza-k600-full-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 120 A Jfa Carregador Com Sistema Sci</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>674.6799999999999</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1311934359-fonte-automotiva-120-a-jfa-carregador-com-sistema-sci-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 120a Redline Digital Sci Pwm Eae Bivolt</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>674.6799999999999</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1728434390-fonte-automotiva-jfa-120a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Fonte Carregador 120 A Jfa Com Sistema Sci Volt/amp</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>674.6799999999999</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1311934427-fonte-carregador-120-a-jfa-com-sistema-sci-voltamp-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Estor 120a Bivolt</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>674.6799999999999</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2161603784-fonte-carregador-jfa-estor-120a-bivolt-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Combo 10 Kits Jfa K600 - Controle Longa Distancia P/ Pioneer</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>699</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1465452768-combo-10-kits-jfa-k600-controle-longa-distancia-p-pioneer-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fonte Carregador Jfa 70a Sistema Inteligente Para Bateria </t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>581.8200000000001</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1474160068-fonte-carregador-jfa-70a-sistema-inteligente-para-bateria-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Jfa K600 - Combo 10 Peças Longa Distancia Cores Variadas</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>699</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1465449338-jfa-k600-combo-10-pecas-longa-distancia-cores-variadas-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 70a Digital Sci Bivolt Volt Amp Full</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>581.8200000000001</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1309055784-fonte-carregador-jfa-70a-digital-sci-bivolt-volt-amp-full-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 70a Slim Mais Forte Que 60a Azul</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>581.8200000000001</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1474159062-fonte-carregador-jfa-70a-slim-mais-forte-que-60a-azul-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Para Sistema Solar Jfa 70a Bivolt</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>581.8200000000001</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1474159284-fonte-carregador-para-sistema-solar-jfa-70a-bivolt-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 70a Digital Sci Bivolt Volt E Amp 60</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>581.8200000000001</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1096345268-fonte-carregador-jfa-70a-digital-sci-bivolt-volt-e-amp-60-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Bateria Jfa 200a Sci Original/nf/garantia</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>845.87</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-961801997-fonte-carregador-bateria-jfa-200a-sci-originalnfgarantia-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Storm 120a Bivolt Slim</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>674.6799999999999</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2161654722-fonte-carregador-jfa-storm-120a-bivolt-slim-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Acqua Som Completo Top</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>67.15000000000001</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2724203538-controle-longa-distancia-jfa-k1200-acqua-som-completo-top-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 120a Jfa Carregador Slim Oferta Pro</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>674.6799999999999</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1237791973-fonte-automotiva-120a-jfa-carregador-slim-oferta-pro-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa K600 + Central Preto / Laranja</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>54.99</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1042815891-controle-longa-distncia-jfa-k600-central-preto-laranja-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 120a Jfa Carregador Slim Oferta Full</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>674.6799999999999</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1237791576-fonte-automotiva-120a-jfa-carregador-slim-oferta-full-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 120 A Jfa Carregador Slim Modelo 2020</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>674.6799999999999</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1237790625-fonte-automotiva-120-a-jfa-carregador-slim-modelo-2020-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Filtro Anti-ruido Jfa Rca Eletromagnético Stereo</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2044232351-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Carregador Fonte Automotivo 120a Jfa Stomr</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>674.6799999999999</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2161616527-carregador-fonte-automotivo-120a-jfa-stomr-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>radicalsom_matriz</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Nova Fonte Carregador Jfa Storm 120a Bivolt</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>674.6799999999999</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2161609578-nova-fonte-carregador-jfa-storm-120a-bivolt-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7fd5543-8113-41b2-abdf-9e9513578e3e</t>
         </is>
       </c>
     </row>
